--- a/로스트아크/데이터테이블/1차완성/Skill_Data_Per_Level_Table.xlsx
+++ b/로스트아크/데이터테이블/1차완성/Skill_Data_Per_Level_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\1차완성\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1433733-8CC9-4F1A-A2D5-4AE599905EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0153CAE-EA13-426B-ADB3-B215DE7C5CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -2051,6 +2051,18 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2066,32 +2078,20 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2436,11 +2436,11 @@
   <sheetData>
     <row r="1" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
       <c r="F2" s="29" t="s">
         <v>22</v>
       </c>
@@ -2639,8 +2639,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F950"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A933" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B955" sqref="B955"/>
+    <sheetView tabSelected="1" topLeftCell="A249" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2670,26 +2670,26 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="57" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="54" t="s">
+    <row r="2" spans="1:6" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="56"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="52" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2706,7 +2706,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="48"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="3" t="s">
         <v>39</v>
       </c>
@@ -2721,7 +2721,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="49"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="3" t="s">
         <v>39</v>
       </c>
@@ -2736,7 +2736,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="51" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2753,7 +2753,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="48"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="3" t="s">
         <v>39</v>
       </c>
@@ -2768,7 +2768,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="49"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="3" t="s">
         <v>39</v>
       </c>
@@ -2783,7 +2783,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="51" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2800,7 +2800,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="48"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
@@ -2815,7 +2815,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="49"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="3" t="s">
         <v>39</v>
       </c>
@@ -2830,7 +2830,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="51" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2847,7 +2847,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="48"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
@@ -2862,7 +2862,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="49"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="3" t="s">
         <v>39</v>
       </c>
@@ -2877,7 +2877,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="51" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -2894,7 +2894,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="48"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
@@ -2909,7 +2909,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="49"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="3" t="s">
         <v>39</v>
       </c>
@@ -2924,7 +2924,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="51" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2941,7 +2941,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="48"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="3" t="s">
         <v>39</v>
       </c>
@@ -2956,7 +2956,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="49"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="3" t="s">
         <v>39</v>
       </c>
@@ -2971,7 +2971,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="51" t="s">
         <v>48</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2988,7 +2988,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="48"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="3" t="s">
         <v>39</v>
       </c>
@@ -3003,7 +3003,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="49"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="3" t="s">
         <v>39</v>
       </c>
@@ -3018,7 +3018,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="51" t="s">
         <v>49</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -3035,7 +3035,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="48"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="3" t="s">
         <v>39</v>
       </c>
@@ -3050,7 +3050,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="49"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="3" t="s">
         <v>39</v>
       </c>
@@ -3065,7 +3065,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="51" t="s">
         <v>50</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3082,7 +3082,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="48"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="3" t="s">
         <v>39</v>
       </c>
@@ -3097,7 +3097,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="49"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="3" t="s">
         <v>39</v>
       </c>
@@ -3112,7 +3112,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="51" t="s">
         <v>51</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -3129,7 +3129,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="48"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="3" t="s">
         <v>39</v>
       </c>
@@ -3144,7 +3144,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="49"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="3" t="s">
         <v>39</v>
       </c>
@@ -3159,7 +3159,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="51" t="s">
         <v>52</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -3176,7 +3176,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="48"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="3" t="s">
         <v>39</v>
       </c>
@@ -3191,7 +3191,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="49"/>
+      <c r="A35" s="55"/>
       <c r="B35" s="3" t="s">
         <v>39</v>
       </c>
@@ -3206,7 +3206,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="51" t="s">
         <v>53</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -3223,7 +3223,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="48"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="3" t="s">
         <v>39</v>
       </c>
@@ -3238,7 +3238,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="49"/>
+      <c r="A38" s="55"/>
       <c r="B38" s="3" t="s">
         <v>39</v>
       </c>
@@ -3253,7 +3253,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="51" t="s">
         <v>54</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -3270,7 +3270,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="48"/>
+      <c r="A40" s="52"/>
       <c r="B40" s="3" t="s">
         <v>39</v>
       </c>
@@ -3285,7 +3285,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="49"/>
+      <c r="A41" s="55"/>
       <c r="B41" s="3" t="s">
         <v>39</v>
       </c>
@@ -3300,7 +3300,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="51" t="s">
         <v>55</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -3317,7 +3317,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="48"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="3" t="s">
         <v>39</v>
       </c>
@@ -3332,7 +3332,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="49"/>
+      <c r="A44" s="55"/>
       <c r="B44" s="40" t="s">
         <v>39</v>
       </c>
@@ -3347,7 +3347,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="48" t="s">
+      <c r="A45" s="52" t="s">
         <v>82</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -3364,7 +3364,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="48"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="3" t="s">
         <v>95</v>
       </c>
@@ -3379,7 +3379,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="47" t="s">
+      <c r="A47" s="51" t="s">
         <v>83</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -3396,7 +3396,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="48"/>
+      <c r="A48" s="52"/>
       <c r="B48" s="3" t="s">
         <v>95</v>
       </c>
@@ -3411,7 +3411,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="47" t="s">
+      <c r="A49" s="51" t="s">
         <v>84</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -3428,7 +3428,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="48"/>
+      <c r="A50" s="52"/>
       <c r="B50" s="3" t="s">
         <v>95</v>
       </c>
@@ -3443,7 +3443,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="47" t="s">
+      <c r="A51" s="51" t="s">
         <v>85</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -3460,7 +3460,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="48"/>
+      <c r="A52" s="52"/>
       <c r="B52" s="3" t="s">
         <v>95</v>
       </c>
@@ -3475,7 +3475,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="47" t="s">
+      <c r="A53" s="51" t="s">
         <v>86</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -3492,7 +3492,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="48"/>
+      <c r="A54" s="52"/>
       <c r="B54" s="3" t="s">
         <v>95</v>
       </c>
@@ -3507,7 +3507,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="47" t="s">
+      <c r="A55" s="51" t="s">
         <v>87</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -3524,7 +3524,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="48"/>
+      <c r="A56" s="52"/>
       <c r="B56" s="3" t="s">
         <v>95</v>
       </c>
@@ -3539,7 +3539,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="47" t="s">
+      <c r="A57" s="51" t="s">
         <v>88</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -3556,7 +3556,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="48"/>
+      <c r="A58" s="52"/>
       <c r="B58" s="3" t="s">
         <v>95</v>
       </c>
@@ -3572,7 +3572,7 @@
       <c r="F58" s="36"/>
     </row>
     <row r="59" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="47" t="s">
+      <c r="A59" s="51" t="s">
         <v>89</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -3589,7 +3589,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="48"/>
+      <c r="A60" s="52"/>
       <c r="B60" s="3" t="s">
         <v>95</v>
       </c>
@@ -3604,7 +3604,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="47" t="s">
+      <c r="A61" s="51" t="s">
         <v>90</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -3621,7 +3621,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="48"/>
+      <c r="A62" s="52"/>
       <c r="B62" s="3" t="s">
         <v>95</v>
       </c>
@@ -3636,7 +3636,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="47" t="s">
+      <c r="A63" s="51" t="s">
         <v>91</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -3653,7 +3653,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="48"/>
+      <c r="A64" s="52"/>
       <c r="B64" s="3" t="s">
         <v>95</v>
       </c>
@@ -3668,7 +3668,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="47" t="s">
+      <c r="A65" s="51" t="s">
         <v>92</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -3685,7 +3685,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="48"/>
+      <c r="A66" s="52"/>
       <c r="B66" s="3" t="s">
         <v>95</v>
       </c>
@@ -3700,7 +3700,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="47" t="s">
+      <c r="A67" s="51" t="s">
         <v>93</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -3717,7 +3717,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="48"/>
+      <c r="A68" s="52"/>
       <c r="B68" s="3" t="s">
         <v>95</v>
       </c>
@@ -3732,7 +3732,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="47" t="s">
+      <c r="A69" s="51" t="s">
         <v>94</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -3749,7 +3749,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="48"/>
+      <c r="A70" s="52"/>
       <c r="B70" s="3" t="s">
         <v>95</v>
       </c>
@@ -3764,7 +3764,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="47" t="s">
+      <c r="A71" s="51" t="s">
         <v>123</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -3781,7 +3781,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="48"/>
+      <c r="A72" s="52"/>
       <c r="B72" s="40" t="s">
         <v>95</v>
       </c>
@@ -3796,7 +3796,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="47" t="s">
+      <c r="A73" s="51" t="s">
         <v>124</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -3813,7 +3813,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="48"/>
+      <c r="A74" s="52"/>
       <c r="B74" s="3" t="s">
         <v>108</v>
       </c>
@@ -3828,7 +3828,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="49"/>
+      <c r="A75" s="55"/>
       <c r="B75" s="3" t="s">
         <v>108</v>
       </c>
@@ -3843,7 +3843,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="47" t="s">
+      <c r="A76" s="51" t="s">
         <v>96</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -3860,7 +3860,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="48"/>
+      <c r="A77" s="52"/>
       <c r="B77" s="3" t="s">
         <v>108</v>
       </c>
@@ -3875,7 +3875,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="49"/>
+      <c r="A78" s="55"/>
       <c r="B78" s="3" t="s">
         <v>108</v>
       </c>
@@ -3890,7 +3890,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="47" t="s">
+      <c r="A79" s="51" t="s">
         <v>97</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -3907,7 +3907,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="48"/>
+      <c r="A80" s="52"/>
       <c r="B80" s="3" t="s">
         <v>108</v>
       </c>
@@ -3922,7 +3922,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="49"/>
+      <c r="A81" s="55"/>
       <c r="B81" s="3" t="s">
         <v>108</v>
       </c>
@@ -3937,7 +3937,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="47" t="s">
+      <c r="A82" s="51" t="s">
         <v>98</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -3954,7 +3954,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="48"/>
+      <c r="A83" s="52"/>
       <c r="B83" s="3" t="s">
         <v>108</v>
       </c>
@@ -3969,7 +3969,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="49"/>
+      <c r="A84" s="55"/>
       <c r="B84" s="3" t="s">
         <v>108</v>
       </c>
@@ -3984,7 +3984,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="47" t="s">
+      <c r="A85" s="51" t="s">
         <v>99</v>
       </c>
       <c r="B85" s="3" t="s">
@@ -4001,7 +4001,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="48"/>
+      <c r="A86" s="52"/>
       <c r="B86" s="3" t="s">
         <v>108</v>
       </c>
@@ -4016,7 +4016,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="49"/>
+      <c r="A87" s="55"/>
       <c r="B87" s="3" t="s">
         <v>108</v>
       </c>
@@ -4031,7 +4031,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="47" t="s">
+      <c r="A88" s="51" t="s">
         <v>100</v>
       </c>
       <c r="B88" s="3" t="s">
@@ -4048,7 +4048,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="48"/>
+      <c r="A89" s="52"/>
       <c r="B89" s="3" t="s">
         <v>108</v>
       </c>
@@ -4063,7 +4063,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="49"/>
+      <c r="A90" s="55"/>
       <c r="B90" s="3" t="s">
         <v>108</v>
       </c>
@@ -4078,7 +4078,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="47" t="s">
+      <c r="A91" s="51" t="s">
         <v>101</v>
       </c>
       <c r="B91" s="3" t="s">
@@ -4095,7 +4095,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="48"/>
+      <c r="A92" s="52"/>
       <c r="B92" s="3" t="s">
         <v>108</v>
       </c>
@@ -4110,7 +4110,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="49"/>
+      <c r="A93" s="55"/>
       <c r="B93" s="3" t="s">
         <v>108</v>
       </c>
@@ -4125,7 +4125,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="47" t="s">
+      <c r="A94" s="51" t="s">
         <v>102</v>
       </c>
       <c r="B94" s="3" t="s">
@@ -4142,7 +4142,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="48"/>
+      <c r="A95" s="52"/>
       <c r="B95" s="3" t="s">
         <v>108</v>
       </c>
@@ -4157,7 +4157,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="49"/>
+      <c r="A96" s="55"/>
       <c r="B96" s="3" t="s">
         <v>108</v>
       </c>
@@ -4172,7 +4172,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="47" t="s">
+      <c r="A97" s="51" t="s">
         <v>103</v>
       </c>
       <c r="B97" s="3" t="s">
@@ -4189,7 +4189,7 @@
       </c>
     </row>
     <row r="98" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="48"/>
+      <c r="A98" s="52"/>
       <c r="B98" s="3" t="s">
         <v>108</v>
       </c>
@@ -4204,7 +4204,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="49"/>
+      <c r="A99" s="55"/>
       <c r="B99" s="3" t="s">
         <v>108</v>
       </c>
@@ -4219,7 +4219,7 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="47" t="s">
+      <c r="A100" s="51" t="s">
         <v>104</v>
       </c>
       <c r="B100" s="3" t="s">
@@ -4236,7 +4236,7 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="48"/>
+      <c r="A101" s="52"/>
       <c r="B101" s="3" t="s">
         <v>108</v>
       </c>
@@ -4251,7 +4251,7 @@
       </c>
     </row>
     <row r="102" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="49"/>
+      <c r="A102" s="55"/>
       <c r="B102" s="3" t="s">
         <v>108</v>
       </c>
@@ -4266,7 +4266,7 @@
       </c>
     </row>
     <row r="103" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="47" t="s">
+      <c r="A103" s="51" t="s">
         <v>105</v>
       </c>
       <c r="B103" s="3" t="s">
@@ -4283,7 +4283,7 @@
       </c>
     </row>
     <row r="104" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="48"/>
+      <c r="A104" s="52"/>
       <c r="B104" s="3" t="s">
         <v>108</v>
       </c>
@@ -4298,7 +4298,7 @@
       </c>
     </row>
     <row r="105" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="49"/>
+      <c r="A105" s="55"/>
       <c r="B105" s="3" t="s">
         <v>108</v>
       </c>
@@ -4313,7 +4313,7 @@
       </c>
     </row>
     <row r="106" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="47" t="s">
+      <c r="A106" s="51" t="s">
         <v>106</v>
       </c>
       <c r="B106" s="3" t="s">
@@ -4330,7 +4330,7 @@
       </c>
     </row>
     <row r="107" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="48"/>
+      <c r="A107" s="52"/>
       <c r="B107" s="3" t="s">
         <v>108</v>
       </c>
@@ -4345,7 +4345,7 @@
       </c>
     </row>
     <row r="108" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="49"/>
+      <c r="A108" s="55"/>
       <c r="B108" s="3" t="s">
         <v>108</v>
       </c>
@@ -4360,7 +4360,7 @@
       </c>
     </row>
     <row r="109" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="47" t="s">
+      <c r="A109" s="51" t="s">
         <v>107</v>
       </c>
       <c r="B109" s="3" t="s">
@@ -4377,7 +4377,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="48"/>
+      <c r="A110" s="52"/>
       <c r="B110" s="3" t="s">
         <v>108</v>
       </c>
@@ -4392,7 +4392,7 @@
       </c>
     </row>
     <row r="111" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="49"/>
+      <c r="A111" s="55"/>
       <c r="B111" s="3" t="s">
         <v>108</v>
       </c>
@@ -4407,7 +4407,7 @@
       </c>
     </row>
     <row r="112" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="47" t="s">
+      <c r="A112" s="51" t="s">
         <v>125</v>
       </c>
       <c r="B112" s="3" t="s">
@@ -4424,7 +4424,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="48"/>
+      <c r="A113" s="52"/>
       <c r="B113" s="3" t="s">
         <v>108</v>
       </c>
@@ -4439,7 +4439,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="49"/>
+      <c r="A114" s="55"/>
       <c r="B114" s="40" t="s">
         <v>108</v>
       </c>
@@ -4454,7 +4454,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="48" t="s">
+      <c r="A115" s="52" t="s">
         <v>109</v>
       </c>
       <c r="B115" s="3" t="s">
@@ -4471,7 +4471,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="48"/>
+      <c r="A116" s="52"/>
       <c r="B116" s="3" t="s">
         <v>122</v>
       </c>
@@ -4486,7 +4486,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="49"/>
+      <c r="A117" s="55"/>
       <c r="B117" s="3" t="s">
         <v>122</v>
       </c>
@@ -4501,7 +4501,7 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="47" t="s">
+      <c r="A118" s="51" t="s">
         <v>110</v>
       </c>
       <c r="B118" s="3" t="s">
@@ -4518,7 +4518,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="48"/>
+      <c r="A119" s="52"/>
       <c r="B119" s="3" t="s">
         <v>122</v>
       </c>
@@ -4533,7 +4533,7 @@
       </c>
     </row>
     <row r="120" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="49"/>
+      <c r="A120" s="55"/>
       <c r="B120" s="3" t="s">
         <v>122</v>
       </c>
@@ -4548,7 +4548,7 @@
       </c>
     </row>
     <row r="121" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="47" t="s">
+      <c r="A121" s="51" t="s">
         <v>111</v>
       </c>
       <c r="B121" s="3" t="s">
@@ -4565,7 +4565,7 @@
       </c>
     </row>
     <row r="122" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="48"/>
+      <c r="A122" s="52"/>
       <c r="B122" s="3" t="s">
         <v>122</v>
       </c>
@@ -4580,7 +4580,7 @@
       </c>
     </row>
     <row r="123" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="49"/>
+      <c r="A123" s="55"/>
       <c r="B123" s="3" t="s">
         <v>122</v>
       </c>
@@ -4595,7 +4595,7 @@
       </c>
     </row>
     <row r="124" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="47" t="s">
+      <c r="A124" s="51" t="s">
         <v>112</v>
       </c>
       <c r="B124" s="3" t="s">
@@ -4612,7 +4612,7 @@
       </c>
     </row>
     <row r="125" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="48"/>
+      <c r="A125" s="52"/>
       <c r="B125" s="3" t="s">
         <v>122</v>
       </c>
@@ -4627,7 +4627,7 @@
       </c>
     </row>
     <row r="126" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="49"/>
+      <c r="A126" s="55"/>
       <c r="B126" s="3" t="s">
         <v>122</v>
       </c>
@@ -4642,7 +4642,7 @@
       </c>
     </row>
     <row r="127" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="47" t="s">
+      <c r="A127" s="51" t="s">
         <v>113</v>
       </c>
       <c r="B127" s="3" t="s">
@@ -4659,7 +4659,7 @@
       </c>
     </row>
     <row r="128" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="48"/>
+      <c r="A128" s="52"/>
       <c r="B128" s="3" t="s">
         <v>122</v>
       </c>
@@ -4674,7 +4674,7 @@
       </c>
     </row>
     <row r="129" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A129" s="49"/>
+      <c r="A129" s="55"/>
       <c r="B129" s="3" t="s">
         <v>122</v>
       </c>
@@ -4689,7 +4689,7 @@
       </c>
     </row>
     <row r="130" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="47" t="s">
+      <c r="A130" s="51" t="s">
         <v>114</v>
       </c>
       <c r="B130" s="3" t="s">
@@ -4706,7 +4706,7 @@
       </c>
     </row>
     <row r="131" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="48"/>
+      <c r="A131" s="52"/>
       <c r="B131" s="3" t="s">
         <v>122</v>
       </c>
@@ -4721,7 +4721,7 @@
       </c>
     </row>
     <row r="132" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="49"/>
+      <c r="A132" s="55"/>
       <c r="B132" s="3" t="s">
         <v>122</v>
       </c>
@@ -4736,7 +4736,7 @@
       </c>
     </row>
     <row r="133" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="47" t="s">
+      <c r="A133" s="51" t="s">
         <v>115</v>
       </c>
       <c r="B133" s="3" t="s">
@@ -4753,7 +4753,7 @@
       </c>
     </row>
     <row r="134" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="48"/>
+      <c r="A134" s="52"/>
       <c r="B134" s="3" t="s">
         <v>122</v>
       </c>
@@ -4768,7 +4768,7 @@
       </c>
     </row>
     <row r="135" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A135" s="49"/>
+      <c r="A135" s="55"/>
       <c r="B135" s="3" t="s">
         <v>122</v>
       </c>
@@ -4783,7 +4783,7 @@
       </c>
     </row>
     <row r="136" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A136" s="47" t="s">
+      <c r="A136" s="51" t="s">
         <v>116</v>
       </c>
       <c r="B136" s="3" t="s">
@@ -4800,7 +4800,7 @@
       </c>
     </row>
     <row r="137" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="48"/>
+      <c r="A137" s="52"/>
       <c r="B137" s="3" t="s">
         <v>122</v>
       </c>
@@ -4815,7 +4815,7 @@
       </c>
     </row>
     <row r="138" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="49"/>
+      <c r="A138" s="55"/>
       <c r="B138" s="3" t="s">
         <v>122</v>
       </c>
@@ -4830,7 +4830,7 @@
       </c>
     </row>
     <row r="139" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="47" t="s">
+      <c r="A139" s="51" t="s">
         <v>117</v>
       </c>
       <c r="B139" s="3" t="s">
@@ -4847,7 +4847,7 @@
       </c>
     </row>
     <row r="140" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="48"/>
+      <c r="A140" s="52"/>
       <c r="B140" s="3" t="s">
         <v>122</v>
       </c>
@@ -4862,7 +4862,7 @@
       </c>
     </row>
     <row r="141" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="49"/>
+      <c r="A141" s="55"/>
       <c r="B141" s="3" t="s">
         <v>122</v>
       </c>
@@ -4877,7 +4877,7 @@
       </c>
     </row>
     <row r="142" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A142" s="47" t="s">
+      <c r="A142" s="51" t="s">
         <v>118</v>
       </c>
       <c r="B142" s="3" t="s">
@@ -4894,7 +4894,7 @@
       </c>
     </row>
     <row r="143" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A143" s="48"/>
+      <c r="A143" s="52"/>
       <c r="B143" s="3" t="s">
         <v>122</v>
       </c>
@@ -4909,7 +4909,7 @@
       </c>
     </row>
     <row r="144" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A144" s="49"/>
+      <c r="A144" s="55"/>
       <c r="B144" s="3" t="s">
         <v>122</v>
       </c>
@@ -4924,7 +4924,7 @@
       </c>
     </row>
     <row r="145" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A145" s="47" t="s">
+      <c r="A145" s="51" t="s">
         <v>119</v>
       </c>
       <c r="B145" s="3" t="s">
@@ -4941,7 +4941,7 @@
       </c>
     </row>
     <row r="146" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A146" s="48"/>
+      <c r="A146" s="52"/>
       <c r="B146" s="3" t="s">
         <v>122</v>
       </c>
@@ -4956,7 +4956,7 @@
       </c>
     </row>
     <row r="147" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A147" s="49"/>
+      <c r="A147" s="55"/>
       <c r="B147" s="3" t="s">
         <v>122</v>
       </c>
@@ -4971,7 +4971,7 @@
       </c>
     </row>
     <row r="148" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A148" s="47" t="s">
+      <c r="A148" s="51" t="s">
         <v>120</v>
       </c>
       <c r="B148" s="3" t="s">
@@ -4988,7 +4988,7 @@
       </c>
     </row>
     <row r="149" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A149" s="48"/>
+      <c r="A149" s="52"/>
       <c r="B149" s="3" t="s">
         <v>122</v>
       </c>
@@ -5003,7 +5003,7 @@
       </c>
     </row>
     <row r="150" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A150" s="49"/>
+      <c r="A150" s="55"/>
       <c r="B150" s="3" t="s">
         <v>122</v>
       </c>
@@ -5018,7 +5018,7 @@
       </c>
     </row>
     <row r="151" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A151" s="47" t="s">
+      <c r="A151" s="51" t="s">
         <v>121</v>
       </c>
       <c r="B151" s="3" t="s">
@@ -5035,7 +5035,7 @@
       </c>
     </row>
     <row r="152" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A152" s="48"/>
+      <c r="A152" s="52"/>
       <c r="B152" s="3" t="s">
         <v>122</v>
       </c>
@@ -5050,7 +5050,7 @@
       </c>
     </row>
     <row r="153" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A153" s="49"/>
+      <c r="A153" s="55"/>
       <c r="B153" s="3" t="s">
         <v>122</v>
       </c>
@@ -5065,7 +5065,7 @@
       </c>
     </row>
     <row r="154" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A154" s="47" t="s">
+      <c r="A154" s="51" t="s">
         <v>126</v>
       </c>
       <c r="B154" s="3" t="s">
@@ -5082,7 +5082,7 @@
       </c>
     </row>
     <row r="155" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A155" s="48"/>
+      <c r="A155" s="52"/>
       <c r="B155" s="3" t="s">
         <v>122</v>
       </c>
@@ -5097,7 +5097,7 @@
       </c>
     </row>
     <row r="156" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A156" s="49"/>
+      <c r="A156" s="55"/>
       <c r="B156" s="40" t="s">
         <v>122</v>
       </c>
@@ -5112,7 +5112,7 @@
       </c>
     </row>
     <row r="157" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A157" s="48" t="s">
+      <c r="A157" s="52" t="s">
         <v>127</v>
       </c>
       <c r="B157" s="3" t="s">
@@ -5129,7 +5129,7 @@
       </c>
     </row>
     <row r="158" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A158" s="48"/>
+      <c r="A158" s="52"/>
       <c r="B158" s="3" t="s">
         <v>141</v>
       </c>
@@ -5144,7 +5144,7 @@
       </c>
     </row>
     <row r="159" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A159" s="49"/>
+      <c r="A159" s="55"/>
       <c r="B159" s="3" t="s">
         <v>141</v>
       </c>
@@ -5159,7 +5159,7 @@
       </c>
     </row>
     <row r="160" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A160" s="47" t="s">
+      <c r="A160" s="51" t="s">
         <v>128</v>
       </c>
       <c r="B160" s="3" t="s">
@@ -5176,7 +5176,7 @@
       </c>
     </row>
     <row r="161" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A161" s="48"/>
+      <c r="A161" s="52"/>
       <c r="B161" s="3" t="s">
         <v>141</v>
       </c>
@@ -5191,7 +5191,7 @@
       </c>
     </row>
     <row r="162" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A162" s="49"/>
+      <c r="A162" s="55"/>
       <c r="B162" s="3" t="s">
         <v>141</v>
       </c>
@@ -5206,7 +5206,7 @@
       </c>
     </row>
     <row r="163" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A163" s="47" t="s">
+      <c r="A163" s="51" t="s">
         <v>129</v>
       </c>
       <c r="B163" s="3" t="s">
@@ -5223,7 +5223,7 @@
       </c>
     </row>
     <row r="164" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A164" s="48"/>
+      <c r="A164" s="52"/>
       <c r="B164" s="3" t="s">
         <v>141</v>
       </c>
@@ -5238,7 +5238,7 @@
       </c>
     </row>
     <row r="165" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A165" s="49"/>
+      <c r="A165" s="55"/>
       <c r="B165" s="3" t="s">
         <v>141</v>
       </c>
@@ -5253,7 +5253,7 @@
       </c>
     </row>
     <row r="166" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A166" s="47" t="s">
+      <c r="A166" s="51" t="s">
         <v>130</v>
       </c>
       <c r="B166" s="3" t="s">
@@ -5270,7 +5270,7 @@
       </c>
     </row>
     <row r="167" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A167" s="48"/>
+      <c r="A167" s="52"/>
       <c r="B167" s="3" t="s">
         <v>141</v>
       </c>
@@ -5285,7 +5285,7 @@
       </c>
     </row>
     <row r="168" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A168" s="49"/>
+      <c r="A168" s="55"/>
       <c r="B168" s="3" t="s">
         <v>141</v>
       </c>
@@ -5300,7 +5300,7 @@
       </c>
     </row>
     <row r="169" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A169" s="47" t="s">
+      <c r="A169" s="51" t="s">
         <v>131</v>
       </c>
       <c r="B169" s="3" t="s">
@@ -5317,7 +5317,7 @@
       </c>
     </row>
     <row r="170" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A170" s="48"/>
+      <c r="A170" s="52"/>
       <c r="B170" s="3" t="s">
         <v>141</v>
       </c>
@@ -5332,7 +5332,7 @@
       </c>
     </row>
     <row r="171" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A171" s="49"/>
+      <c r="A171" s="55"/>
       <c r="B171" s="3" t="s">
         <v>141</v>
       </c>
@@ -5347,7 +5347,7 @@
       </c>
     </row>
     <row r="172" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A172" s="47" t="s">
+      <c r="A172" s="51" t="s">
         <v>132</v>
       </c>
       <c r="B172" s="3" t="s">
@@ -5364,7 +5364,7 @@
       </c>
     </row>
     <row r="173" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A173" s="48"/>
+      <c r="A173" s="52"/>
       <c r="B173" s="3" t="s">
         <v>141</v>
       </c>
@@ -5379,7 +5379,7 @@
       </c>
     </row>
     <row r="174" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A174" s="49"/>
+      <c r="A174" s="55"/>
       <c r="B174" s="3" t="s">
         <v>141</v>
       </c>
@@ -5394,7 +5394,7 @@
       </c>
     </row>
     <row r="175" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A175" s="47" t="s">
+      <c r="A175" s="51" t="s">
         <v>133</v>
       </c>
       <c r="B175" s="3" t="s">
@@ -5411,7 +5411,7 @@
       </c>
     </row>
     <row r="176" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A176" s="48"/>
+      <c r="A176" s="52"/>
       <c r="B176" s="3" t="s">
         <v>141</v>
       </c>
@@ -5426,7 +5426,7 @@
       </c>
     </row>
     <row r="177" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A177" s="49"/>
+      <c r="A177" s="55"/>
       <c r="B177" s="3" t="s">
         <v>141</v>
       </c>
@@ -5441,7 +5441,7 @@
       </c>
     </row>
     <row r="178" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A178" s="47" t="s">
+      <c r="A178" s="51" t="s">
         <v>134</v>
       </c>
       <c r="B178" s="3" t="s">
@@ -5458,7 +5458,7 @@
       </c>
     </row>
     <row r="179" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A179" s="48"/>
+      <c r="A179" s="52"/>
       <c r="B179" s="3" t="s">
         <v>141</v>
       </c>
@@ -5473,7 +5473,7 @@
       </c>
     </row>
     <row r="180" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A180" s="49"/>
+      <c r="A180" s="55"/>
       <c r="B180" s="3" t="s">
         <v>141</v>
       </c>
@@ -5488,7 +5488,7 @@
       </c>
     </row>
     <row r="181" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A181" s="47" t="s">
+      <c r="A181" s="51" t="s">
         <v>135</v>
       </c>
       <c r="B181" s="3" t="s">
@@ -5505,7 +5505,7 @@
       </c>
     </row>
     <row r="182" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A182" s="48"/>
+      <c r="A182" s="52"/>
       <c r="B182" s="3" t="s">
         <v>141</v>
       </c>
@@ -5520,7 +5520,7 @@
       </c>
     </row>
     <row r="183" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A183" s="49"/>
+      <c r="A183" s="55"/>
       <c r="B183" s="3" t="s">
         <v>141</v>
       </c>
@@ -5535,7 +5535,7 @@
       </c>
     </row>
     <row r="184" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A184" s="47" t="s">
+      <c r="A184" s="51" t="s">
         <v>136</v>
       </c>
       <c r="B184" s="3" t="s">
@@ -5552,7 +5552,7 @@
       </c>
     </row>
     <row r="185" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A185" s="48"/>
+      <c r="A185" s="52"/>
       <c r="B185" s="3" t="s">
         <v>141</v>
       </c>
@@ -5567,7 +5567,7 @@
       </c>
     </row>
     <row r="186" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A186" s="49"/>
+      <c r="A186" s="55"/>
       <c r="B186" s="3" t="s">
         <v>141</v>
       </c>
@@ -5582,7 +5582,7 @@
       </c>
     </row>
     <row r="187" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A187" s="47" t="s">
+      <c r="A187" s="51" t="s">
         <v>137</v>
       </c>
       <c r="B187" s="3" t="s">
@@ -5599,7 +5599,7 @@
       </c>
     </row>
     <row r="188" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A188" s="48"/>
+      <c r="A188" s="52"/>
       <c r="B188" s="3" t="s">
         <v>141</v>
       </c>
@@ -5614,7 +5614,7 @@
       </c>
     </row>
     <row r="189" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A189" s="49"/>
+      <c r="A189" s="55"/>
       <c r="B189" s="3" t="s">
         <v>141</v>
       </c>
@@ -5629,7 +5629,7 @@
       </c>
     </row>
     <row r="190" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A190" s="47" t="s">
+      <c r="A190" s="51" t="s">
         <v>138</v>
       </c>
       <c r="B190" s="3" t="s">
@@ -5646,7 +5646,7 @@
       </c>
     </row>
     <row r="191" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A191" s="48"/>
+      <c r="A191" s="52"/>
       <c r="B191" s="3" t="s">
         <v>141</v>
       </c>
@@ -5661,7 +5661,7 @@
       </c>
     </row>
     <row r="192" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A192" s="49"/>
+      <c r="A192" s="55"/>
       <c r="B192" s="3" t="s">
         <v>141</v>
       </c>
@@ -5676,7 +5676,7 @@
       </c>
     </row>
     <row r="193" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A193" s="47" t="s">
+      <c r="A193" s="51" t="s">
         <v>139</v>
       </c>
       <c r="B193" s="3" t="s">
@@ -5693,7 +5693,7 @@
       </c>
     </row>
     <row r="194" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A194" s="48"/>
+      <c r="A194" s="52"/>
       <c r="B194" s="3" t="s">
         <v>141</v>
       </c>
@@ -5708,7 +5708,7 @@
       </c>
     </row>
     <row r="195" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A195" s="49"/>
+      <c r="A195" s="55"/>
       <c r="B195" s="3" t="s">
         <v>141</v>
       </c>
@@ -5723,7 +5723,7 @@
       </c>
     </row>
     <row r="196" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A196" s="47" t="s">
+      <c r="A196" s="51" t="s">
         <v>140</v>
       </c>
       <c r="B196" s="3" t="s">
@@ -5740,7 +5740,7 @@
       </c>
     </row>
     <row r="197" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A197" s="48"/>
+      <c r="A197" s="52"/>
       <c r="B197" s="3" t="s">
         <v>141</v>
       </c>
@@ -5755,7 +5755,7 @@
       </c>
     </row>
     <row r="198" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A198" s="49"/>
+      <c r="A198" s="55"/>
       <c r="B198" s="3" t="s">
         <v>141</v>
       </c>
@@ -5770,7 +5770,7 @@
       </c>
     </row>
     <row r="199" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A199" s="48" t="s">
+      <c r="A199" s="52" t="s">
         <v>142</v>
       </c>
       <c r="B199" s="3" t="s">
@@ -5787,7 +5787,7 @@
       </c>
     </row>
     <row r="200" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A200" s="48"/>
+      <c r="A200" s="52"/>
       <c r="B200" s="3" t="s">
         <v>156</v>
       </c>
@@ -5802,7 +5802,7 @@
       </c>
     </row>
     <row r="201" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A201" s="47" t="s">
+      <c r="A201" s="51" t="s">
         <v>143</v>
       </c>
       <c r="B201" s="3" t="s">
@@ -5819,7 +5819,7 @@
       </c>
     </row>
     <row r="202" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A202" s="48"/>
+      <c r="A202" s="52"/>
       <c r="B202" s="3" t="s">
         <v>156</v>
       </c>
@@ -5834,7 +5834,7 @@
       </c>
     </row>
     <row r="203" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A203" s="47" t="s">
+      <c r="A203" s="51" t="s">
         <v>144</v>
       </c>
       <c r="B203" s="3" t="s">
@@ -5851,7 +5851,7 @@
       </c>
     </row>
     <row r="204" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A204" s="48"/>
+      <c r="A204" s="52"/>
       <c r="B204" s="3" t="s">
         <v>156</v>
       </c>
@@ -5866,7 +5866,7 @@
       </c>
     </row>
     <row r="205" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A205" s="47" t="s">
+      <c r="A205" s="51" t="s">
         <v>145</v>
       </c>
       <c r="B205" s="3" t="s">
@@ -5883,7 +5883,7 @@
       </c>
     </row>
     <row r="206" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A206" s="48"/>
+      <c r="A206" s="52"/>
       <c r="B206" s="3" t="s">
         <v>156</v>
       </c>
@@ -5898,7 +5898,7 @@
       </c>
     </row>
     <row r="207" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A207" s="47" t="s">
+      <c r="A207" s="51" t="s">
         <v>146</v>
       </c>
       <c r="B207" s="3" t="s">
@@ -5915,7 +5915,7 @@
       </c>
     </row>
     <row r="208" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A208" s="48"/>
+      <c r="A208" s="52"/>
       <c r="B208" s="3" t="s">
         <v>156</v>
       </c>
@@ -5930,7 +5930,7 @@
       </c>
     </row>
     <row r="209" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A209" s="47" t="s">
+      <c r="A209" s="51" t="s">
         <v>147</v>
       </c>
       <c r="B209" s="3" t="s">
@@ -5947,7 +5947,7 @@
       </c>
     </row>
     <row r="210" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A210" s="48"/>
+      <c r="A210" s="52"/>
       <c r="B210" s="3" t="s">
         <v>156</v>
       </c>
@@ -5962,7 +5962,7 @@
       </c>
     </row>
     <row r="211" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A211" s="47" t="s">
+      <c r="A211" s="51" t="s">
         <v>148</v>
       </c>
       <c r="B211" s="3" t="s">
@@ -5979,7 +5979,7 @@
       </c>
     </row>
     <row r="212" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A212" s="48"/>
+      <c r="A212" s="52"/>
       <c r="B212" s="3" t="s">
         <v>156</v>
       </c>
@@ -5994,7 +5994,7 @@
       </c>
     </row>
     <row r="213" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A213" s="47" t="s">
+      <c r="A213" s="51" t="s">
         <v>149</v>
       </c>
       <c r="B213" s="3" t="s">
@@ -6011,7 +6011,7 @@
       </c>
     </row>
     <row r="214" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A214" s="48"/>
+      <c r="A214" s="52"/>
       <c r="B214" s="3" t="s">
         <v>156</v>
       </c>
@@ -6026,7 +6026,7 @@
       </c>
     </row>
     <row r="215" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A215" s="47" t="s">
+      <c r="A215" s="51" t="s">
         <v>150</v>
       </c>
       <c r="B215" s="3" t="s">
@@ -6043,7 +6043,7 @@
       </c>
     </row>
     <row r="216" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A216" s="48"/>
+      <c r="A216" s="52"/>
       <c r="B216" s="3" t="s">
         <v>156</v>
       </c>
@@ -6058,7 +6058,7 @@
       </c>
     </row>
     <row r="217" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A217" s="47" t="s">
+      <c r="A217" s="51" t="s">
         <v>151</v>
       </c>
       <c r="B217" s="3" t="s">
@@ -6075,7 +6075,7 @@
       </c>
     </row>
     <row r="218" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A218" s="48"/>
+      <c r="A218" s="52"/>
       <c r="B218" s="3" t="s">
         <v>156</v>
       </c>
@@ -6090,7 +6090,7 @@
       </c>
     </row>
     <row r="219" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A219" s="47" t="s">
+      <c r="A219" s="51" t="s">
         <v>152</v>
       </c>
       <c r="B219" s="3" t="s">
@@ -6107,7 +6107,7 @@
       </c>
     </row>
     <row r="220" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A220" s="48"/>
+      <c r="A220" s="52"/>
       <c r="B220" s="3" t="s">
         <v>156</v>
       </c>
@@ -6122,7 +6122,7 @@
       </c>
     </row>
     <row r="221" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A221" s="47" t="s">
+      <c r="A221" s="51" t="s">
         <v>153</v>
       </c>
       <c r="B221" s="3" t="s">
@@ -6139,7 +6139,7 @@
       </c>
     </row>
     <row r="222" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A222" s="48"/>
+      <c r="A222" s="52"/>
       <c r="B222" s="3" t="s">
         <v>156</v>
       </c>
@@ -6154,7 +6154,7 @@
       </c>
     </row>
     <row r="223" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A223" s="47" t="s">
+      <c r="A223" s="51" t="s">
         <v>154</v>
       </c>
       <c r="B223" s="3" t="s">
@@ -6171,7 +6171,7 @@
       </c>
     </row>
     <row r="224" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A224" s="48"/>
+      <c r="A224" s="52"/>
       <c r="B224" s="3" t="s">
         <v>156</v>
       </c>
@@ -6186,7 +6186,7 @@
       </c>
     </row>
     <row r="225" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A225" s="47" t="s">
+      <c r="A225" s="51" t="s">
         <v>155</v>
       </c>
       <c r="B225" s="3" t="s">
@@ -6203,7 +6203,7 @@
       </c>
     </row>
     <row r="226" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A226" s="48"/>
+      <c r="A226" s="52"/>
       <c r="B226" s="3" t="s">
         <v>156</v>
       </c>
@@ -6218,7 +6218,7 @@
       </c>
     </row>
     <row r="227" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A227" s="47" t="s">
+      <c r="A227" s="51" t="s">
         <v>170</v>
       </c>
       <c r="B227" s="3" t="s">
@@ -6235,7 +6235,7 @@
       </c>
     </row>
     <row r="228" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A228" s="48"/>
+      <c r="A228" s="52"/>
       <c r="B228" s="3" t="s">
         <v>171</v>
       </c>
@@ -6250,7 +6250,7 @@
       </c>
     </row>
     <row r="229" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A229" s="48"/>
+      <c r="A229" s="52"/>
       <c r="B229" s="3" t="s">
         <v>171</v>
       </c>
@@ -6265,7 +6265,7 @@
       </c>
     </row>
     <row r="230" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A230" s="49"/>
+      <c r="A230" s="55"/>
       <c r="B230" s="3" t="s">
         <v>171</v>
       </c>
@@ -6280,7 +6280,7 @@
       </c>
     </row>
     <row r="231" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A231" s="47" t="s">
+      <c r="A231" s="51" t="s">
         <v>157</v>
       </c>
       <c r="B231" s="3" t="s">
@@ -6297,7 +6297,7 @@
       </c>
     </row>
     <row r="232" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A232" s="48"/>
+      <c r="A232" s="52"/>
       <c r="B232" s="3" t="s">
         <v>171</v>
       </c>
@@ -6312,7 +6312,7 @@
       </c>
     </row>
     <row r="233" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A233" s="48"/>
+      <c r="A233" s="52"/>
       <c r="B233" s="3" t="s">
         <v>171</v>
       </c>
@@ -6327,7 +6327,7 @@
       </c>
     </row>
     <row r="234" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A234" s="49"/>
+      <c r="A234" s="55"/>
       <c r="B234" s="3" t="s">
         <v>171</v>
       </c>
@@ -6342,7 +6342,7 @@
       </c>
     </row>
     <row r="235" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A235" s="47" t="s">
+      <c r="A235" s="51" t="s">
         <v>158</v>
       </c>
       <c r="B235" s="3" t="s">
@@ -6359,7 +6359,7 @@
       </c>
     </row>
     <row r="236" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A236" s="48"/>
+      <c r="A236" s="52"/>
       <c r="B236" s="3" t="s">
         <v>171</v>
       </c>
@@ -6374,7 +6374,7 @@
       </c>
     </row>
     <row r="237" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A237" s="48"/>
+      <c r="A237" s="52"/>
       <c r="B237" s="3" t="s">
         <v>171</v>
       </c>
@@ -6389,7 +6389,7 @@
       </c>
     </row>
     <row r="238" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A238" s="49"/>
+      <c r="A238" s="55"/>
       <c r="B238" s="3" t="s">
         <v>171</v>
       </c>
@@ -6404,7 +6404,7 @@
       </c>
     </row>
     <row r="239" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A239" s="47" t="s">
+      <c r="A239" s="51" t="s">
         <v>159</v>
       </c>
       <c r="B239" s="3" t="s">
@@ -6421,7 +6421,7 @@
       </c>
     </row>
     <row r="240" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A240" s="48"/>
+      <c r="A240" s="52"/>
       <c r="B240" s="3" t="s">
         <v>171</v>
       </c>
@@ -6436,7 +6436,7 @@
       </c>
     </row>
     <row r="241" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A241" s="48"/>
+      <c r="A241" s="52"/>
       <c r="B241" s="3" t="s">
         <v>171</v>
       </c>
@@ -6451,7 +6451,7 @@
       </c>
     </row>
     <row r="242" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A242" s="49"/>
+      <c r="A242" s="55"/>
       <c r="B242" s="3" t="s">
         <v>171</v>
       </c>
@@ -6466,7 +6466,7 @@
       </c>
     </row>
     <row r="243" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A243" s="47" t="s">
+      <c r="A243" s="51" t="s">
         <v>160</v>
       </c>
       <c r="B243" s="3" t="s">
@@ -6483,7 +6483,7 @@
       </c>
     </row>
     <row r="244" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A244" s="48"/>
+      <c r="A244" s="52"/>
       <c r="B244" s="3" t="s">
         <v>171</v>
       </c>
@@ -6498,7 +6498,7 @@
       </c>
     </row>
     <row r="245" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A245" s="48"/>
+      <c r="A245" s="52"/>
       <c r="B245" s="3" t="s">
         <v>171</v>
       </c>
@@ -6513,7 +6513,7 @@
       </c>
     </row>
     <row r="246" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A246" s="49"/>
+      <c r="A246" s="55"/>
       <c r="B246" s="3" t="s">
         <v>171</v>
       </c>
@@ -6528,7 +6528,7 @@
       </c>
     </row>
     <row r="247" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A247" s="47" t="s">
+      <c r="A247" s="51" t="s">
         <v>161</v>
       </c>
       <c r="B247" s="3" t="s">
@@ -6545,7 +6545,7 @@
       </c>
     </row>
     <row r="248" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="48"/>
+      <c r="A248" s="52"/>
       <c r="B248" s="3" t="s">
         <v>171</v>
       </c>
@@ -6560,7 +6560,7 @@
       </c>
     </row>
     <row r="249" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="48"/>
+      <c r="A249" s="52"/>
       <c r="B249" s="3" t="s">
         <v>171</v>
       </c>
@@ -6575,7 +6575,7 @@
       </c>
     </row>
     <row r="250" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A250" s="49"/>
+      <c r="A250" s="55"/>
       <c r="B250" s="3" t="s">
         <v>171</v>
       </c>
@@ -6590,7 +6590,7 @@
       </c>
     </row>
     <row r="251" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A251" s="47" t="s">
+      <c r="A251" s="51" t="s">
         <v>162</v>
       </c>
       <c r="B251" s="3" t="s">
@@ -6607,7 +6607,7 @@
       </c>
     </row>
     <row r="252" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A252" s="48"/>
+      <c r="A252" s="52"/>
       <c r="B252" s="3" t="s">
         <v>171</v>
       </c>
@@ -6622,7 +6622,7 @@
       </c>
     </row>
     <row r="253" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A253" s="48"/>
+      <c r="A253" s="52"/>
       <c r="B253" s="3" t="s">
         <v>171</v>
       </c>
@@ -6637,7 +6637,7 @@
       </c>
     </row>
     <row r="254" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A254" s="49"/>
+      <c r="A254" s="55"/>
       <c r="B254" s="3" t="s">
         <v>171</v>
       </c>
@@ -6652,7 +6652,7 @@
       </c>
     </row>
     <row r="255" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A255" s="47" t="s">
+      <c r="A255" s="51" t="s">
         <v>163</v>
       </c>
       <c r="B255" s="3" t="s">
@@ -6669,7 +6669,7 @@
       </c>
     </row>
     <row r="256" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A256" s="48"/>
+      <c r="A256" s="52"/>
       <c r="B256" s="3" t="s">
         <v>171</v>
       </c>
@@ -6684,7 +6684,7 @@
       </c>
     </row>
     <row r="257" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A257" s="48"/>
+      <c r="A257" s="52"/>
       <c r="B257" s="3" t="s">
         <v>171</v>
       </c>
@@ -6699,7 +6699,7 @@
       </c>
     </row>
     <row r="258" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A258" s="49"/>
+      <c r="A258" s="55"/>
       <c r="B258" s="3" t="s">
         <v>171</v>
       </c>
@@ -6714,7 +6714,7 @@
       </c>
     </row>
     <row r="259" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A259" s="47" t="s">
+      <c r="A259" s="51" t="s">
         <v>164</v>
       </c>
       <c r="B259" s="3" t="s">
@@ -6731,7 +6731,7 @@
       </c>
     </row>
     <row r="260" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A260" s="48"/>
+      <c r="A260" s="52"/>
       <c r="B260" s="3" t="s">
         <v>171</v>
       </c>
@@ -6746,7 +6746,7 @@
       </c>
     </row>
     <row r="261" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A261" s="48"/>
+      <c r="A261" s="52"/>
       <c r="B261" s="3" t="s">
         <v>171</v>
       </c>
@@ -6761,7 +6761,7 @@
       </c>
     </row>
     <row r="262" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A262" s="49"/>
+      <c r="A262" s="55"/>
       <c r="B262" s="3" t="s">
         <v>171</v>
       </c>
@@ -6776,7 +6776,7 @@
       </c>
     </row>
     <row r="263" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A263" s="47" t="s">
+      <c r="A263" s="51" t="s">
         <v>165</v>
       </c>
       <c r="B263" s="3" t="s">
@@ -6793,7 +6793,7 @@
       </c>
     </row>
     <row r="264" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A264" s="48"/>
+      <c r="A264" s="52"/>
       <c r="B264" s="3" t="s">
         <v>171</v>
       </c>
@@ -6808,7 +6808,7 @@
       </c>
     </row>
     <row r="265" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A265" s="48"/>
+      <c r="A265" s="52"/>
       <c r="B265" s="3" t="s">
         <v>171</v>
       </c>
@@ -6823,7 +6823,7 @@
       </c>
     </row>
     <row r="266" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A266" s="49"/>
+      <c r="A266" s="55"/>
       <c r="B266" s="3" t="s">
         <v>171</v>
       </c>
@@ -6838,7 +6838,7 @@
       </c>
     </row>
     <row r="267" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A267" s="47" t="s">
+      <c r="A267" s="51" t="s">
         <v>166</v>
       </c>
       <c r="B267" s="3" t="s">
@@ -6855,7 +6855,7 @@
       </c>
     </row>
     <row r="268" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A268" s="48"/>
+      <c r="A268" s="52"/>
       <c r="B268" s="3" t="s">
         <v>171</v>
       </c>
@@ -6870,7 +6870,7 @@
       </c>
     </row>
     <row r="269" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A269" s="48"/>
+      <c r="A269" s="52"/>
       <c r="B269" s="3" t="s">
         <v>171</v>
       </c>
@@ -6885,7 +6885,7 @@
       </c>
     </row>
     <row r="270" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A270" s="49"/>
+      <c r="A270" s="55"/>
       <c r="B270" s="3" t="s">
         <v>171</v>
       </c>
@@ -6900,7 +6900,7 @@
       </c>
     </row>
     <row r="271" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A271" s="47" t="s">
+      <c r="A271" s="51" t="s">
         <v>167</v>
       </c>
       <c r="B271" s="3" t="s">
@@ -6917,7 +6917,7 @@
       </c>
     </row>
     <row r="272" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A272" s="48"/>
+      <c r="A272" s="52"/>
       <c r="B272" s="3" t="s">
         <v>171</v>
       </c>
@@ -6932,7 +6932,7 @@
       </c>
     </row>
     <row r="273" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A273" s="48"/>
+      <c r="A273" s="52"/>
       <c r="B273" s="3" t="s">
         <v>171</v>
       </c>
@@ -6947,7 +6947,7 @@
       </c>
     </row>
     <row r="274" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A274" s="49"/>
+      <c r="A274" s="55"/>
       <c r="B274" s="3" t="s">
         <v>171</v>
       </c>
@@ -6962,7 +6962,7 @@
       </c>
     </row>
     <row r="275" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A275" s="47" t="s">
+      <c r="A275" s="51" t="s">
         <v>168</v>
       </c>
       <c r="B275" s="3" t="s">
@@ -6979,7 +6979,7 @@
       </c>
     </row>
     <row r="276" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A276" s="48"/>
+      <c r="A276" s="52"/>
       <c r="B276" s="3" t="s">
         <v>171</v>
       </c>
@@ -6994,7 +6994,7 @@
       </c>
     </row>
     <row r="277" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A277" s="48"/>
+      <c r="A277" s="52"/>
       <c r="B277" s="3" t="s">
         <v>171</v>
       </c>
@@ -7009,7 +7009,7 @@
       </c>
     </row>
     <row r="278" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A278" s="49"/>
+      <c r="A278" s="55"/>
       <c r="B278" s="3" t="s">
         <v>171</v>
       </c>
@@ -7024,7 +7024,7 @@
       </c>
     </row>
     <row r="279" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A279" s="50" t="s">
+      <c r="A279" s="53" t="s">
         <v>169</v>
       </c>
       <c r="B279" s="3" t="s">
@@ -7041,7 +7041,7 @@
       </c>
     </row>
     <row r="280" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A280" s="51"/>
+      <c r="A280" s="54"/>
       <c r="B280" s="3" t="s">
         <v>171</v>
       </c>
@@ -7056,7 +7056,7 @@
       </c>
     </row>
     <row r="281" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A281" s="51"/>
+      <c r="A281" s="54"/>
       <c r="B281" s="3" t="s">
         <v>171</v>
       </c>
@@ -7071,7 +7071,7 @@
       </c>
     </row>
     <row r="282" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A282" s="51"/>
+      <c r="A282" s="54"/>
       <c r="B282" s="3" t="s">
         <v>171</v>
       </c>
@@ -7086,7 +7086,7 @@
       </c>
     </row>
     <row r="283" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A283" s="47" t="s">
+      <c r="A283" s="51" t="s">
         <v>173</v>
       </c>
       <c r="B283" s="3" t="s">
@@ -7103,7 +7103,7 @@
       </c>
     </row>
     <row r="284" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A284" s="48"/>
+      <c r="A284" s="52"/>
       <c r="B284" s="3" t="s">
         <v>187</v>
       </c>
@@ -7118,7 +7118,7 @@
       </c>
     </row>
     <row r="285" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A285" s="48"/>
+      <c r="A285" s="52"/>
       <c r="B285" s="3" t="s">
         <v>187</v>
       </c>
@@ -7133,7 +7133,7 @@
       </c>
     </row>
     <row r="286" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A286" s="49"/>
+      <c r="A286" s="55"/>
       <c r="B286" s="3" t="s">
         <v>187</v>
       </c>
@@ -7148,7 +7148,7 @@
       </c>
     </row>
     <row r="287" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A287" s="47" t="s">
+      <c r="A287" s="51" t="s">
         <v>174</v>
       </c>
       <c r="B287" s="3" t="s">
@@ -7165,7 +7165,7 @@
       </c>
     </row>
     <row r="288" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A288" s="48"/>
+      <c r="A288" s="52"/>
       <c r="B288" s="3" t="s">
         <v>187</v>
       </c>
@@ -7180,7 +7180,7 @@
       </c>
     </row>
     <row r="289" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A289" s="48"/>
+      <c r="A289" s="52"/>
       <c r="B289" s="3" t="s">
         <v>187</v>
       </c>
@@ -7195,7 +7195,7 @@
       </c>
     </row>
     <row r="290" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A290" s="49"/>
+      <c r="A290" s="55"/>
       <c r="B290" s="3" t="s">
         <v>187</v>
       </c>
@@ -7210,7 +7210,7 @@
       </c>
     </row>
     <row r="291" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A291" s="47" t="s">
+      <c r="A291" s="51" t="s">
         <v>175</v>
       </c>
       <c r="B291" s="3" t="s">
@@ -7227,7 +7227,7 @@
       </c>
     </row>
     <row r="292" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A292" s="48"/>
+      <c r="A292" s="52"/>
       <c r="B292" s="3" t="s">
         <v>187</v>
       </c>
@@ -7242,7 +7242,7 @@
       </c>
     </row>
     <row r="293" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A293" s="48"/>
+      <c r="A293" s="52"/>
       <c r="B293" s="3" t="s">
         <v>187</v>
       </c>
@@ -7257,7 +7257,7 @@
       </c>
     </row>
     <row r="294" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A294" s="49"/>
+      <c r="A294" s="55"/>
       <c r="B294" s="3" t="s">
         <v>187</v>
       </c>
@@ -7272,7 +7272,7 @@
       </c>
     </row>
     <row r="295" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A295" s="47" t="s">
+      <c r="A295" s="51" t="s">
         <v>176</v>
       </c>
       <c r="B295" s="3" t="s">
@@ -7289,7 +7289,7 @@
       </c>
     </row>
     <row r="296" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A296" s="48"/>
+      <c r="A296" s="52"/>
       <c r="B296" s="3" t="s">
         <v>187</v>
       </c>
@@ -7304,7 +7304,7 @@
       </c>
     </row>
     <row r="297" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A297" s="48"/>
+      <c r="A297" s="52"/>
       <c r="B297" s="3" t="s">
         <v>187</v>
       </c>
@@ -7319,7 +7319,7 @@
       </c>
     </row>
     <row r="298" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A298" s="49"/>
+      <c r="A298" s="55"/>
       <c r="B298" s="3" t="s">
         <v>187</v>
       </c>
@@ -7334,7 +7334,7 @@
       </c>
     </row>
     <row r="299" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A299" s="47" t="s">
+      <c r="A299" s="51" t="s">
         <v>177</v>
       </c>
       <c r="B299" s="3" t="s">
@@ -7351,7 +7351,7 @@
       </c>
     </row>
     <row r="300" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A300" s="48"/>
+      <c r="A300" s="52"/>
       <c r="B300" s="3" t="s">
         <v>187</v>
       </c>
@@ -7366,7 +7366,7 @@
       </c>
     </row>
     <row r="301" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A301" s="48"/>
+      <c r="A301" s="52"/>
       <c r="B301" s="3" t="s">
         <v>187</v>
       </c>
@@ -7381,7 +7381,7 @@
       </c>
     </row>
     <row r="302" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A302" s="49"/>
+      <c r="A302" s="55"/>
       <c r="B302" s="3" t="s">
         <v>187</v>
       </c>
@@ -7396,7 +7396,7 @@
       </c>
     </row>
     <row r="303" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A303" s="47" t="s">
+      <c r="A303" s="51" t="s">
         <v>178</v>
       </c>
       <c r="B303" s="3" t="s">
@@ -7413,7 +7413,7 @@
       </c>
     </row>
     <row r="304" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A304" s="48"/>
+      <c r="A304" s="52"/>
       <c r="B304" s="3" t="s">
         <v>187</v>
       </c>
@@ -7428,7 +7428,7 @@
       </c>
     </row>
     <row r="305" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A305" s="48"/>
+      <c r="A305" s="52"/>
       <c r="B305" s="3" t="s">
         <v>187</v>
       </c>
@@ -7443,7 +7443,7 @@
       </c>
     </row>
     <row r="306" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A306" s="49"/>
+      <c r="A306" s="55"/>
       <c r="B306" s="3" t="s">
         <v>187</v>
       </c>
@@ -7458,7 +7458,7 @@
       </c>
     </row>
     <row r="307" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A307" s="47" t="s">
+      <c r="A307" s="51" t="s">
         <v>179</v>
       </c>
       <c r="B307" s="3" t="s">
@@ -7475,7 +7475,7 @@
       </c>
     </row>
     <row r="308" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A308" s="48"/>
+      <c r="A308" s="52"/>
       <c r="B308" s="3" t="s">
         <v>187</v>
       </c>
@@ -7490,7 +7490,7 @@
       </c>
     </row>
     <row r="309" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A309" s="48"/>
+      <c r="A309" s="52"/>
       <c r="B309" s="3" t="s">
         <v>187</v>
       </c>
@@ -7505,7 +7505,7 @@
       </c>
     </row>
     <row r="310" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A310" s="49"/>
+      <c r="A310" s="55"/>
       <c r="B310" s="3" t="s">
         <v>187</v>
       </c>
@@ -7520,7 +7520,7 @@
       </c>
     </row>
     <row r="311" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A311" s="47" t="s">
+      <c r="A311" s="51" t="s">
         <v>180</v>
       </c>
       <c r="B311" s="3" t="s">
@@ -7537,7 +7537,7 @@
       </c>
     </row>
     <row r="312" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A312" s="48"/>
+      <c r="A312" s="52"/>
       <c r="B312" s="3" t="s">
         <v>187</v>
       </c>
@@ -7552,7 +7552,7 @@
       </c>
     </row>
     <row r="313" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A313" s="48"/>
+      <c r="A313" s="52"/>
       <c r="B313" s="3" t="s">
         <v>187</v>
       </c>
@@ -7567,7 +7567,7 @@
       </c>
     </row>
     <row r="314" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A314" s="49"/>
+      <c r="A314" s="55"/>
       <c r="B314" s="3" t="s">
         <v>187</v>
       </c>
@@ -7582,7 +7582,7 @@
       </c>
     </row>
     <row r="315" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A315" s="47" t="s">
+      <c r="A315" s="51" t="s">
         <v>181</v>
       </c>
       <c r="B315" s="3" t="s">
@@ -7599,7 +7599,7 @@
       </c>
     </row>
     <row r="316" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A316" s="48"/>
+      <c r="A316" s="52"/>
       <c r="B316" s="3" t="s">
         <v>187</v>
       </c>
@@ -7614,7 +7614,7 @@
       </c>
     </row>
     <row r="317" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A317" s="48"/>
+      <c r="A317" s="52"/>
       <c r="B317" s="3" t="s">
         <v>187</v>
       </c>
@@ -7629,7 +7629,7 @@
       </c>
     </row>
     <row r="318" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A318" s="49"/>
+      <c r="A318" s="55"/>
       <c r="B318" s="3" t="s">
         <v>187</v>
       </c>
@@ -7644,7 +7644,7 @@
       </c>
     </row>
     <row r="319" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A319" s="47" t="s">
+      <c r="A319" s="51" t="s">
         <v>182</v>
       </c>
       <c r="B319" s="3" t="s">
@@ -7661,7 +7661,7 @@
       </c>
     </row>
     <row r="320" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A320" s="48"/>
+      <c r="A320" s="52"/>
       <c r="B320" s="3" t="s">
         <v>187</v>
       </c>
@@ -7676,7 +7676,7 @@
       </c>
     </row>
     <row r="321" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A321" s="48"/>
+      <c r="A321" s="52"/>
       <c r="B321" s="3" t="s">
         <v>187</v>
       </c>
@@ -7691,7 +7691,7 @@
       </c>
     </row>
     <row r="322" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A322" s="49"/>
+      <c r="A322" s="55"/>
       <c r="B322" s="3" t="s">
         <v>187</v>
       </c>
@@ -7706,7 +7706,7 @@
       </c>
     </row>
     <row r="323" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A323" s="47" t="s">
+      <c r="A323" s="51" t="s">
         <v>183</v>
       </c>
       <c r="B323" s="3" t="s">
@@ -7723,7 +7723,7 @@
       </c>
     </row>
     <row r="324" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A324" s="48"/>
+      <c r="A324" s="52"/>
       <c r="B324" s="3" t="s">
         <v>187</v>
       </c>
@@ -7738,7 +7738,7 @@
       </c>
     </row>
     <row r="325" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A325" s="48"/>
+      <c r="A325" s="52"/>
       <c r="B325" s="3" t="s">
         <v>187</v>
       </c>
@@ -7753,7 +7753,7 @@
       </c>
     </row>
     <row r="326" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A326" s="49"/>
+      <c r="A326" s="55"/>
       <c r="B326" s="3" t="s">
         <v>187</v>
       </c>
@@ -7768,7 +7768,7 @@
       </c>
     </row>
     <row r="327" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A327" s="47" t="s">
+      <c r="A327" s="51" t="s">
         <v>184</v>
       </c>
       <c r="B327" s="3" t="s">
@@ -7785,7 +7785,7 @@
       </c>
     </row>
     <row r="328" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A328" s="48"/>
+      <c r="A328" s="52"/>
       <c r="B328" s="3" t="s">
         <v>187</v>
       </c>
@@ -7800,7 +7800,7 @@
       </c>
     </row>
     <row r="329" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A329" s="48"/>
+      <c r="A329" s="52"/>
       <c r="B329" s="3" t="s">
         <v>187</v>
       </c>
@@ -7815,7 +7815,7 @@
       </c>
     </row>
     <row r="330" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A330" s="49"/>
+      <c r="A330" s="55"/>
       <c r="B330" s="3" t="s">
         <v>187</v>
       </c>
@@ -7830,7 +7830,7 @@
       </c>
     </row>
     <row r="331" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A331" s="47" t="s">
+      <c r="A331" s="51" t="s">
         <v>185</v>
       </c>
       <c r="B331" s="3" t="s">
@@ -7847,7 +7847,7 @@
       </c>
     </row>
     <row r="332" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A332" s="48"/>
+      <c r="A332" s="52"/>
       <c r="B332" s="3" t="s">
         <v>187</v>
       </c>
@@ -7862,7 +7862,7 @@
       </c>
     </row>
     <row r="333" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A333" s="48"/>
+      <c r="A333" s="52"/>
       <c r="B333" s="3" t="s">
         <v>187</v>
       </c>
@@ -7877,7 +7877,7 @@
       </c>
     </row>
     <row r="334" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A334" s="49"/>
+      <c r="A334" s="55"/>
       <c r="B334" s="3" t="s">
         <v>187</v>
       </c>
@@ -7892,7 +7892,7 @@
       </c>
     </row>
     <row r="335" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A335" s="50" t="s">
+      <c r="A335" s="53" t="s">
         <v>186</v>
       </c>
       <c r="B335" s="3" t="s">
@@ -7909,7 +7909,7 @@
       </c>
     </row>
     <row r="336" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A336" s="51"/>
+      <c r="A336" s="54"/>
       <c r="B336" s="3" t="s">
         <v>187</v>
       </c>
@@ -7924,7 +7924,7 @@
       </c>
     </row>
     <row r="337" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A337" s="51"/>
+      <c r="A337" s="54"/>
       <c r="B337" s="3" t="s">
         <v>187</v>
       </c>
@@ -7939,7 +7939,7 @@
       </c>
     </row>
     <row r="338" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A338" s="51"/>
+      <c r="A338" s="54"/>
       <c r="B338" s="3" t="s">
         <v>187</v>
       </c>
@@ -7954,7 +7954,7 @@
       </c>
     </row>
     <row r="339" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A339" s="47" t="s">
+      <c r="A339" s="51" t="s">
         <v>188</v>
       </c>
       <c r="B339" s="3" t="s">
@@ -7971,7 +7971,7 @@
       </c>
     </row>
     <row r="340" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A340" s="48"/>
+      <c r="A340" s="52"/>
       <c r="B340" s="3" t="s">
         <v>202</v>
       </c>
@@ -7986,7 +7986,7 @@
       </c>
     </row>
     <row r="341" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A341" s="48"/>
+      <c r="A341" s="52"/>
       <c r="B341" s="3" t="s">
         <v>202</v>
       </c>
@@ -8001,7 +8001,7 @@
       </c>
     </row>
     <row r="342" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A342" s="48"/>
+      <c r="A342" s="52"/>
       <c r="B342" s="3" t="s">
         <v>202</v>
       </c>
@@ -8016,7 +8016,7 @@
       </c>
     </row>
     <row r="343" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A343" s="49"/>
+      <c r="A343" s="55"/>
       <c r="B343" s="3" t="s">
         <v>202</v>
       </c>
@@ -8031,7 +8031,7 @@
       </c>
     </row>
     <row r="344" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A344" s="47" t="s">
+      <c r="A344" s="51" t="s">
         <v>189</v>
       </c>
       <c r="B344" s="3" t="s">
@@ -8048,7 +8048,7 @@
       </c>
     </row>
     <row r="345" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A345" s="48"/>
+      <c r="A345" s="52"/>
       <c r="B345" s="3" t="s">
         <v>202</v>
       </c>
@@ -8063,7 +8063,7 @@
       </c>
     </row>
     <row r="346" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A346" s="48"/>
+      <c r="A346" s="52"/>
       <c r="B346" s="3" t="s">
         <v>202</v>
       </c>
@@ -8078,7 +8078,7 @@
       </c>
     </row>
     <row r="347" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A347" s="48"/>
+      <c r="A347" s="52"/>
       <c r="B347" s="3" t="s">
         <v>202</v>
       </c>
@@ -8093,7 +8093,7 @@
       </c>
     </row>
     <row r="348" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A348" s="49"/>
+      <c r="A348" s="55"/>
       <c r="B348" s="3" t="s">
         <v>202</v>
       </c>
@@ -8108,7 +8108,7 @@
       </c>
     </row>
     <row r="349" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A349" s="47" t="s">
+      <c r="A349" s="51" t="s">
         <v>190</v>
       </c>
       <c r="B349" s="3" t="s">
@@ -8125,7 +8125,7 @@
       </c>
     </row>
     <row r="350" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A350" s="48"/>
+      <c r="A350" s="52"/>
       <c r="B350" s="3" t="s">
         <v>202</v>
       </c>
@@ -8140,7 +8140,7 @@
       </c>
     </row>
     <row r="351" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A351" s="48"/>
+      <c r="A351" s="52"/>
       <c r="B351" s="3" t="s">
         <v>202</v>
       </c>
@@ -8155,7 +8155,7 @@
       </c>
     </row>
     <row r="352" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A352" s="48"/>
+      <c r="A352" s="52"/>
       <c r="B352" s="3" t="s">
         <v>202</v>
       </c>
@@ -8170,7 +8170,7 @@
       </c>
     </row>
     <row r="353" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A353" s="49"/>
+      <c r="A353" s="55"/>
       <c r="B353" s="3" t="s">
         <v>202</v>
       </c>
@@ -8185,7 +8185,7 @@
       </c>
     </row>
     <row r="354" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A354" s="47" t="s">
+      <c r="A354" s="51" t="s">
         <v>191</v>
       </c>
       <c r="B354" s="3" t="s">
@@ -8202,7 +8202,7 @@
       </c>
     </row>
     <row r="355" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A355" s="48"/>
+      <c r="A355" s="52"/>
       <c r="B355" s="3" t="s">
         <v>202</v>
       </c>
@@ -8217,7 +8217,7 @@
       </c>
     </row>
     <row r="356" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A356" s="48"/>
+      <c r="A356" s="52"/>
       <c r="B356" s="3" t="s">
         <v>202</v>
       </c>
@@ -8232,7 +8232,7 @@
       </c>
     </row>
     <row r="357" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A357" s="48"/>
+      <c r="A357" s="52"/>
       <c r="B357" s="3" t="s">
         <v>202</v>
       </c>
@@ -8247,7 +8247,7 @@
       </c>
     </row>
     <row r="358" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A358" s="49"/>
+      <c r="A358" s="55"/>
       <c r="B358" s="3" t="s">
         <v>202</v>
       </c>
@@ -8262,7 +8262,7 @@
       </c>
     </row>
     <row r="359" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A359" s="47" t="s">
+      <c r="A359" s="51" t="s">
         <v>192</v>
       </c>
       <c r="B359" s="3" t="s">
@@ -8279,7 +8279,7 @@
       </c>
     </row>
     <row r="360" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A360" s="48"/>
+      <c r="A360" s="52"/>
       <c r="B360" s="3" t="s">
         <v>202</v>
       </c>
@@ -8294,7 +8294,7 @@
       </c>
     </row>
     <row r="361" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A361" s="48"/>
+      <c r="A361" s="52"/>
       <c r="B361" s="3" t="s">
         <v>202</v>
       </c>
@@ -8309,7 +8309,7 @@
       </c>
     </row>
     <row r="362" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A362" s="48"/>
+      <c r="A362" s="52"/>
       <c r="B362" s="3" t="s">
         <v>202</v>
       </c>
@@ -8324,7 +8324,7 @@
       </c>
     </row>
     <row r="363" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A363" s="49"/>
+      <c r="A363" s="55"/>
       <c r="B363" s="3" t="s">
         <v>202</v>
       </c>
@@ -8339,7 +8339,7 @@
       </c>
     </row>
     <row r="364" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A364" s="47" t="s">
+      <c r="A364" s="51" t="s">
         <v>193</v>
       </c>
       <c r="B364" s="3" t="s">
@@ -8356,7 +8356,7 @@
       </c>
     </row>
     <row r="365" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A365" s="48"/>
+      <c r="A365" s="52"/>
       <c r="B365" s="3" t="s">
         <v>202</v>
       </c>
@@ -8371,7 +8371,7 @@
       </c>
     </row>
     <row r="366" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A366" s="48"/>
+      <c r="A366" s="52"/>
       <c r="B366" s="3" t="s">
         <v>202</v>
       </c>
@@ -8386,7 +8386,7 @@
       </c>
     </row>
     <row r="367" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A367" s="48"/>
+      <c r="A367" s="52"/>
       <c r="B367" s="3" t="s">
         <v>202</v>
       </c>
@@ -8401,7 +8401,7 @@
       </c>
     </row>
     <row r="368" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A368" s="49"/>
+      <c r="A368" s="55"/>
       <c r="B368" s="3" t="s">
         <v>202</v>
       </c>
@@ -8416,7 +8416,7 @@
       </c>
     </row>
     <row r="369" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A369" s="47" t="s">
+      <c r="A369" s="51" t="s">
         <v>194</v>
       </c>
       <c r="B369" s="3" t="s">
@@ -8433,7 +8433,7 @@
       </c>
     </row>
     <row r="370" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A370" s="48"/>
+      <c r="A370" s="52"/>
       <c r="B370" s="3" t="s">
         <v>202</v>
       </c>
@@ -8448,7 +8448,7 @@
       </c>
     </row>
     <row r="371" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A371" s="48"/>
+      <c r="A371" s="52"/>
       <c r="B371" s="3" t="s">
         <v>202</v>
       </c>
@@ -8463,7 +8463,7 @@
       </c>
     </row>
     <row r="372" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A372" s="48"/>
+      <c r="A372" s="52"/>
       <c r="B372" s="3" t="s">
         <v>202</v>
       </c>
@@ -8478,7 +8478,7 @@
       </c>
     </row>
     <row r="373" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A373" s="49"/>
+      <c r="A373" s="55"/>
       <c r="B373" s="3" t="s">
         <v>202</v>
       </c>
@@ -8493,7 +8493,7 @@
       </c>
     </row>
     <row r="374" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A374" s="47" t="s">
+      <c r="A374" s="51" t="s">
         <v>195</v>
       </c>
       <c r="B374" s="3" t="s">
@@ -8510,7 +8510,7 @@
       </c>
     </row>
     <row r="375" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A375" s="48"/>
+      <c r="A375" s="52"/>
       <c r="B375" s="3" t="s">
         <v>202</v>
       </c>
@@ -8525,7 +8525,7 @@
       </c>
     </row>
     <row r="376" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A376" s="48"/>
+      <c r="A376" s="52"/>
       <c r="B376" s="3" t="s">
         <v>202</v>
       </c>
@@ -8540,7 +8540,7 @@
       </c>
     </row>
     <row r="377" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A377" s="48"/>
+      <c r="A377" s="52"/>
       <c r="B377" s="3" t="s">
         <v>202</v>
       </c>
@@ -8555,7 +8555,7 @@
       </c>
     </row>
     <row r="378" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A378" s="49"/>
+      <c r="A378" s="55"/>
       <c r="B378" s="3" t="s">
         <v>202</v>
       </c>
@@ -8570,7 +8570,7 @@
       </c>
     </row>
     <row r="379" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A379" s="47" t="s">
+      <c r="A379" s="51" t="s">
         <v>196</v>
       </c>
       <c r="B379" s="3" t="s">
@@ -8587,7 +8587,7 @@
       </c>
     </row>
     <row r="380" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A380" s="48"/>
+      <c r="A380" s="52"/>
       <c r="B380" s="3" t="s">
         <v>202</v>
       </c>
@@ -8602,7 +8602,7 @@
       </c>
     </row>
     <row r="381" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A381" s="48"/>
+      <c r="A381" s="52"/>
       <c r="B381" s="3" t="s">
         <v>202</v>
       </c>
@@ -8617,7 +8617,7 @@
       </c>
     </row>
     <row r="382" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A382" s="48"/>
+      <c r="A382" s="52"/>
       <c r="B382" s="3" t="s">
         <v>202</v>
       </c>
@@ -8632,7 +8632,7 @@
       </c>
     </row>
     <row r="383" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A383" s="49"/>
+      <c r="A383" s="55"/>
       <c r="B383" s="3" t="s">
         <v>202</v>
       </c>
@@ -8647,7 +8647,7 @@
       </c>
     </row>
     <row r="384" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A384" s="47" t="s">
+      <c r="A384" s="51" t="s">
         <v>197</v>
       </c>
       <c r="B384" s="3" t="s">
@@ -8664,7 +8664,7 @@
       </c>
     </row>
     <row r="385" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A385" s="48"/>
+      <c r="A385" s="52"/>
       <c r="B385" s="3" t="s">
         <v>202</v>
       </c>
@@ -8679,7 +8679,7 @@
       </c>
     </row>
     <row r="386" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A386" s="48"/>
+      <c r="A386" s="52"/>
       <c r="B386" s="3" t="s">
         <v>202</v>
       </c>
@@ -8694,7 +8694,7 @@
       </c>
     </row>
     <row r="387" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A387" s="48"/>
+      <c r="A387" s="52"/>
       <c r="B387" s="3" t="s">
         <v>202</v>
       </c>
@@ -8709,7 +8709,7 @@
       </c>
     </row>
     <row r="388" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A388" s="49"/>
+      <c r="A388" s="55"/>
       <c r="B388" s="3" t="s">
         <v>202</v>
       </c>
@@ -8724,7 +8724,7 @@
       </c>
     </row>
     <row r="389" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A389" s="47" t="s">
+      <c r="A389" s="51" t="s">
         <v>198</v>
       </c>
       <c r="B389" s="3" t="s">
@@ -8741,7 +8741,7 @@
       </c>
     </row>
     <row r="390" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A390" s="48"/>
+      <c r="A390" s="52"/>
       <c r="B390" s="3" t="s">
         <v>202</v>
       </c>
@@ -8756,7 +8756,7 @@
       </c>
     </row>
     <row r="391" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A391" s="48"/>
+      <c r="A391" s="52"/>
       <c r="B391" s="3" t="s">
         <v>202</v>
       </c>
@@ -8771,7 +8771,7 @@
       </c>
     </row>
     <row r="392" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A392" s="48"/>
+      <c r="A392" s="52"/>
       <c r="B392" s="3" t="s">
         <v>202</v>
       </c>
@@ -8786,7 +8786,7 @@
       </c>
     </row>
     <row r="393" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A393" s="49"/>
+      <c r="A393" s="55"/>
       <c r="B393" s="3" t="s">
         <v>202</v>
       </c>
@@ -8801,7 +8801,7 @@
       </c>
     </row>
     <row r="394" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A394" s="47" t="s">
+      <c r="A394" s="51" t="s">
         <v>199</v>
       </c>
       <c r="B394" s="3" t="s">
@@ -8818,7 +8818,7 @@
       </c>
     </row>
     <row r="395" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A395" s="48"/>
+      <c r="A395" s="52"/>
       <c r="B395" s="3" t="s">
         <v>202</v>
       </c>
@@ -8833,7 +8833,7 @@
       </c>
     </row>
     <row r="396" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A396" s="48"/>
+      <c r="A396" s="52"/>
       <c r="B396" s="3" t="s">
         <v>202</v>
       </c>
@@ -8848,7 +8848,7 @@
       </c>
     </row>
     <row r="397" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A397" s="48"/>
+      <c r="A397" s="52"/>
       <c r="B397" s="3" t="s">
         <v>202</v>
       </c>
@@ -8863,7 +8863,7 @@
       </c>
     </row>
     <row r="398" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A398" s="49"/>
+      <c r="A398" s="55"/>
       <c r="B398" s="3" t="s">
         <v>202</v>
       </c>
@@ -8878,7 +8878,7 @@
       </c>
     </row>
     <row r="399" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A399" s="50" t="s">
+      <c r="A399" s="53" t="s">
         <v>200</v>
       </c>
       <c r="B399" s="3" t="s">
@@ -8895,7 +8895,7 @@
       </c>
     </row>
     <row r="400" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A400" s="51"/>
+      <c r="A400" s="54"/>
       <c r="B400" s="3" t="s">
         <v>202</v>
       </c>
@@ -8910,7 +8910,7 @@
       </c>
     </row>
     <row r="401" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A401" s="51"/>
+      <c r="A401" s="54"/>
       <c r="B401" s="3" t="s">
         <v>202</v>
       </c>
@@ -8925,7 +8925,7 @@
       </c>
     </row>
     <row r="402" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A402" s="51"/>
+      <c r="A402" s="54"/>
       <c r="B402" s="3" t="s">
         <v>202</v>
       </c>
@@ -8940,7 +8940,7 @@
       </c>
     </row>
     <row r="403" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A403" s="52"/>
+      <c r="A403" s="57"/>
       <c r="B403" s="3" t="s">
         <v>202</v>
       </c>
@@ -8955,7 +8955,7 @@
       </c>
     </row>
     <row r="404" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A404" s="50" t="s">
+      <c r="A404" s="53" t="s">
         <v>201</v>
       </c>
       <c r="B404" s="3" t="s">
@@ -8972,7 +8972,7 @@
       </c>
     </row>
     <row r="405" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A405" s="51"/>
+      <c r="A405" s="54"/>
       <c r="B405" s="3" t="s">
         <v>202</v>
       </c>
@@ -8987,7 +8987,7 @@
       </c>
     </row>
     <row r="406" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A406" s="51"/>
+      <c r="A406" s="54"/>
       <c r="B406" s="3" t="s">
         <v>202</v>
       </c>
@@ -9002,7 +9002,7 @@
       </c>
     </row>
     <row r="407" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A407" s="51"/>
+      <c r="A407" s="54"/>
       <c r="B407" s="3" t="s">
         <v>202</v>
       </c>
@@ -9017,7 +9017,7 @@
       </c>
     </row>
     <row r="408" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A408" s="51"/>
+      <c r="A408" s="54"/>
       <c r="B408" s="3" t="s">
         <v>202</v>
       </c>
@@ -9032,7 +9032,7 @@
       </c>
     </row>
     <row r="409" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A409" s="47" t="s">
+      <c r="A409" s="51" t="s">
         <v>217</v>
       </c>
       <c r="B409" s="3" t="s">
@@ -9049,7 +9049,7 @@
       </c>
     </row>
     <row r="410" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A410" s="48"/>
+      <c r="A410" s="52"/>
       <c r="B410" s="3" t="s">
         <v>218</v>
       </c>
@@ -9064,7 +9064,7 @@
       </c>
     </row>
     <row r="411" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A411" s="49"/>
+      <c r="A411" s="55"/>
       <c r="B411" s="3" t="s">
         <v>218</v>
       </c>
@@ -9079,7 +9079,7 @@
       </c>
     </row>
     <row r="412" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A412" s="47" t="s">
+      <c r="A412" s="51" t="s">
         <v>204</v>
       </c>
       <c r="B412" s="3" t="s">
@@ -9096,7 +9096,7 @@
       </c>
     </row>
     <row r="413" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A413" s="48"/>
+      <c r="A413" s="52"/>
       <c r="B413" s="3" t="s">
         <v>218</v>
       </c>
@@ -9111,7 +9111,7 @@
       </c>
     </row>
     <row r="414" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A414" s="49"/>
+      <c r="A414" s="55"/>
       <c r="B414" s="3" t="s">
         <v>218</v>
       </c>
@@ -9126,7 +9126,7 @@
       </c>
     </row>
     <row r="415" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A415" s="47" t="s">
+      <c r="A415" s="51" t="s">
         <v>205</v>
       </c>
       <c r="B415" s="3" t="s">
@@ -9143,7 +9143,7 @@
       </c>
     </row>
     <row r="416" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A416" s="48"/>
+      <c r="A416" s="52"/>
       <c r="B416" s="3" t="s">
         <v>218</v>
       </c>
@@ -9158,7 +9158,7 @@
       </c>
     </row>
     <row r="417" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A417" s="49"/>
+      <c r="A417" s="55"/>
       <c r="B417" s="3" t="s">
         <v>218</v>
       </c>
@@ -9173,7 +9173,7 @@
       </c>
     </row>
     <row r="418" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A418" s="47" t="s">
+      <c r="A418" s="51" t="s">
         <v>206</v>
       </c>
       <c r="B418" s="3" t="s">
@@ -9190,7 +9190,7 @@
       </c>
     </row>
     <row r="419" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A419" s="48"/>
+      <c r="A419" s="52"/>
       <c r="B419" s="3" t="s">
         <v>218</v>
       </c>
@@ -9205,7 +9205,7 @@
       </c>
     </row>
     <row r="420" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A420" s="49"/>
+      <c r="A420" s="55"/>
       <c r="B420" s="3" t="s">
         <v>218</v>
       </c>
@@ -9220,7 +9220,7 @@
       </c>
     </row>
     <row r="421" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A421" s="47" t="s">
+      <c r="A421" s="51" t="s">
         <v>207</v>
       </c>
       <c r="B421" s="3" t="s">
@@ -9237,7 +9237,7 @@
       </c>
     </row>
     <row r="422" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A422" s="48"/>
+      <c r="A422" s="52"/>
       <c r="B422" s="3" t="s">
         <v>218</v>
       </c>
@@ -9252,7 +9252,7 @@
       </c>
     </row>
     <row r="423" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A423" s="49"/>
+      <c r="A423" s="55"/>
       <c r="B423" s="3" t="s">
         <v>218</v>
       </c>
@@ -9267,7 +9267,7 @@
       </c>
     </row>
     <row r="424" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A424" s="47" t="s">
+      <c r="A424" s="51" t="s">
         <v>208</v>
       </c>
       <c r="B424" s="3" t="s">
@@ -9284,7 +9284,7 @@
       </c>
     </row>
     <row r="425" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A425" s="48"/>
+      <c r="A425" s="52"/>
       <c r="B425" s="3" t="s">
         <v>218</v>
       </c>
@@ -9299,7 +9299,7 @@
       </c>
     </row>
     <row r="426" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A426" s="49"/>
+      <c r="A426" s="55"/>
       <c r="B426" s="3" t="s">
         <v>218</v>
       </c>
@@ -9314,7 +9314,7 @@
       </c>
     </row>
     <row r="427" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A427" s="47" t="s">
+      <c r="A427" s="51" t="s">
         <v>209</v>
       </c>
       <c r="B427" s="3" t="s">
@@ -9331,7 +9331,7 @@
       </c>
     </row>
     <row r="428" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A428" s="48"/>
+      <c r="A428" s="52"/>
       <c r="B428" s="3" t="s">
         <v>218</v>
       </c>
@@ -9346,7 +9346,7 @@
       </c>
     </row>
     <row r="429" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A429" s="49"/>
+      <c r="A429" s="55"/>
       <c r="B429" s="3" t="s">
         <v>218</v>
       </c>
@@ -9361,7 +9361,7 @@
       </c>
     </row>
     <row r="430" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A430" s="47" t="s">
+      <c r="A430" s="51" t="s">
         <v>210</v>
       </c>
       <c r="B430" s="3" t="s">
@@ -9378,7 +9378,7 @@
       </c>
     </row>
     <row r="431" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A431" s="48"/>
+      <c r="A431" s="52"/>
       <c r="B431" s="3" t="s">
         <v>218</v>
       </c>
@@ -9393,7 +9393,7 @@
       </c>
     </row>
     <row r="432" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A432" s="49"/>
+      <c r="A432" s="55"/>
       <c r="B432" s="3" t="s">
         <v>218</v>
       </c>
@@ -9408,7 +9408,7 @@
       </c>
     </row>
     <row r="433" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A433" s="47" t="s">
+      <c r="A433" s="51" t="s">
         <v>211</v>
       </c>
       <c r="B433" s="3" t="s">
@@ -9425,7 +9425,7 @@
       </c>
     </row>
     <row r="434" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A434" s="48"/>
+      <c r="A434" s="52"/>
       <c r="B434" s="3" t="s">
         <v>218</v>
       </c>
@@ -9440,7 +9440,7 @@
       </c>
     </row>
     <row r="435" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A435" s="49"/>
+      <c r="A435" s="55"/>
       <c r="B435" s="3" t="s">
         <v>218</v>
       </c>
@@ -9455,7 +9455,7 @@
       </c>
     </row>
     <row r="436" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A436" s="47" t="s">
+      <c r="A436" s="51" t="s">
         <v>212</v>
       </c>
       <c r="B436" s="3" t="s">
@@ -9472,7 +9472,7 @@
       </c>
     </row>
     <row r="437" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A437" s="48"/>
+      <c r="A437" s="52"/>
       <c r="B437" s="3" t="s">
         <v>218</v>
       </c>
@@ -9487,7 +9487,7 @@
       </c>
     </row>
     <row r="438" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A438" s="49"/>
+      <c r="A438" s="55"/>
       <c r="B438" s="3" t="s">
         <v>218</v>
       </c>
@@ -9502,7 +9502,7 @@
       </c>
     </row>
     <row r="439" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A439" s="47" t="s">
+      <c r="A439" s="51" t="s">
         <v>213</v>
       </c>
       <c r="B439" s="3" t="s">
@@ -9519,7 +9519,7 @@
       </c>
     </row>
     <row r="440" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A440" s="48"/>
+      <c r="A440" s="52"/>
       <c r="B440" s="3" t="s">
         <v>218</v>
       </c>
@@ -9534,7 +9534,7 @@
       </c>
     </row>
     <row r="441" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A441" s="49"/>
+      <c r="A441" s="55"/>
       <c r="B441" s="3" t="s">
         <v>218</v>
       </c>
@@ -9549,7 +9549,7 @@
       </c>
     </row>
     <row r="442" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A442" s="47" t="s">
+      <c r="A442" s="51" t="s">
         <v>214</v>
       </c>
       <c r="B442" s="3" t="s">
@@ -9566,7 +9566,7 @@
       </c>
     </row>
     <row r="443" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A443" s="48"/>
+      <c r="A443" s="52"/>
       <c r="B443" s="3" t="s">
         <v>218</v>
       </c>
@@ -9581,7 +9581,7 @@
       </c>
     </row>
     <row r="444" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A444" s="49"/>
+      <c r="A444" s="55"/>
       <c r="B444" s="3" t="s">
         <v>218</v>
       </c>
@@ -9596,7 +9596,7 @@
       </c>
     </row>
     <row r="445" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A445" s="47" t="s">
+      <c r="A445" s="51" t="s">
         <v>215</v>
       </c>
       <c r="B445" s="3" t="s">
@@ -9613,7 +9613,7 @@
       </c>
     </row>
     <row r="446" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A446" s="48"/>
+      <c r="A446" s="52"/>
       <c r="B446" s="3" t="s">
         <v>218</v>
       </c>
@@ -9628,7 +9628,7 @@
       </c>
     </row>
     <row r="447" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A447" s="49"/>
+      <c r="A447" s="55"/>
       <c r="B447" s="3" t="s">
         <v>218</v>
       </c>
@@ -9643,7 +9643,7 @@
       </c>
     </row>
     <row r="448" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A448" s="47" t="s">
+      <c r="A448" s="51" t="s">
         <v>216</v>
       </c>
       <c r="B448" s="3" t="s">
@@ -9660,7 +9660,7 @@
       </c>
     </row>
     <row r="449" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A449" s="48"/>
+      <c r="A449" s="52"/>
       <c r="B449" s="3" t="s">
         <v>218</v>
       </c>
@@ -9675,7 +9675,7 @@
       </c>
     </row>
     <row r="450" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A450" s="49"/>
+      <c r="A450" s="55"/>
       <c r="B450" s="3" t="s">
         <v>218</v>
       </c>
@@ -9690,7 +9690,7 @@
       </c>
     </row>
     <row r="451" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A451" s="48" t="s">
+      <c r="A451" s="52" t="s">
         <v>219</v>
       </c>
       <c r="B451" s="3" t="s">
@@ -9707,7 +9707,7 @@
       </c>
     </row>
     <row r="452" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A452" s="48"/>
+      <c r="A452" s="52"/>
       <c r="B452" s="3" t="s">
         <v>233</v>
       </c>
@@ -9722,7 +9722,7 @@
       </c>
     </row>
     <row r="453" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A453" s="47" t="s">
+      <c r="A453" s="51" t="s">
         <v>220</v>
       </c>
       <c r="B453" s="3" t="s">
@@ -9739,7 +9739,7 @@
       </c>
     </row>
     <row r="454" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A454" s="48"/>
+      <c r="A454" s="52"/>
       <c r="B454" s="3" t="s">
         <v>233</v>
       </c>
@@ -9754,7 +9754,7 @@
       </c>
     </row>
     <row r="455" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A455" s="47" t="s">
+      <c r="A455" s="51" t="s">
         <v>221</v>
       </c>
       <c r="B455" s="3" t="s">
@@ -9771,7 +9771,7 @@
       </c>
     </row>
     <row r="456" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A456" s="48"/>
+      <c r="A456" s="52"/>
       <c r="B456" s="3" t="s">
         <v>233</v>
       </c>
@@ -9786,7 +9786,7 @@
       </c>
     </row>
     <row r="457" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A457" s="47" t="s">
+      <c r="A457" s="51" t="s">
         <v>222</v>
       </c>
       <c r="B457" s="3" t="s">
@@ -9803,7 +9803,7 @@
       </c>
     </row>
     <row r="458" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A458" s="48"/>
+      <c r="A458" s="52"/>
       <c r="B458" s="3" t="s">
         <v>233</v>
       </c>
@@ -9818,7 +9818,7 @@
       </c>
     </row>
     <row r="459" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A459" s="47" t="s">
+      <c r="A459" s="51" t="s">
         <v>223</v>
       </c>
       <c r="B459" s="3" t="s">
@@ -9835,7 +9835,7 @@
       </c>
     </row>
     <row r="460" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A460" s="48"/>
+      <c r="A460" s="52"/>
       <c r="B460" s="3" t="s">
         <v>233</v>
       </c>
@@ -9850,7 +9850,7 @@
       </c>
     </row>
     <row r="461" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A461" s="47" t="s">
+      <c r="A461" s="51" t="s">
         <v>224</v>
       </c>
       <c r="B461" s="3" t="s">
@@ -9867,7 +9867,7 @@
       </c>
     </row>
     <row r="462" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A462" s="48"/>
+      <c r="A462" s="52"/>
       <c r="B462" s="3" t="s">
         <v>233</v>
       </c>
@@ -9882,7 +9882,7 @@
       </c>
     </row>
     <row r="463" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A463" s="47" t="s">
+      <c r="A463" s="51" t="s">
         <v>225</v>
       </c>
       <c r="B463" s="3" t="s">
@@ -9899,7 +9899,7 @@
       </c>
     </row>
     <row r="464" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A464" s="48"/>
+      <c r="A464" s="52"/>
       <c r="B464" s="3" t="s">
         <v>233</v>
       </c>
@@ -9914,7 +9914,7 @@
       </c>
     </row>
     <row r="465" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A465" s="47" t="s">
+      <c r="A465" s="51" t="s">
         <v>226</v>
       </c>
       <c r="B465" s="3" t="s">
@@ -9931,7 +9931,7 @@
       </c>
     </row>
     <row r="466" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A466" s="48"/>
+      <c r="A466" s="52"/>
       <c r="B466" s="3" t="s">
         <v>233</v>
       </c>
@@ -9946,7 +9946,7 @@
       </c>
     </row>
     <row r="467" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A467" s="47" t="s">
+      <c r="A467" s="51" t="s">
         <v>227</v>
       </c>
       <c r="B467" s="3" t="s">
@@ -9963,7 +9963,7 @@
       </c>
     </row>
     <row r="468" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A468" s="48"/>
+      <c r="A468" s="52"/>
       <c r="B468" s="3" t="s">
         <v>233</v>
       </c>
@@ -9978,7 +9978,7 @@
       </c>
     </row>
     <row r="469" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A469" s="47" t="s">
+      <c r="A469" s="51" t="s">
         <v>228</v>
       </c>
       <c r="B469" s="3" t="s">
@@ -9995,7 +9995,7 @@
       </c>
     </row>
     <row r="470" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A470" s="48"/>
+      <c r="A470" s="52"/>
       <c r="B470" s="3" t="s">
         <v>233</v>
       </c>
@@ -10010,7 +10010,7 @@
       </c>
     </row>
     <row r="471" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A471" s="47" t="s">
+      <c r="A471" s="51" t="s">
         <v>229</v>
       </c>
       <c r="B471" s="3" t="s">
@@ -10027,7 +10027,7 @@
       </c>
     </row>
     <row r="472" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A472" s="48"/>
+      <c r="A472" s="52"/>
       <c r="B472" s="3" t="s">
         <v>233</v>
       </c>
@@ -10042,7 +10042,7 @@
       </c>
     </row>
     <row r="473" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A473" s="47" t="s">
+      <c r="A473" s="51" t="s">
         <v>230</v>
       </c>
       <c r="B473" s="3" t="s">
@@ -10059,7 +10059,7 @@
       </c>
     </row>
     <row r="474" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A474" s="48"/>
+      <c r="A474" s="52"/>
       <c r="B474" s="3" t="s">
         <v>233</v>
       </c>
@@ -10074,7 +10074,7 @@
       </c>
     </row>
     <row r="475" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A475" s="47" t="s">
+      <c r="A475" s="51" t="s">
         <v>231</v>
       </c>
       <c r="B475" s="3" t="s">
@@ -10091,7 +10091,7 @@
       </c>
     </row>
     <row r="476" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A476" s="48"/>
+      <c r="A476" s="52"/>
       <c r="B476" s="3" t="s">
         <v>233</v>
       </c>
@@ -10106,7 +10106,7 @@
       </c>
     </row>
     <row r="477" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A477" s="47" t="s">
+      <c r="A477" s="51" t="s">
         <v>232</v>
       </c>
       <c r="B477" s="3" t="s">
@@ -10123,7 +10123,7 @@
       </c>
     </row>
     <row r="478" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A478" s="48"/>
+      <c r="A478" s="52"/>
       <c r="B478" s="3" t="s">
         <v>233</v>
       </c>
@@ -10138,7 +10138,7 @@
       </c>
     </row>
     <row r="479" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A479" s="50" t="s">
+      <c r="A479" s="53" t="s">
         <v>235</v>
       </c>
       <c r="B479" s="3" t="s">
@@ -10155,7 +10155,7 @@
       </c>
     </row>
     <row r="480" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A480" s="51"/>
+      <c r="A480" s="54"/>
       <c r="B480" s="3" t="s">
         <v>234</v>
       </c>
@@ -10170,7 +10170,7 @@
       </c>
     </row>
     <row r="481" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A481" s="51"/>
+      <c r="A481" s="54"/>
       <c r="B481" s="3" t="s">
         <v>234</v>
       </c>
@@ -10185,7 +10185,7 @@
       </c>
     </row>
     <row r="482" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A482" s="51"/>
+      <c r="A482" s="54"/>
       <c r="B482" s="3" t="s">
         <v>234</v>
       </c>
@@ -10200,7 +10200,7 @@
       </c>
     </row>
     <row r="483" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A483" s="51"/>
+      <c r="A483" s="54"/>
       <c r="B483" s="3" t="s">
         <v>234</v>
       </c>
@@ -10215,7 +10215,7 @@
       </c>
     </row>
     <row r="484" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A484" s="51"/>
+      <c r="A484" s="54"/>
       <c r="B484" s="3" t="s">
         <v>234</v>
       </c>
@@ -10230,7 +10230,7 @@
       </c>
     </row>
     <row r="485" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A485" s="50" t="s">
+      <c r="A485" s="53" t="s">
         <v>238</v>
       </c>
       <c r="B485" s="3" t="s">
@@ -10247,7 +10247,7 @@
       </c>
     </row>
     <row r="486" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A486" s="51"/>
+      <c r="A486" s="54"/>
       <c r="B486" s="3" t="s">
         <v>234</v>
       </c>
@@ -10262,7 +10262,7 @@
       </c>
     </row>
     <row r="487" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A487" s="51"/>
+      <c r="A487" s="54"/>
       <c r="B487" s="3" t="s">
         <v>234</v>
       </c>
@@ -10277,7 +10277,7 @@
       </c>
     </row>
     <row r="488" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A488" s="51"/>
+      <c r="A488" s="54"/>
       <c r="B488" s="3" t="s">
         <v>234</v>
       </c>
@@ -10292,7 +10292,7 @@
       </c>
     </row>
     <row r="489" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A489" s="51"/>
+      <c r="A489" s="54"/>
       <c r="B489" s="3" t="s">
         <v>234</v>
       </c>
@@ -10307,7 +10307,7 @@
       </c>
     </row>
     <row r="490" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A490" s="51"/>
+      <c r="A490" s="54"/>
       <c r="B490" s="3" t="s">
         <v>234</v>
       </c>
@@ -10322,7 +10322,7 @@
       </c>
     </row>
     <row r="491" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A491" s="50" t="s">
+      <c r="A491" s="53" t="s">
         <v>239</v>
       </c>
       <c r="B491" s="3" t="s">
@@ -10339,7 +10339,7 @@
       </c>
     </row>
     <row r="492" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A492" s="51"/>
+      <c r="A492" s="54"/>
       <c r="B492" s="3" t="s">
         <v>234</v>
       </c>
@@ -10354,7 +10354,7 @@
       </c>
     </row>
     <row r="493" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A493" s="51"/>
+      <c r="A493" s="54"/>
       <c r="B493" s="3" t="s">
         <v>234</v>
       </c>
@@ -10369,7 +10369,7 @@
       </c>
     </row>
     <row r="494" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A494" s="51"/>
+      <c r="A494" s="54"/>
       <c r="B494" s="3" t="s">
         <v>234</v>
       </c>
@@ -10384,7 +10384,7 @@
       </c>
     </row>
     <row r="495" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A495" s="51"/>
+      <c r="A495" s="54"/>
       <c r="B495" s="3" t="s">
         <v>234</v>
       </c>
@@ -10399,7 +10399,7 @@
       </c>
     </row>
     <row r="496" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A496" s="51"/>
+      <c r="A496" s="54"/>
       <c r="B496" s="3" t="s">
         <v>234</v>
       </c>
@@ -10414,7 +10414,7 @@
       </c>
     </row>
     <row r="497" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A497" s="50" t="s">
+      <c r="A497" s="53" t="s">
         <v>240</v>
       </c>
       <c r="B497" s="3" t="s">
@@ -10431,7 +10431,7 @@
       </c>
     </row>
     <row r="498" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A498" s="51"/>
+      <c r="A498" s="54"/>
       <c r="B498" s="3" t="s">
         <v>234</v>
       </c>
@@ -10446,7 +10446,7 @@
       </c>
     </row>
     <row r="499" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A499" s="51"/>
+      <c r="A499" s="54"/>
       <c r="B499" s="3" t="s">
         <v>234</v>
       </c>
@@ -10461,7 +10461,7 @@
       </c>
     </row>
     <row r="500" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A500" s="51"/>
+      <c r="A500" s="54"/>
       <c r="B500" s="3" t="s">
         <v>234</v>
       </c>
@@ -10476,7 +10476,7 @@
       </c>
     </row>
     <row r="501" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A501" s="51"/>
+      <c r="A501" s="54"/>
       <c r="B501" s="3" t="s">
         <v>234</v>
       </c>
@@ -10491,7 +10491,7 @@
       </c>
     </row>
     <row r="502" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A502" s="51"/>
+      <c r="A502" s="54"/>
       <c r="B502" s="3" t="s">
         <v>234</v>
       </c>
@@ -10506,7 +10506,7 @@
       </c>
     </row>
     <row r="503" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A503" s="50" t="s">
+      <c r="A503" s="53" t="s">
         <v>241</v>
       </c>
       <c r="B503" s="3" t="s">
@@ -10523,7 +10523,7 @@
       </c>
     </row>
     <row r="504" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A504" s="51"/>
+      <c r="A504" s="54"/>
       <c r="B504" s="3" t="s">
         <v>234</v>
       </c>
@@ -10538,7 +10538,7 @@
       </c>
     </row>
     <row r="505" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A505" s="51"/>
+      <c r="A505" s="54"/>
       <c r="B505" s="3" t="s">
         <v>234</v>
       </c>
@@ -10553,7 +10553,7 @@
       </c>
     </row>
     <row r="506" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A506" s="51"/>
+      <c r="A506" s="54"/>
       <c r="B506" s="3" t="s">
         <v>234</v>
       </c>
@@ -10568,7 +10568,7 @@
       </c>
     </row>
     <row r="507" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A507" s="51"/>
+      <c r="A507" s="54"/>
       <c r="B507" s="3" t="s">
         <v>234</v>
       </c>
@@ -10583,7 +10583,7 @@
       </c>
     </row>
     <row r="508" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A508" s="51"/>
+      <c r="A508" s="54"/>
       <c r="B508" s="3" t="s">
         <v>234</v>
       </c>
@@ -10598,7 +10598,7 @@
       </c>
     </row>
     <row r="509" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A509" s="50" t="s">
+      <c r="A509" s="53" t="s">
         <v>242</v>
       </c>
       <c r="B509" s="3" t="s">
@@ -10615,7 +10615,7 @@
       </c>
     </row>
     <row r="510" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A510" s="51"/>
+      <c r="A510" s="54"/>
       <c r="B510" s="3" t="s">
         <v>234</v>
       </c>
@@ -10630,7 +10630,7 @@
       </c>
     </row>
     <row r="511" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A511" s="51"/>
+      <c r="A511" s="54"/>
       <c r="B511" s="3" t="s">
         <v>234</v>
       </c>
@@ -10645,7 +10645,7 @@
       </c>
     </row>
     <row r="512" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A512" s="51"/>
+      <c r="A512" s="54"/>
       <c r="B512" s="3" t="s">
         <v>234</v>
       </c>
@@ -10660,7 +10660,7 @@
       </c>
     </row>
     <row r="513" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A513" s="51"/>
+      <c r="A513" s="54"/>
       <c r="B513" s="3" t="s">
         <v>234</v>
       </c>
@@ -10675,7 +10675,7 @@
       </c>
     </row>
     <row r="514" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A514" s="51"/>
+      <c r="A514" s="54"/>
       <c r="B514" s="3" t="s">
         <v>234</v>
       </c>
@@ -10690,7 +10690,7 @@
       </c>
     </row>
     <row r="515" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A515" s="50" t="s">
+      <c r="A515" s="53" t="s">
         <v>243</v>
       </c>
       <c r="B515" s="3" t="s">
@@ -10707,7 +10707,7 @@
       </c>
     </row>
     <row r="516" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A516" s="51"/>
+      <c r="A516" s="54"/>
       <c r="B516" s="3" t="s">
         <v>234</v>
       </c>
@@ -10722,7 +10722,7 @@
       </c>
     </row>
     <row r="517" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A517" s="51"/>
+      <c r="A517" s="54"/>
       <c r="B517" s="3" t="s">
         <v>234</v>
       </c>
@@ -10737,7 +10737,7 @@
       </c>
     </row>
     <row r="518" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A518" s="51"/>
+      <c r="A518" s="54"/>
       <c r="B518" s="3" t="s">
         <v>234</v>
       </c>
@@ -10752,7 +10752,7 @@
       </c>
     </row>
     <row r="519" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A519" s="51"/>
+      <c r="A519" s="54"/>
       <c r="B519" s="3" t="s">
         <v>234</v>
       </c>
@@ -10767,7 +10767,7 @@
       </c>
     </row>
     <row r="520" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A520" s="51"/>
+      <c r="A520" s="54"/>
       <c r="B520" s="3" t="s">
         <v>234</v>
       </c>
@@ -10782,7 +10782,7 @@
       </c>
     </row>
     <row r="521" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A521" s="50" t="s">
+      <c r="A521" s="53" t="s">
         <v>244</v>
       </c>
       <c r="B521" s="3" t="s">
@@ -10799,7 +10799,7 @@
       </c>
     </row>
     <row r="522" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A522" s="51"/>
+      <c r="A522" s="54"/>
       <c r="B522" s="3" t="s">
         <v>234</v>
       </c>
@@ -10814,7 +10814,7 @@
       </c>
     </row>
     <row r="523" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A523" s="51"/>
+      <c r="A523" s="54"/>
       <c r="B523" s="3" t="s">
         <v>234</v>
       </c>
@@ -10829,7 +10829,7 @@
       </c>
     </row>
     <row r="524" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A524" s="51"/>
+      <c r="A524" s="54"/>
       <c r="B524" s="3" t="s">
         <v>234</v>
       </c>
@@ -10844,7 +10844,7 @@
       </c>
     </row>
     <row r="525" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A525" s="51"/>
+      <c r="A525" s="54"/>
       <c r="B525" s="3" t="s">
         <v>234</v>
       </c>
@@ -10859,7 +10859,7 @@
       </c>
     </row>
     <row r="526" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A526" s="51"/>
+      <c r="A526" s="54"/>
       <c r="B526" s="3" t="s">
         <v>234</v>
       </c>
@@ -10874,7 +10874,7 @@
       </c>
     </row>
     <row r="527" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A527" s="50" t="s">
+      <c r="A527" s="53" t="s">
         <v>245</v>
       </c>
       <c r="B527" s="3" t="s">
@@ -10891,7 +10891,7 @@
       </c>
     </row>
     <row r="528" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A528" s="51"/>
+      <c r="A528" s="54"/>
       <c r="B528" s="3" t="s">
         <v>234</v>
       </c>
@@ -10906,7 +10906,7 @@
       </c>
     </row>
     <row r="529" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A529" s="51"/>
+      <c r="A529" s="54"/>
       <c r="B529" s="3" t="s">
         <v>234</v>
       </c>
@@ -10921,7 +10921,7 @@
       </c>
     </row>
     <row r="530" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A530" s="51"/>
+      <c r="A530" s="54"/>
       <c r="B530" s="3" t="s">
         <v>234</v>
       </c>
@@ -10936,7 +10936,7 @@
       </c>
     </row>
     <row r="531" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A531" s="51"/>
+      <c r="A531" s="54"/>
       <c r="B531" s="3" t="s">
         <v>234</v>
       </c>
@@ -10951,7 +10951,7 @@
       </c>
     </row>
     <row r="532" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A532" s="51"/>
+      <c r="A532" s="54"/>
       <c r="B532" s="3" t="s">
         <v>234</v>
       </c>
@@ -10966,7 +10966,7 @@
       </c>
     </row>
     <row r="533" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A533" s="50" t="s">
+      <c r="A533" s="53" t="s">
         <v>246</v>
       </c>
       <c r="B533" s="3" t="s">
@@ -10983,7 +10983,7 @@
       </c>
     </row>
     <row r="534" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A534" s="51"/>
+      <c r="A534" s="54"/>
       <c r="B534" s="3" t="s">
         <v>234</v>
       </c>
@@ -10998,7 +10998,7 @@
       </c>
     </row>
     <row r="535" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A535" s="51"/>
+      <c r="A535" s="54"/>
       <c r="B535" s="3" t="s">
         <v>234</v>
       </c>
@@ -11013,7 +11013,7 @@
       </c>
     </row>
     <row r="536" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A536" s="51"/>
+      <c r="A536" s="54"/>
       <c r="B536" s="3" t="s">
         <v>234</v>
       </c>
@@ -11028,7 +11028,7 @@
       </c>
     </row>
     <row r="537" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A537" s="51"/>
+      <c r="A537" s="54"/>
       <c r="B537" s="3" t="s">
         <v>234</v>
       </c>
@@ -11043,7 +11043,7 @@
       </c>
     </row>
     <row r="538" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A538" s="51"/>
+      <c r="A538" s="54"/>
       <c r="B538" s="3" t="s">
         <v>234</v>
       </c>
@@ -11058,7 +11058,7 @@
       </c>
     </row>
     <row r="539" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A539" s="50" t="s">
+      <c r="A539" s="53" t="s">
         <v>247</v>
       </c>
       <c r="B539" s="3" t="s">
@@ -11075,7 +11075,7 @@
       </c>
     </row>
     <row r="540" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A540" s="51"/>
+      <c r="A540" s="54"/>
       <c r="B540" s="3" t="s">
         <v>234</v>
       </c>
@@ -11090,7 +11090,7 @@
       </c>
     </row>
     <row r="541" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A541" s="51"/>
+      <c r="A541" s="54"/>
       <c r="B541" s="3" t="s">
         <v>234</v>
       </c>
@@ -11105,7 +11105,7 @@
       </c>
     </row>
     <row r="542" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A542" s="51"/>
+      <c r="A542" s="54"/>
       <c r="B542" s="3" t="s">
         <v>234</v>
       </c>
@@ -11120,7 +11120,7 @@
       </c>
     </row>
     <row r="543" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A543" s="51"/>
+      <c r="A543" s="54"/>
       <c r="B543" s="3" t="s">
         <v>234</v>
       </c>
@@ -11135,7 +11135,7 @@
       </c>
     </row>
     <row r="544" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A544" s="51"/>
+      <c r="A544" s="54"/>
       <c r="B544" s="3" t="s">
         <v>234</v>
       </c>
@@ -11150,7 +11150,7 @@
       </c>
     </row>
     <row r="545" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A545" s="50" t="s">
+      <c r="A545" s="53" t="s">
         <v>248</v>
       </c>
       <c r="B545" s="3" t="s">
@@ -11167,7 +11167,7 @@
       </c>
     </row>
     <row r="546" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A546" s="51"/>
+      <c r="A546" s="54"/>
       <c r="B546" s="3" t="s">
         <v>234</v>
       </c>
@@ -11182,7 +11182,7 @@
       </c>
     </row>
     <row r="547" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A547" s="51"/>
+      <c r="A547" s="54"/>
       <c r="B547" s="3" t="s">
         <v>234</v>
       </c>
@@ -11197,7 +11197,7 @@
       </c>
     </row>
     <row r="548" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A548" s="51"/>
+      <c r="A548" s="54"/>
       <c r="B548" s="3" t="s">
         <v>234</v>
       </c>
@@ -11212,7 +11212,7 @@
       </c>
     </row>
     <row r="549" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A549" s="51"/>
+      <c r="A549" s="54"/>
       <c r="B549" s="3" t="s">
         <v>234</v>
       </c>
@@ -11227,7 +11227,7 @@
       </c>
     </row>
     <row r="550" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A550" s="51"/>
+      <c r="A550" s="54"/>
       <c r="B550" s="3" t="s">
         <v>234</v>
       </c>
@@ -11242,7 +11242,7 @@
       </c>
     </row>
     <row r="551" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A551" s="50" t="s">
+      <c r="A551" s="53" t="s">
         <v>249</v>
       </c>
       <c r="B551" s="3" t="s">
@@ -11259,7 +11259,7 @@
       </c>
     </row>
     <row r="552" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A552" s="51"/>
+      <c r="A552" s="54"/>
       <c r="B552" s="3" t="s">
         <v>234</v>
       </c>
@@ -11274,7 +11274,7 @@
       </c>
     </row>
     <row r="553" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A553" s="51"/>
+      <c r="A553" s="54"/>
       <c r="B553" s="3" t="s">
         <v>234</v>
       </c>
@@ -11289,7 +11289,7 @@
       </c>
     </row>
     <row r="554" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A554" s="51"/>
+      <c r="A554" s="54"/>
       <c r="B554" s="3" t="s">
         <v>234</v>
       </c>
@@ -11304,7 +11304,7 @@
       </c>
     </row>
     <row r="555" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A555" s="51"/>
+      <c r="A555" s="54"/>
       <c r="B555" s="3" t="s">
         <v>234</v>
       </c>
@@ -11319,7 +11319,7 @@
       </c>
     </row>
     <row r="556" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A556" s="51"/>
+      <c r="A556" s="54"/>
       <c r="B556" s="3" t="s">
         <v>234</v>
       </c>
@@ -11334,7 +11334,7 @@
       </c>
     </row>
     <row r="557" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A557" s="50" t="s">
+      <c r="A557" s="53" t="s">
         <v>250</v>
       </c>
       <c r="B557" s="3" t="s">
@@ -11351,7 +11351,7 @@
       </c>
     </row>
     <row r="558" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A558" s="51"/>
+      <c r="A558" s="54"/>
       <c r="B558" s="3" t="s">
         <v>234</v>
       </c>
@@ -11366,7 +11366,7 @@
       </c>
     </row>
     <row r="559" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A559" s="51"/>
+      <c r="A559" s="54"/>
       <c r="B559" s="3" t="s">
         <v>234</v>
       </c>
@@ -11381,7 +11381,7 @@
       </c>
     </row>
     <row r="560" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A560" s="51"/>
+      <c r="A560" s="54"/>
       <c r="B560" s="3" t="s">
         <v>234</v>
       </c>
@@ -11396,7 +11396,7 @@
       </c>
     </row>
     <row r="561" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A561" s="51"/>
+      <c r="A561" s="54"/>
       <c r="B561" s="3" t="s">
         <v>234</v>
       </c>
@@ -11411,7 +11411,7 @@
       </c>
     </row>
     <row r="562" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A562" s="51"/>
+      <c r="A562" s="54"/>
       <c r="B562" s="3" t="s">
         <v>234</v>
       </c>
@@ -11426,7 +11426,7 @@
       </c>
     </row>
     <row r="563" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A563" s="47" t="s">
+      <c r="A563" s="51" t="s">
         <v>266</v>
       </c>
       <c r="B563" s="3" t="s">
@@ -11443,7 +11443,7 @@
       </c>
     </row>
     <row r="564" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A564" s="48"/>
+      <c r="A564" s="52"/>
       <c r="B564" s="3" t="s">
         <v>236</v>
       </c>
@@ -11458,7 +11458,7 @@
       </c>
     </row>
     <row r="565" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A565" s="48"/>
+      <c r="A565" s="52"/>
       <c r="B565" s="3" t="s">
         <v>236</v>
       </c>
@@ -11473,7 +11473,7 @@
       </c>
     </row>
     <row r="566" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A566" s="48"/>
+      <c r="A566" s="52"/>
       <c r="B566" s="3" t="s">
         <v>236</v>
       </c>
@@ -11488,7 +11488,7 @@
       </c>
     </row>
     <row r="567" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A567" s="49"/>
+      <c r="A567" s="55"/>
       <c r="B567" s="3" t="s">
         <v>236</v>
       </c>
@@ -11503,7 +11503,7 @@
       </c>
     </row>
     <row r="568" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A568" s="47" t="s">
+      <c r="A568" s="51" t="s">
         <v>253</v>
       </c>
       <c r="B568" s="3" t="s">
@@ -11520,7 +11520,7 @@
       </c>
     </row>
     <row r="569" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A569" s="48"/>
+      <c r="A569" s="52"/>
       <c r="B569" s="3" t="s">
         <v>236</v>
       </c>
@@ -11535,7 +11535,7 @@
       </c>
     </row>
     <row r="570" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A570" s="48"/>
+      <c r="A570" s="52"/>
       <c r="B570" s="3" t="s">
         <v>236</v>
       </c>
@@ -11550,7 +11550,7 @@
       </c>
     </row>
     <row r="571" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A571" s="48"/>
+      <c r="A571" s="52"/>
       <c r="B571" s="3" t="s">
         <v>236</v>
       </c>
@@ -11565,7 +11565,7 @@
       </c>
     </row>
     <row r="572" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A572" s="49"/>
+      <c r="A572" s="55"/>
       <c r="B572" s="3" t="s">
         <v>236</v>
       </c>
@@ -11580,7 +11580,7 @@
       </c>
     </row>
     <row r="573" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A573" s="47" t="s">
+      <c r="A573" s="51" t="s">
         <v>254</v>
       </c>
       <c r="B573" s="3" t="s">
@@ -11597,7 +11597,7 @@
       </c>
     </row>
     <row r="574" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A574" s="48" t="s">
+      <c r="A574" s="52" t="s">
         <v>254</v>
       </c>
       <c r="B574" s="3" t="s">
@@ -11614,7 +11614,7 @@
       </c>
     </row>
     <row r="575" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A575" s="48" t="s">
+      <c r="A575" s="52" t="s">
         <v>267</v>
       </c>
       <c r="B575" s="3" t="s">
@@ -11631,7 +11631,7 @@
       </c>
     </row>
     <row r="576" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A576" s="48" t="s">
+      <c r="A576" s="52" t="s">
         <v>254</v>
       </c>
       <c r="B576" s="3" t="s">
@@ -11648,7 +11648,7 @@
       </c>
     </row>
     <row r="577" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A577" s="49" t="s">
+      <c r="A577" s="55" t="s">
         <v>254</v>
       </c>
       <c r="B577" s="3" t="s">
@@ -11665,7 +11665,7 @@
       </c>
     </row>
     <row r="578" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A578" s="47" t="s">
+      <c r="A578" s="51" t="s">
         <v>255</v>
       </c>
       <c r="B578" s="3" t="s">
@@ -11682,7 +11682,7 @@
       </c>
     </row>
     <row r="579" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A579" s="48" t="s">
+      <c r="A579" s="52" t="s">
         <v>255</v>
       </c>
       <c r="B579" s="3" t="s">
@@ -11699,7 +11699,7 @@
       </c>
     </row>
     <row r="580" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A580" s="48" t="s">
+      <c r="A580" s="52" t="s">
         <v>255</v>
       </c>
       <c r="B580" s="3" t="s">
@@ -11716,7 +11716,7 @@
       </c>
     </row>
     <row r="581" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A581" s="48" t="s">
+      <c r="A581" s="52" t="s">
         <v>268</v>
       </c>
       <c r="B581" s="3" t="s">
@@ -11733,7 +11733,7 @@
       </c>
     </row>
     <row r="582" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A582" s="49" t="s">
+      <c r="A582" s="55" t="s">
         <v>255</v>
       </c>
       <c r="B582" s="3" t="s">
@@ -11750,7 +11750,7 @@
       </c>
     </row>
     <row r="583" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A583" s="47" t="s">
+      <c r="A583" s="51" t="s">
         <v>256</v>
       </c>
       <c r="B583" s="3" t="s">
@@ -11767,7 +11767,7 @@
       </c>
     </row>
     <row r="584" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A584" s="48" t="s">
+      <c r="A584" s="52" t="s">
         <v>256</v>
       </c>
       <c r="B584" s="3" t="s">
@@ -11784,7 +11784,7 @@
       </c>
     </row>
     <row r="585" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A585" s="48" t="s">
+      <c r="A585" s="52" t="s">
         <v>256</v>
       </c>
       <c r="B585" s="3" t="s">
@@ -11801,7 +11801,7 @@
       </c>
     </row>
     <row r="586" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A586" s="48" t="s">
+      <c r="A586" s="52" t="s">
         <v>256</v>
       </c>
       <c r="B586" s="3" t="s">
@@ -11818,7 +11818,7 @@
       </c>
     </row>
     <row r="587" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A587" s="49" t="s">
+      <c r="A587" s="55" t="s">
         <v>269</v>
       </c>
       <c r="B587" s="3" t="s">
@@ -11835,7 +11835,7 @@
       </c>
     </row>
     <row r="588" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A588" s="47" t="s">
+      <c r="A588" s="51" t="s">
         <v>257</v>
       </c>
       <c r="B588" s="3" t="s">
@@ -11852,7 +11852,7 @@
       </c>
     </row>
     <row r="589" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A589" s="48" t="s">
+      <c r="A589" s="52" t="s">
         <v>257</v>
       </c>
       <c r="B589" s="3" t="s">
@@ -11869,7 +11869,7 @@
       </c>
     </row>
     <row r="590" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A590" s="48" t="s">
+      <c r="A590" s="52" t="s">
         <v>257</v>
       </c>
       <c r="B590" s="3" t="s">
@@ -11886,7 +11886,7 @@
       </c>
     </row>
     <row r="591" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A591" s="48" t="s">
+      <c r="A591" s="52" t="s">
         <v>257</v>
       </c>
       <c r="B591" s="3" t="s">
@@ -11903,7 +11903,7 @@
       </c>
     </row>
     <row r="592" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A592" s="49" t="s">
+      <c r="A592" s="55" t="s">
         <v>257</v>
       </c>
       <c r="B592" s="3" t="s">
@@ -11920,7 +11920,7 @@
       </c>
     </row>
     <row r="593" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A593" s="47" t="s">
+      <c r="A593" s="51" t="s">
         <v>270</v>
       </c>
       <c r="B593" s="3" t="s">
@@ -11937,7 +11937,7 @@
       </c>
     </row>
     <row r="594" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A594" s="48" t="s">
+      <c r="A594" s="52" t="s">
         <v>258</v>
       </c>
       <c r="B594" s="3" t="s">
@@ -11954,7 +11954,7 @@
       </c>
     </row>
     <row r="595" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A595" s="48" t="s">
+      <c r="A595" s="52" t="s">
         <v>258</v>
       </c>
       <c r="B595" s="3" t="s">
@@ -11971,7 +11971,7 @@
       </c>
     </row>
     <row r="596" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A596" s="48" t="s">
+      <c r="A596" s="52" t="s">
         <v>258</v>
       </c>
       <c r="B596" s="3" t="s">
@@ -11988,7 +11988,7 @@
       </c>
     </row>
     <row r="597" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A597" s="49" t="s">
+      <c r="A597" s="55" t="s">
         <v>258</v>
       </c>
       <c r="B597" s="3" t="s">
@@ -12005,7 +12005,7 @@
       </c>
     </row>
     <row r="598" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A598" s="47" t="s">
+      <c r="A598" s="51" t="s">
         <v>259</v>
       </c>
       <c r="B598" s="3" t="s">
@@ -12022,7 +12022,7 @@
       </c>
     </row>
     <row r="599" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A599" s="48" t="s">
+      <c r="A599" s="52" t="s">
         <v>271</v>
       </c>
       <c r="B599" s="3" t="s">
@@ -12039,7 +12039,7 @@
       </c>
     </row>
     <row r="600" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A600" s="48" t="s">
+      <c r="A600" s="52" t="s">
         <v>259</v>
       </c>
       <c r="B600" s="3" t="s">
@@ -12056,7 +12056,7 @@
       </c>
     </row>
     <row r="601" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A601" s="48" t="s">
+      <c r="A601" s="52" t="s">
         <v>259</v>
       </c>
       <c r="B601" s="3" t="s">
@@ -12073,7 +12073,7 @@
       </c>
     </row>
     <row r="602" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A602" s="49" t="s">
+      <c r="A602" s="55" t="s">
         <v>259</v>
       </c>
       <c r="B602" s="3" t="s">
@@ -12090,7 +12090,7 @@
       </c>
     </row>
     <row r="603" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A603" s="47" t="s">
+      <c r="A603" s="51" t="s">
         <v>260</v>
       </c>
       <c r="B603" s="3" t="s">
@@ -12107,7 +12107,7 @@
       </c>
     </row>
     <row r="604" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A604" s="48" t="s">
+      <c r="A604" s="52" t="s">
         <v>260</v>
       </c>
       <c r="B604" s="3" t="s">
@@ -12124,7 +12124,7 @@
       </c>
     </row>
     <row r="605" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A605" s="48" t="s">
+      <c r="A605" s="52" t="s">
         <v>272</v>
       </c>
       <c r="B605" s="3" t="s">
@@ -12141,7 +12141,7 @@
       </c>
     </row>
     <row r="606" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A606" s="48" t="s">
+      <c r="A606" s="52" t="s">
         <v>260</v>
       </c>
       <c r="B606" s="3" t="s">
@@ -12158,7 +12158,7 @@
       </c>
     </row>
     <row r="607" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A607" s="49" t="s">
+      <c r="A607" s="55" t="s">
         <v>260</v>
       </c>
       <c r="B607" s="3" t="s">
@@ -12175,7 +12175,7 @@
       </c>
     </row>
     <row r="608" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A608" s="47" t="s">
+      <c r="A608" s="51" t="s">
         <v>261</v>
       </c>
       <c r="B608" s="3" t="s">
@@ -12192,7 +12192,7 @@
       </c>
     </row>
     <row r="609" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A609" s="48" t="s">
+      <c r="A609" s="52" t="s">
         <v>261</v>
       </c>
       <c r="B609" s="3" t="s">
@@ -12209,7 +12209,7 @@
       </c>
     </row>
     <row r="610" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A610" s="48" t="s">
+      <c r="A610" s="52" t="s">
         <v>261</v>
       </c>
       <c r="B610" s="3" t="s">
@@ -12226,7 +12226,7 @@
       </c>
     </row>
     <row r="611" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A611" s="48" t="s">
+      <c r="A611" s="52" t="s">
         <v>273</v>
       </c>
       <c r="B611" s="3" t="s">
@@ -12243,7 +12243,7 @@
       </c>
     </row>
     <row r="612" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A612" s="49" t="s">
+      <c r="A612" s="55" t="s">
         <v>261</v>
       </c>
       <c r="B612" s="3" t="s">
@@ -12260,7 +12260,7 @@
       </c>
     </row>
     <row r="613" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A613" s="47" t="s">
+      <c r="A613" s="51" t="s">
         <v>262</v>
       </c>
       <c r="B613" s="3" t="s">
@@ -12277,7 +12277,7 @@
       </c>
     </row>
     <row r="614" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A614" s="48" t="s">
+      <c r="A614" s="52" t="s">
         <v>262</v>
       </c>
       <c r="B614" s="3" t="s">
@@ -12294,7 +12294,7 @@
       </c>
     </row>
     <row r="615" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A615" s="48" t="s">
+      <c r="A615" s="52" t="s">
         <v>262</v>
       </c>
       <c r="B615" s="3" t="s">
@@ -12311,7 +12311,7 @@
       </c>
     </row>
     <row r="616" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A616" s="48" t="s">
+      <c r="A616" s="52" t="s">
         <v>262</v>
       </c>
       <c r="B616" s="3" t="s">
@@ -12328,7 +12328,7 @@
       </c>
     </row>
     <row r="617" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A617" s="49" t="s">
+      <c r="A617" s="55" t="s">
         <v>274</v>
       </c>
       <c r="B617" s="3" t="s">
@@ -12345,7 +12345,7 @@
       </c>
     </row>
     <row r="618" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A618" s="47" t="s">
+      <c r="A618" s="51" t="s">
         <v>263</v>
       </c>
       <c r="B618" s="3" t="s">
@@ -12362,7 +12362,7 @@
       </c>
     </row>
     <row r="619" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A619" s="48" t="s">
+      <c r="A619" s="52" t="s">
         <v>263</v>
       </c>
       <c r="B619" s="3" t="s">
@@ -12379,7 +12379,7 @@
       </c>
     </row>
     <row r="620" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A620" s="48" t="s">
+      <c r="A620" s="52" t="s">
         <v>263</v>
       </c>
       <c r="B620" s="3" t="s">
@@ -12396,7 +12396,7 @@
       </c>
     </row>
     <row r="621" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A621" s="48" t="s">
+      <c r="A621" s="52" t="s">
         <v>263</v>
       </c>
       <c r="B621" s="3" t="s">
@@ -12413,7 +12413,7 @@
       </c>
     </row>
     <row r="622" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A622" s="49" t="s">
+      <c r="A622" s="55" t="s">
         <v>263</v>
       </c>
       <c r="B622" s="3" t="s">
@@ -12430,7 +12430,7 @@
       </c>
     </row>
     <row r="623" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A623" s="47" t="s">
+      <c r="A623" s="51" t="s">
         <v>275</v>
       </c>
       <c r="B623" s="3" t="s">
@@ -12447,7 +12447,7 @@
       </c>
     </row>
     <row r="624" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A624" s="48" t="s">
+      <c r="A624" s="52" t="s">
         <v>264</v>
       </c>
       <c r="B624" s="3" t="s">
@@ -12464,7 +12464,7 @@
       </c>
     </row>
     <row r="625" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A625" s="48" t="s">
+      <c r="A625" s="52" t="s">
         <v>264</v>
       </c>
       <c r="B625" s="3" t="s">
@@ -12481,7 +12481,7 @@
       </c>
     </row>
     <row r="626" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A626" s="48" t="s">
+      <c r="A626" s="52" t="s">
         <v>264</v>
       </c>
       <c r="B626" s="3" t="s">
@@ -12498,7 +12498,7 @@
       </c>
     </row>
     <row r="627" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A627" s="49" t="s">
+      <c r="A627" s="55" t="s">
         <v>264</v>
       </c>
       <c r="B627" s="3" t="s">
@@ -12515,7 +12515,7 @@
       </c>
     </row>
     <row r="628" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A628" s="47" t="s">
+      <c r="A628" s="51" t="s">
         <v>265</v>
       </c>
       <c r="B628" s="3" t="s">
@@ -12532,7 +12532,7 @@
       </c>
     </row>
     <row r="629" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A629" s="48" t="s">
+      <c r="A629" s="52" t="s">
         <v>276</v>
       </c>
       <c r="B629" s="3" t="s">
@@ -12549,7 +12549,7 @@
       </c>
     </row>
     <row r="630" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A630" s="48" t="s">
+      <c r="A630" s="52" t="s">
         <v>265</v>
       </c>
       <c r="B630" s="3" t="s">
@@ -12566,7 +12566,7 @@
       </c>
     </row>
     <row r="631" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A631" s="48" t="s">
+      <c r="A631" s="52" t="s">
         <v>265</v>
       </c>
       <c r="B631" s="3" t="s">
@@ -12583,7 +12583,7 @@
       </c>
     </row>
     <row r="632" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A632" s="49" t="s">
+      <c r="A632" s="55" t="s">
         <v>265</v>
       </c>
       <c r="B632" s="3" t="s">
@@ -12600,7 +12600,7 @@
       </c>
     </row>
     <row r="633" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A633" s="48" t="s">
+      <c r="A633" s="52" t="s">
         <v>19</v>
       </c>
       <c r="B633" s="3" t="s">
@@ -12617,7 +12617,7 @@
       </c>
     </row>
     <row r="634" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A634" s="48"/>
+      <c r="A634" s="52"/>
       <c r="B634" s="3" t="s">
         <v>13</v>
       </c>
@@ -12632,7 +12632,7 @@
       </c>
     </row>
     <row r="635" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A635" s="49"/>
+      <c r="A635" s="55"/>
       <c r="B635" s="3" t="s">
         <v>13</v>
       </c>
@@ -12647,7 +12647,7 @@
       </c>
     </row>
     <row r="636" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A636" s="47" t="s">
+      <c r="A636" s="51" t="s">
         <v>56</v>
       </c>
       <c r="B636" s="3" t="s">
@@ -12664,7 +12664,7 @@
       </c>
     </row>
     <row r="637" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A637" s="48"/>
+      <c r="A637" s="52"/>
       <c r="B637" s="3" t="s">
         <v>13</v>
       </c>
@@ -12679,7 +12679,7 @@
       </c>
     </row>
     <row r="638" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A638" s="49"/>
+      <c r="A638" s="55"/>
       <c r="B638" s="3" t="s">
         <v>13</v>
       </c>
@@ -12694,7 +12694,7 @@
       </c>
     </row>
     <row r="639" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A639" s="47" t="s">
+      <c r="A639" s="51" t="s">
         <v>57</v>
       </c>
       <c r="B639" s="3" t="s">
@@ -12711,7 +12711,7 @@
       </c>
     </row>
     <row r="640" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A640" s="48"/>
+      <c r="A640" s="52"/>
       <c r="B640" s="3" t="s">
         <v>13</v>
       </c>
@@ -12726,7 +12726,7 @@
       </c>
     </row>
     <row r="641" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A641" s="49"/>
+      <c r="A641" s="55"/>
       <c r="B641" s="3" t="s">
         <v>13</v>
       </c>
@@ -12741,7 +12741,7 @@
       </c>
     </row>
     <row r="642" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A642" s="47" t="s">
+      <c r="A642" s="51" t="s">
         <v>58</v>
       </c>
       <c r="B642" s="3" t="s">
@@ -12758,7 +12758,7 @@
       </c>
     </row>
     <row r="643" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A643" s="48"/>
+      <c r="A643" s="52"/>
       <c r="B643" s="3" t="s">
         <v>13</v>
       </c>
@@ -12773,7 +12773,7 @@
       </c>
     </row>
     <row r="644" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A644" s="49"/>
+      <c r="A644" s="55"/>
       <c r="B644" s="3" t="s">
         <v>13</v>
       </c>
@@ -12788,7 +12788,7 @@
       </c>
     </row>
     <row r="645" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A645" s="47" t="s">
+      <c r="A645" s="51" t="s">
         <v>59</v>
       </c>
       <c r="B645" s="3" t="s">
@@ -12805,7 +12805,7 @@
       </c>
     </row>
     <row r="646" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A646" s="48"/>
+      <c r="A646" s="52"/>
       <c r="B646" s="3" t="s">
         <v>13</v>
       </c>
@@ -12820,7 +12820,7 @@
       </c>
     </row>
     <row r="647" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A647" s="49"/>
+      <c r="A647" s="55"/>
       <c r="B647" s="3" t="s">
         <v>13</v>
       </c>
@@ -12835,7 +12835,7 @@
       </c>
     </row>
     <row r="648" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A648" s="47" t="s">
+      <c r="A648" s="51" t="s">
         <v>60</v>
       </c>
       <c r="B648" s="3" t="s">
@@ -12852,7 +12852,7 @@
       </c>
     </row>
     <row r="649" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A649" s="48"/>
+      <c r="A649" s="52"/>
       <c r="B649" s="3" t="s">
         <v>13</v>
       </c>
@@ -12867,7 +12867,7 @@
       </c>
     </row>
     <row r="650" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A650" s="49"/>
+      <c r="A650" s="55"/>
       <c r="B650" s="3" t="s">
         <v>13</v>
       </c>
@@ -12882,7 +12882,7 @@
       </c>
     </row>
     <row r="651" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A651" s="47" t="s">
+      <c r="A651" s="51" t="s">
         <v>61</v>
       </c>
       <c r="B651" s="3" t="s">
@@ -12899,7 +12899,7 @@
       </c>
     </row>
     <row r="652" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A652" s="48"/>
+      <c r="A652" s="52"/>
       <c r="B652" s="3" t="s">
         <v>13</v>
       </c>
@@ -12914,7 +12914,7 @@
       </c>
     </row>
     <row r="653" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A653" s="49"/>
+      <c r="A653" s="55"/>
       <c r="B653" s="3" t="s">
         <v>13</v>
       </c>
@@ -12929,7 +12929,7 @@
       </c>
     </row>
     <row r="654" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A654" s="47" t="s">
+      <c r="A654" s="51" t="s">
         <v>62</v>
       </c>
       <c r="B654" s="3" t="s">
@@ -12946,7 +12946,7 @@
       </c>
     </row>
     <row r="655" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A655" s="48"/>
+      <c r="A655" s="52"/>
       <c r="B655" s="3" t="s">
         <v>13</v>
       </c>
@@ -12961,7 +12961,7 @@
       </c>
     </row>
     <row r="656" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A656" s="49"/>
+      <c r="A656" s="55"/>
       <c r="B656" s="3" t="s">
         <v>13</v>
       </c>
@@ -12976,7 +12976,7 @@
       </c>
     </row>
     <row r="657" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A657" s="47" t="s">
+      <c r="A657" s="51" t="s">
         <v>63</v>
       </c>
       <c r="B657" s="3" t="s">
@@ -12993,7 +12993,7 @@
       </c>
     </row>
     <row r="658" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A658" s="48"/>
+      <c r="A658" s="52"/>
       <c r="B658" s="3" t="s">
         <v>13</v>
       </c>
@@ -13008,7 +13008,7 @@
       </c>
     </row>
     <row r="659" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A659" s="49"/>
+      <c r="A659" s="55"/>
       <c r="B659" s="3" t="s">
         <v>13</v>
       </c>
@@ -13023,7 +13023,7 @@
       </c>
     </row>
     <row r="660" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A660" s="47" t="s">
+      <c r="A660" s="51" t="s">
         <v>64</v>
       </c>
       <c r="B660" s="3" t="s">
@@ -13040,7 +13040,7 @@
       </c>
     </row>
     <row r="661" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A661" s="48"/>
+      <c r="A661" s="52"/>
       <c r="B661" s="3" t="s">
         <v>13</v>
       </c>
@@ -13055,7 +13055,7 @@
       </c>
     </row>
     <row r="662" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A662" s="49"/>
+      <c r="A662" s="55"/>
       <c r="B662" s="3" t="s">
         <v>13</v>
       </c>
@@ -13070,7 +13070,7 @@
       </c>
     </row>
     <row r="663" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A663" s="47" t="s">
+      <c r="A663" s="51" t="s">
         <v>65</v>
       </c>
       <c r="B663" s="3" t="s">
@@ -13087,7 +13087,7 @@
       </c>
     </row>
     <row r="664" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A664" s="48"/>
+      <c r="A664" s="52"/>
       <c r="B664" s="3" t="s">
         <v>13</v>
       </c>
@@ -13102,7 +13102,7 @@
       </c>
     </row>
     <row r="665" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A665" s="49"/>
+      <c r="A665" s="55"/>
       <c r="B665" s="3" t="s">
         <v>13</v>
       </c>
@@ -13117,7 +13117,7 @@
       </c>
     </row>
     <row r="666" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A666" s="47" t="s">
+      <c r="A666" s="51" t="s">
         <v>66</v>
       </c>
       <c r="B666" s="3" t="s">
@@ -13134,7 +13134,7 @@
       </c>
     </row>
     <row r="667" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A667" s="48"/>
+      <c r="A667" s="52"/>
       <c r="B667" s="3" t="s">
         <v>13</v>
       </c>
@@ -13149,7 +13149,7 @@
       </c>
     </row>
     <row r="668" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A668" s="49"/>
+      <c r="A668" s="55"/>
       <c r="B668" s="3" t="s">
         <v>13</v>
       </c>
@@ -13164,7 +13164,7 @@
       </c>
     </row>
     <row r="669" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A669" s="47" t="s">
+      <c r="A669" s="51" t="s">
         <v>67</v>
       </c>
       <c r="B669" s="3" t="s">
@@ -13181,7 +13181,7 @@
       </c>
     </row>
     <row r="670" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A670" s="48"/>
+      <c r="A670" s="52"/>
       <c r="B670" s="3" t="s">
         <v>13</v>
       </c>
@@ -13196,7 +13196,7 @@
       </c>
     </row>
     <row r="671" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A671" s="49"/>
+      <c r="A671" s="55"/>
       <c r="B671" s="3" t="s">
         <v>13</v>
       </c>
@@ -13211,7 +13211,7 @@
       </c>
     </row>
     <row r="672" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A672" s="47" t="s">
+      <c r="A672" s="51" t="s">
         <v>68</v>
       </c>
       <c r="B672" s="3" t="s">
@@ -13228,7 +13228,7 @@
       </c>
     </row>
     <row r="673" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A673" s="48"/>
+      <c r="A673" s="52"/>
       <c r="B673" s="3" t="s">
         <v>13</v>
       </c>
@@ -13243,7 +13243,7 @@
       </c>
     </row>
     <row r="674" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A674" s="49"/>
+      <c r="A674" s="55"/>
       <c r="B674" s="3" t="s">
         <v>13</v>
       </c>
@@ -13258,7 +13258,7 @@
       </c>
     </row>
     <row r="675" spans="1:5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A675" s="47" t="s">
+      <c r="A675" s="51" t="s">
         <v>277</v>
       </c>
       <c r="B675" s="3" t="s">
@@ -13275,7 +13275,7 @@
       </c>
     </row>
     <row r="676" spans="1:5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A676" s="48" t="s">
+      <c r="A676" s="52" t="s">
         <v>277</v>
       </c>
       <c r="B676" s="3" t="s">
@@ -13292,7 +13292,7 @@
       </c>
     </row>
     <row r="677" spans="1:5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A677" s="47" t="s">
+      <c r="A677" s="51" t="s">
         <v>278</v>
       </c>
       <c r="B677" s="3" t="s">
@@ -13309,7 +13309,7 @@
       </c>
     </row>
     <row r="678" spans="1:5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A678" s="48" t="s">
+      <c r="A678" s="52" t="s">
         <v>278</v>
       </c>
       <c r="B678" s="3" t="s">
@@ -13326,7 +13326,7 @@
       </c>
     </row>
     <row r="679" spans="1:5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A679" s="47" t="s">
+      <c r="A679" s="51" t="s">
         <v>279</v>
       </c>
       <c r="B679" s="3" t="s">
@@ -13343,7 +13343,7 @@
       </c>
     </row>
     <row r="680" spans="1:5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A680" s="48" t="s">
+      <c r="A680" s="52" t="s">
         <v>279</v>
       </c>
       <c r="B680" s="3" t="s">
@@ -13360,7 +13360,7 @@
       </c>
     </row>
     <row r="681" spans="1:5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A681" s="47" t="s">
+      <c r="A681" s="51" t="s">
         <v>280</v>
       </c>
       <c r="B681" s="3" t="s">
@@ -13377,7 +13377,7 @@
       </c>
     </row>
     <row r="682" spans="1:5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A682" s="48" t="s">
+      <c r="A682" s="52" t="s">
         <v>280</v>
       </c>
       <c r="B682" s="3" t="s">
@@ -13394,7 +13394,7 @@
       </c>
     </row>
     <row r="683" spans="1:5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A683" s="47" t="s">
+      <c r="A683" s="51" t="s">
         <v>281</v>
       </c>
       <c r="B683" s="3" t="s">
@@ -13411,7 +13411,7 @@
       </c>
     </row>
     <row r="684" spans="1:5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A684" s="48" t="s">
+      <c r="A684" s="52" t="s">
         <v>281</v>
       </c>
       <c r="B684" s="3" t="s">
@@ -13428,7 +13428,7 @@
       </c>
     </row>
     <row r="685" spans="1:5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A685" s="47" t="s">
+      <c r="A685" s="51" t="s">
         <v>282</v>
       </c>
       <c r="B685" s="3" t="s">
@@ -13445,7 +13445,7 @@
       </c>
     </row>
     <row r="686" spans="1:5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A686" s="48" t="s">
+      <c r="A686" s="52" t="s">
         <v>282</v>
       </c>
       <c r="B686" s="3" t="s">
@@ -13462,7 +13462,7 @@
       </c>
     </row>
     <row r="687" spans="1:5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A687" s="47" t="s">
+      <c r="A687" s="51" t="s">
         <v>283</v>
       </c>
       <c r="B687" s="3" t="s">
@@ -13479,7 +13479,7 @@
       </c>
     </row>
     <row r="688" spans="1:5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A688" s="48" t="s">
+      <c r="A688" s="52" t="s">
         <v>283</v>
       </c>
       <c r="B688" s="3" t="s">
@@ -13496,7 +13496,7 @@
       </c>
     </row>
     <row r="689" spans="1:5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A689" s="47" t="s">
+      <c r="A689" s="51" t="s">
         <v>284</v>
       </c>
       <c r="B689" s="3" t="s">
@@ -13513,7 +13513,7 @@
       </c>
     </row>
     <row r="690" spans="1:5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A690" s="48" t="s">
+      <c r="A690" s="52" t="s">
         <v>284</v>
       </c>
       <c r="B690" s="3" t="s">
@@ -13530,7 +13530,7 @@
       </c>
     </row>
     <row r="691" spans="1:5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A691" s="47" t="s">
+      <c r="A691" s="51" t="s">
         <v>285</v>
       </c>
       <c r="B691" s="3" t="s">
@@ -13547,7 +13547,7 @@
       </c>
     </row>
     <row r="692" spans="1:5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A692" s="48" t="s">
+      <c r="A692" s="52" t="s">
         <v>285</v>
       </c>
       <c r="B692" s="3" t="s">
@@ -13564,7 +13564,7 @@
       </c>
     </row>
     <row r="693" spans="1:5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A693" s="47" t="s">
+      <c r="A693" s="51" t="s">
         <v>286</v>
       </c>
       <c r="B693" s="3" t="s">
@@ -13581,7 +13581,7 @@
       </c>
     </row>
     <row r="694" spans="1:5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A694" s="48" t="s">
+      <c r="A694" s="52" t="s">
         <v>286</v>
       </c>
       <c r="B694" s="3" t="s">
@@ -13598,7 +13598,7 @@
       </c>
     </row>
     <row r="695" spans="1:5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A695" s="47" t="s">
+      <c r="A695" s="51" t="s">
         <v>287</v>
       </c>
       <c r="B695" s="3" t="s">
@@ -13615,7 +13615,7 @@
       </c>
     </row>
     <row r="696" spans="1:5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A696" s="48" t="s">
+      <c r="A696" s="52" t="s">
         <v>287</v>
       </c>
       <c r="B696" s="3" t="s">
@@ -13632,7 +13632,7 @@
       </c>
     </row>
     <row r="697" spans="1:5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A697" s="47" t="s">
+      <c r="A697" s="51" t="s">
         <v>288</v>
       </c>
       <c r="B697" s="3" t="s">
@@ -13649,7 +13649,7 @@
       </c>
     </row>
     <row r="698" spans="1:5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A698" s="48" t="s">
+      <c r="A698" s="52" t="s">
         <v>288</v>
       </c>
       <c r="B698" s="3" t="s">
@@ -13666,7 +13666,7 @@
       </c>
     </row>
     <row r="699" spans="1:5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A699" s="47" t="s">
+      <c r="A699" s="51" t="s">
         <v>289</v>
       </c>
       <c r="B699" s="3" t="s">
@@ -13683,7 +13683,7 @@
       </c>
     </row>
     <row r="700" spans="1:5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A700" s="48" t="s">
+      <c r="A700" s="52" t="s">
         <v>289</v>
       </c>
       <c r="B700" s="3" t="s">
@@ -13700,7 +13700,7 @@
       </c>
     </row>
     <row r="701" spans="1:5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A701" s="47" t="s">
+      <c r="A701" s="51" t="s">
         <v>290</v>
       </c>
       <c r="B701" s="3" t="s">
@@ -13717,7 +13717,7 @@
       </c>
     </row>
     <row r="702" spans="1:5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A702" s="48" t="s">
+      <c r="A702" s="52" t="s">
         <v>290</v>
       </c>
       <c r="B702" s="3" t="s">
@@ -13734,7 +13734,7 @@
       </c>
     </row>
     <row r="703" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A703" s="47" t="s">
+      <c r="A703" s="51" t="s">
         <v>304</v>
       </c>
       <c r="B703" s="3" t="s">
@@ -13751,7 +13751,7 @@
       </c>
     </row>
     <row r="704" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A704" s="48" t="s">
+      <c r="A704" s="52" t="s">
         <v>292</v>
       </c>
       <c r="B704" s="3" t="s">
@@ -13768,7 +13768,7 @@
       </c>
     </row>
     <row r="705" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A705" s="49" t="s">
+      <c r="A705" s="55" t="s">
         <v>292</v>
       </c>
       <c r="B705" s="3" t="s">
@@ -13785,7 +13785,7 @@
       </c>
     </row>
     <row r="706" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A706" s="47" t="s">
+      <c r="A706" s="51" t="s">
         <v>305</v>
       </c>
       <c r="B706" s="3" t="s">
@@ -13802,7 +13802,7 @@
       </c>
     </row>
     <row r="707" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A707" s="48" t="s">
+      <c r="A707" s="52" t="s">
         <v>293</v>
       </c>
       <c r="B707" s="3" t="s">
@@ -13819,7 +13819,7 @@
       </c>
     </row>
     <row r="708" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A708" s="49" t="s">
+      <c r="A708" s="55" t="s">
         <v>293</v>
       </c>
       <c r="B708" s="3" t="s">
@@ -13836,7 +13836,7 @@
       </c>
     </row>
     <row r="709" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A709" s="47" t="s">
+      <c r="A709" s="51" t="s">
         <v>306</v>
       </c>
       <c r="B709" s="3" t="s">
@@ -13853,7 +13853,7 @@
       </c>
     </row>
     <row r="710" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A710" s="48" t="s">
+      <c r="A710" s="52" t="s">
         <v>294</v>
       </c>
       <c r="B710" s="3" t="s">
@@ -13870,7 +13870,7 @@
       </c>
     </row>
     <row r="711" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A711" s="49" t="s">
+      <c r="A711" s="55" t="s">
         <v>294</v>
       </c>
       <c r="B711" s="3" t="s">
@@ -13887,7 +13887,7 @@
       </c>
     </row>
     <row r="712" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A712" s="47" t="s">
+      <c r="A712" s="51" t="s">
         <v>307</v>
       </c>
       <c r="B712" s="3" t="s">
@@ -13904,7 +13904,7 @@
       </c>
     </row>
     <row r="713" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A713" s="48" t="s">
+      <c r="A713" s="52" t="s">
         <v>295</v>
       </c>
       <c r="B713" s="3" t="s">
@@ -13921,7 +13921,7 @@
       </c>
     </row>
     <row r="714" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A714" s="49" t="s">
+      <c r="A714" s="55" t="s">
         <v>295</v>
       </c>
       <c r="B714" s="3" t="s">
@@ -13938,7 +13938,7 @@
       </c>
     </row>
     <row r="715" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A715" s="47" t="s">
+      <c r="A715" s="51" t="s">
         <v>308</v>
       </c>
       <c r="B715" s="3" t="s">
@@ -13955,7 +13955,7 @@
       </c>
     </row>
     <row r="716" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A716" s="48" t="s">
+      <c r="A716" s="52" t="s">
         <v>296</v>
       </c>
       <c r="B716" s="3" t="s">
@@ -13972,7 +13972,7 @@
       </c>
     </row>
     <row r="717" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A717" s="49" t="s">
+      <c r="A717" s="55" t="s">
         <v>296</v>
       </c>
       <c r="B717" s="3" t="s">
@@ -13989,7 +13989,7 @@
       </c>
     </row>
     <row r="718" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A718" s="47" t="s">
+      <c r="A718" s="51" t="s">
         <v>309</v>
       </c>
       <c r="B718" s="3" t="s">
@@ -14006,7 +14006,7 @@
       </c>
     </row>
     <row r="719" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A719" s="48" t="s">
+      <c r="A719" s="52" t="s">
         <v>297</v>
       </c>
       <c r="B719" s="3" t="s">
@@ -14023,7 +14023,7 @@
       </c>
     </row>
     <row r="720" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A720" s="49" t="s">
+      <c r="A720" s="55" t="s">
         <v>297</v>
       </c>
       <c r="B720" s="3" t="s">
@@ -14040,7 +14040,7 @@
       </c>
     </row>
     <row r="721" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A721" s="47" t="s">
+      <c r="A721" s="51" t="s">
         <v>310</v>
       </c>
       <c r="B721" s="3" t="s">
@@ -14057,7 +14057,7 @@
       </c>
     </row>
     <row r="722" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A722" s="48" t="s">
+      <c r="A722" s="52" t="s">
         <v>298</v>
       </c>
       <c r="B722" s="3" t="s">
@@ -14074,7 +14074,7 @@
       </c>
     </row>
     <row r="723" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A723" s="49" t="s">
+      <c r="A723" s="55" t="s">
         <v>298</v>
       </c>
       <c r="B723" s="3" t="s">
@@ -14091,7 +14091,7 @@
       </c>
     </row>
     <row r="724" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A724" s="47" t="s">
+      <c r="A724" s="51" t="s">
         <v>311</v>
       </c>
       <c r="B724" s="3" t="s">
@@ -14108,7 +14108,7 @@
       </c>
     </row>
     <row r="725" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A725" s="48" t="s">
+      <c r="A725" s="52" t="s">
         <v>299</v>
       </c>
       <c r="B725" s="3" t="s">
@@ -14125,7 +14125,7 @@
       </c>
     </row>
     <row r="726" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A726" s="49" t="s">
+      <c r="A726" s="55" t="s">
         <v>299</v>
       </c>
       <c r="B726" s="3" t="s">
@@ -14142,7 +14142,7 @@
       </c>
     </row>
     <row r="727" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A727" s="47" t="s">
+      <c r="A727" s="51" t="s">
         <v>312</v>
       </c>
       <c r="B727" s="3" t="s">
@@ -14159,7 +14159,7 @@
       </c>
     </row>
     <row r="728" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A728" s="48" t="s">
+      <c r="A728" s="52" t="s">
         <v>300</v>
       </c>
       <c r="B728" s="3" t="s">
@@ -14176,7 +14176,7 @@
       </c>
     </row>
     <row r="729" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A729" s="49" t="s">
+      <c r="A729" s="55" t="s">
         <v>300</v>
       </c>
       <c r="B729" s="3" t="s">
@@ -14193,7 +14193,7 @@
       </c>
     </row>
     <row r="730" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A730" s="47" t="s">
+      <c r="A730" s="51" t="s">
         <v>313</v>
       </c>
       <c r="B730" s="3" t="s">
@@ -14210,7 +14210,7 @@
       </c>
     </row>
     <row r="731" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A731" s="48" t="s">
+      <c r="A731" s="52" t="s">
         <v>301</v>
       </c>
       <c r="B731" s="3" t="s">
@@ -14227,7 +14227,7 @@
       </c>
     </row>
     <row r="732" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A732" s="49" t="s">
+      <c r="A732" s="55" t="s">
         <v>301</v>
       </c>
       <c r="B732" s="3" t="s">
@@ -14244,7 +14244,7 @@
       </c>
     </row>
     <row r="733" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A733" s="47" t="s">
+      <c r="A733" s="51" t="s">
         <v>314</v>
       </c>
       <c r="B733" s="3" t="s">
@@ -14261,7 +14261,7 @@
       </c>
     </row>
     <row r="734" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A734" s="48" t="s">
+      <c r="A734" s="52" t="s">
         <v>302</v>
       </c>
       <c r="B734" s="3" t="s">
@@ -14278,7 +14278,7 @@
       </c>
     </row>
     <row r="735" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A735" s="49" t="s">
+      <c r="A735" s="55" t="s">
         <v>302</v>
       </c>
       <c r="B735" s="3" t="s">
@@ -14295,7 +14295,7 @@
       </c>
     </row>
     <row r="736" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A736" s="47" t="s">
+      <c r="A736" s="51" t="s">
         <v>315</v>
       </c>
       <c r="B736" s="3" t="s">
@@ -14312,7 +14312,7 @@
       </c>
     </row>
     <row r="737" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A737" s="48" t="s">
+      <c r="A737" s="52" t="s">
         <v>303</v>
       </c>
       <c r="B737" s="3" t="s">
@@ -14329,7 +14329,7 @@
       </c>
     </row>
     <row r="738" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A738" s="49" t="s">
+      <c r="A738" s="55" t="s">
         <v>303</v>
       </c>
       <c r="B738" s="3" t="s">
@@ -14346,7 +14346,7 @@
       </c>
     </row>
     <row r="739" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A739" s="47" t="s">
+      <c r="A739" s="51" t="s">
         <v>318</v>
       </c>
       <c r="B739" s="3" t="s">
@@ -14363,7 +14363,7 @@
       </c>
     </row>
     <row r="740" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A740" s="48" t="s">
+      <c r="A740" s="52" t="s">
         <v>316</v>
       </c>
       <c r="B740" s="3" t="s">
@@ -14380,7 +14380,7 @@
       </c>
     </row>
     <row r="741" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A741" s="49" t="s">
+      <c r="A741" s="55" t="s">
         <v>316</v>
       </c>
       <c r="B741" s="3" t="s">
@@ -14397,7 +14397,7 @@
       </c>
     </row>
     <row r="742" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A742" s="47" t="s">
+      <c r="A742" s="51" t="s">
         <v>319</v>
       </c>
       <c r="B742" s="3" t="s">
@@ -14414,7 +14414,7 @@
       </c>
     </row>
     <row r="743" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A743" s="48" t="s">
+      <c r="A743" s="52" t="s">
         <v>317</v>
       </c>
       <c r="B743" s="3" t="s">
@@ -14431,7 +14431,7 @@
       </c>
     </row>
     <row r="744" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A744" s="49" t="s">
+      <c r="A744" s="55" t="s">
         <v>317</v>
       </c>
       <c r="B744" s="3" t="s">
@@ -14448,7 +14448,7 @@
       </c>
     </row>
     <row r="745" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A745" s="47" t="s">
+      <c r="A745" s="51" t="s">
         <v>321</v>
       </c>
       <c r="B745" s="3" t="s">
@@ -14465,7 +14465,7 @@
       </c>
     </row>
     <row r="746" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A746" s="48" t="s">
+      <c r="A746" s="52" t="s">
         <v>321</v>
       </c>
       <c r="B746" s="3" t="s">
@@ -14482,7 +14482,7 @@
       </c>
     </row>
     <row r="747" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A747" s="48" t="s">
+      <c r="A747" s="52" t="s">
         <v>321</v>
       </c>
       <c r="B747" s="3" t="s">
@@ -14499,7 +14499,7 @@
       </c>
     </row>
     <row r="748" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A748" s="49" t="s">
+      <c r="A748" s="55" t="s">
         <v>321</v>
       </c>
       <c r="B748" s="3" t="s">
@@ -14516,7 +14516,7 @@
       </c>
     </row>
     <row r="749" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A749" s="47" t="s">
+      <c r="A749" s="51" t="s">
         <v>323</v>
       </c>
       <c r="B749" s="3" t="s">
@@ -14533,7 +14533,7 @@
       </c>
     </row>
     <row r="750" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A750" s="48" t="s">
+      <c r="A750" s="52" t="s">
         <v>323</v>
       </c>
       <c r="B750" s="3" t="s">
@@ -14550,7 +14550,7 @@
       </c>
     </row>
     <row r="751" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A751" s="48" t="s">
+      <c r="A751" s="52" t="s">
         <v>323</v>
       </c>
       <c r="B751" s="3" t="s">
@@ -14567,7 +14567,7 @@
       </c>
     </row>
     <row r="752" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A752" s="49" t="s">
+      <c r="A752" s="55" t="s">
         <v>323</v>
       </c>
       <c r="B752" s="3" t="s">
@@ -14584,7 +14584,7 @@
       </c>
     </row>
     <row r="753" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A753" s="47" t="s">
+      <c r="A753" s="51" t="s">
         <v>324</v>
       </c>
       <c r="B753" s="3" t="s">
@@ -14601,7 +14601,7 @@
       </c>
     </row>
     <row r="754" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A754" s="48" t="s">
+      <c r="A754" s="52" t="s">
         <v>324</v>
       </c>
       <c r="B754" s="3" t="s">
@@ -14618,7 +14618,7 @@
       </c>
     </row>
     <row r="755" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A755" s="48" t="s">
+      <c r="A755" s="52" t="s">
         <v>324</v>
       </c>
       <c r="B755" s="3" t="s">
@@ -14635,7 +14635,7 @@
       </c>
     </row>
     <row r="756" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A756" s="49" t="s">
+      <c r="A756" s="55" t="s">
         <v>324</v>
       </c>
       <c r="B756" s="3" t="s">
@@ -14652,7 +14652,7 @@
       </c>
     </row>
     <row r="757" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A757" s="47" t="s">
+      <c r="A757" s="51" t="s">
         <v>325</v>
       </c>
       <c r="B757" s="3" t="s">
@@ -14669,7 +14669,7 @@
       </c>
     </row>
     <row r="758" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A758" s="48" t="s">
+      <c r="A758" s="52" t="s">
         <v>325</v>
       </c>
       <c r="B758" s="3" t="s">
@@ -14686,7 +14686,7 @@
       </c>
     </row>
     <row r="759" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A759" s="48" t="s">
+      <c r="A759" s="52" t="s">
         <v>325</v>
       </c>
       <c r="B759" s="3" t="s">
@@ -14703,7 +14703,7 @@
       </c>
     </row>
     <row r="760" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A760" s="49" t="s">
+      <c r="A760" s="55" t="s">
         <v>325</v>
       </c>
       <c r="B760" s="3" t="s">
@@ -14720,7 +14720,7 @@
       </c>
     </row>
     <row r="761" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A761" s="47" t="s">
+      <c r="A761" s="51" t="s">
         <v>326</v>
       </c>
       <c r="B761" s="3" t="s">
@@ -14737,7 +14737,7 @@
       </c>
     </row>
     <row r="762" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A762" s="48" t="s">
+      <c r="A762" s="52" t="s">
         <v>326</v>
       </c>
       <c r="B762" s="3" t="s">
@@ -14754,7 +14754,7 @@
       </c>
     </row>
     <row r="763" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A763" s="48" t="s">
+      <c r="A763" s="52" t="s">
         <v>326</v>
       </c>
       <c r="B763" s="3" t="s">
@@ -14771,7 +14771,7 @@
       </c>
     </row>
     <row r="764" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A764" s="49" t="s">
+      <c r="A764" s="55" t="s">
         <v>326</v>
       </c>
       <c r="B764" s="3" t="s">
@@ -14788,7 +14788,7 @@
       </c>
     </row>
     <row r="765" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A765" s="47" t="s">
+      <c r="A765" s="51" t="s">
         <v>327</v>
       </c>
       <c r="B765" s="3" t="s">
@@ -14805,7 +14805,7 @@
       </c>
     </row>
     <row r="766" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A766" s="48" t="s">
+      <c r="A766" s="52" t="s">
         <v>327</v>
       </c>
       <c r="B766" s="3" t="s">
@@ -14822,7 +14822,7 @@
       </c>
     </row>
     <row r="767" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A767" s="48" t="s">
+      <c r="A767" s="52" t="s">
         <v>327</v>
       </c>
       <c r="B767" s="3" t="s">
@@ -14839,7 +14839,7 @@
       </c>
     </row>
     <row r="768" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A768" s="49" t="s">
+      <c r="A768" s="55" t="s">
         <v>327</v>
       </c>
       <c r="B768" s="3" t="s">
@@ -14856,7 +14856,7 @@
       </c>
     </row>
     <row r="769" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A769" s="47" t="s">
+      <c r="A769" s="51" t="s">
         <v>328</v>
       </c>
       <c r="B769" s="3" t="s">
@@ -14873,7 +14873,7 @@
       </c>
     </row>
     <row r="770" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A770" s="48" t="s">
+      <c r="A770" s="52" t="s">
         <v>328</v>
       </c>
       <c r="B770" s="3" t="s">
@@ -14890,7 +14890,7 @@
       </c>
     </row>
     <row r="771" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A771" s="48" t="s">
+      <c r="A771" s="52" t="s">
         <v>328</v>
       </c>
       <c r="B771" s="3" t="s">
@@ -14907,7 +14907,7 @@
       </c>
     </row>
     <row r="772" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A772" s="49" t="s">
+      <c r="A772" s="55" t="s">
         <v>328</v>
       </c>
       <c r="B772" s="3" t="s">
@@ -14924,7 +14924,7 @@
       </c>
     </row>
     <row r="773" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A773" s="47" t="s">
+      <c r="A773" s="51" t="s">
         <v>329</v>
       </c>
       <c r="B773" s="3" t="s">
@@ -14941,7 +14941,7 @@
       </c>
     </row>
     <row r="774" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A774" s="48" t="s">
+      <c r="A774" s="52" t="s">
         <v>329</v>
       </c>
       <c r="B774" s="3" t="s">
@@ -14958,7 +14958,7 @@
       </c>
     </row>
     <row r="775" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A775" s="48" t="s">
+      <c r="A775" s="52" t="s">
         <v>329</v>
       </c>
       <c r="B775" s="3" t="s">
@@ -14975,7 +14975,7 @@
       </c>
     </row>
     <row r="776" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A776" s="49" t="s">
+      <c r="A776" s="55" t="s">
         <v>329</v>
       </c>
       <c r="B776" s="3" t="s">
@@ -14992,7 +14992,7 @@
       </c>
     </row>
     <row r="777" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A777" s="47" t="s">
+      <c r="A777" s="51" t="s">
         <v>330</v>
       </c>
       <c r="B777" s="3" t="s">
@@ -15009,7 +15009,7 @@
       </c>
     </row>
     <row r="778" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A778" s="48" t="s">
+      <c r="A778" s="52" t="s">
         <v>330</v>
       </c>
       <c r="B778" s="3" t="s">
@@ -15026,7 +15026,7 @@
       </c>
     </row>
     <row r="779" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A779" s="48" t="s">
+      <c r="A779" s="52" t="s">
         <v>330</v>
       </c>
       <c r="B779" s="3" t="s">
@@ -15043,7 +15043,7 @@
       </c>
     </row>
     <row r="780" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A780" s="49" t="s">
+      <c r="A780" s="55" t="s">
         <v>330</v>
       </c>
       <c r="B780" s="3" t="s">
@@ -15060,7 +15060,7 @@
       </c>
     </row>
     <row r="781" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A781" s="47" t="s">
+      <c r="A781" s="51" t="s">
         <v>331</v>
       </c>
       <c r="B781" s="3" t="s">
@@ -15077,7 +15077,7 @@
       </c>
     </row>
     <row r="782" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A782" s="48" t="s">
+      <c r="A782" s="52" t="s">
         <v>331</v>
       </c>
       <c r="B782" s="3" t="s">
@@ -15094,7 +15094,7 @@
       </c>
     </row>
     <row r="783" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A783" s="48" t="s">
+      <c r="A783" s="52" t="s">
         <v>331</v>
       </c>
       <c r="B783" s="3" t="s">
@@ -15111,7 +15111,7 @@
       </c>
     </row>
     <row r="784" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A784" s="49" t="s">
+      <c r="A784" s="55" t="s">
         <v>331</v>
       </c>
       <c r="B784" s="3" t="s">
@@ -15128,7 +15128,7 @@
       </c>
     </row>
     <row r="785" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A785" s="47" t="s">
+      <c r="A785" s="51" t="s">
         <v>332</v>
       </c>
       <c r="B785" s="3" t="s">
@@ -15145,7 +15145,7 @@
       </c>
     </row>
     <row r="786" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A786" s="48" t="s">
+      <c r="A786" s="52" t="s">
         <v>332</v>
       </c>
       <c r="B786" s="3" t="s">
@@ -15162,7 +15162,7 @@
       </c>
     </row>
     <row r="787" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A787" s="48" t="s">
+      <c r="A787" s="52" t="s">
         <v>332</v>
       </c>
       <c r="B787" s="3" t="s">
@@ -15179,7 +15179,7 @@
       </c>
     </row>
     <row r="788" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A788" s="49" t="s">
+      <c r="A788" s="55" t="s">
         <v>332</v>
       </c>
       <c r="B788" s="3" t="s">
@@ -15196,7 +15196,7 @@
       </c>
     </row>
     <row r="789" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A789" s="47" t="s">
+      <c r="A789" s="51" t="s">
         <v>333</v>
       </c>
       <c r="B789" s="3" t="s">
@@ -15213,7 +15213,7 @@
       </c>
     </row>
     <row r="790" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A790" s="48" t="s">
+      <c r="A790" s="52" t="s">
         <v>333</v>
       </c>
       <c r="B790" s="3" t="s">
@@ -15230,7 +15230,7 @@
       </c>
     </row>
     <row r="791" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A791" s="48" t="s">
+      <c r="A791" s="52" t="s">
         <v>333</v>
       </c>
       <c r="B791" s="3" t="s">
@@ -15247,7 +15247,7 @@
       </c>
     </row>
     <row r="792" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A792" s="49" t="s">
+      <c r="A792" s="55" t="s">
         <v>333</v>
       </c>
       <c r="B792" s="3" t="s">
@@ -15264,7 +15264,7 @@
       </c>
     </row>
     <row r="793" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A793" s="47" t="s">
+      <c r="A793" s="51" t="s">
         <v>334</v>
       </c>
       <c r="B793" s="3" t="s">
@@ -15281,7 +15281,7 @@
       </c>
     </row>
     <row r="794" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A794" s="48" t="s">
+      <c r="A794" s="52" t="s">
         <v>334</v>
       </c>
       <c r="B794" s="3" t="s">
@@ -15298,7 +15298,7 @@
       </c>
     </row>
     <row r="795" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A795" s="48" t="s">
+      <c r="A795" s="52" t="s">
         <v>334</v>
       </c>
       <c r="B795" s="3" t="s">
@@ -15315,7 +15315,7 @@
       </c>
     </row>
     <row r="796" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A796" s="49" t="s">
+      <c r="A796" s="55" t="s">
         <v>334</v>
       </c>
       <c r="B796" s="3" t="s">
@@ -15332,7 +15332,7 @@
       </c>
     </row>
     <row r="797" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A797" s="47" t="s">
+      <c r="A797" s="51" t="s">
         <v>335</v>
       </c>
       <c r="B797" s="3" t="s">
@@ -15349,7 +15349,7 @@
       </c>
     </row>
     <row r="798" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A798" s="48" t="s">
+      <c r="A798" s="52" t="s">
         <v>335</v>
       </c>
       <c r="B798" s="3" t="s">
@@ -15366,7 +15366,7 @@
       </c>
     </row>
     <row r="799" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A799" s="48" t="s">
+      <c r="A799" s="52" t="s">
         <v>335</v>
       </c>
       <c r="B799" s="3" t="s">
@@ -15383,7 +15383,7 @@
       </c>
     </row>
     <row r="800" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A800" s="49" t="s">
+      <c r="A800" s="55" t="s">
         <v>335</v>
       </c>
       <c r="B800" s="3" t="s">
@@ -15400,7 +15400,7 @@
       </c>
     </row>
     <row r="801" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A801" s="47" t="s">
+      <c r="A801" s="51" t="s">
         <v>336</v>
       </c>
       <c r="B801" s="3" t="s">
@@ -15417,7 +15417,7 @@
       </c>
     </row>
     <row r="802" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A802" s="48" t="s">
+      <c r="A802" s="52" t="s">
         <v>336</v>
       </c>
       <c r="B802" s="3" t="s">
@@ -15434,7 +15434,7 @@
       </c>
     </row>
     <row r="803" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A803" s="47" t="s">
+      <c r="A803" s="51" t="s">
         <v>338</v>
       </c>
       <c r="B803" s="3" t="s">
@@ -15451,7 +15451,7 @@
       </c>
     </row>
     <row r="804" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A804" s="48" t="s">
+      <c r="A804" s="52" t="s">
         <v>338</v>
       </c>
       <c r="B804" s="3" t="s">
@@ -15468,7 +15468,7 @@
       </c>
     </row>
     <row r="805" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A805" s="47" t="s">
+      <c r="A805" s="51" t="s">
         <v>339</v>
       </c>
       <c r="B805" s="3" t="s">
@@ -15485,7 +15485,7 @@
       </c>
     </row>
     <row r="806" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A806" s="48" t="s">
+      <c r="A806" s="52" t="s">
         <v>339</v>
       </c>
       <c r="B806" s="3" t="s">
@@ -15502,7 +15502,7 @@
       </c>
     </row>
     <row r="807" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A807" s="47" t="s">
+      <c r="A807" s="51" t="s">
         <v>340</v>
       </c>
       <c r="B807" s="3" t="s">
@@ -15519,7 +15519,7 @@
       </c>
     </row>
     <row r="808" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A808" s="48" t="s">
+      <c r="A808" s="52" t="s">
         <v>340</v>
       </c>
       <c r="B808" s="3" t="s">
@@ -15536,7 +15536,7 @@
       </c>
     </row>
     <row r="809" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A809" s="47" t="s">
+      <c r="A809" s="51" t="s">
         <v>341</v>
       </c>
       <c r="B809" s="3" t="s">
@@ -15553,7 +15553,7 @@
       </c>
     </row>
     <row r="810" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A810" s="48" t="s">
+      <c r="A810" s="52" t="s">
         <v>341</v>
       </c>
       <c r="B810" s="3" t="s">
@@ -15570,7 +15570,7 @@
       </c>
     </row>
     <row r="811" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A811" s="47" t="s">
+      <c r="A811" s="51" t="s">
         <v>342</v>
       </c>
       <c r="B811" s="3" t="s">
@@ -15587,7 +15587,7 @@
       </c>
     </row>
     <row r="812" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A812" s="48" t="s">
+      <c r="A812" s="52" t="s">
         <v>342</v>
       </c>
       <c r="B812" s="3" t="s">
@@ -15604,7 +15604,7 @@
       </c>
     </row>
     <row r="813" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A813" s="47" t="s">
+      <c r="A813" s="51" t="s">
         <v>343</v>
       </c>
       <c r="B813" s="3" t="s">
@@ -15621,7 +15621,7 @@
       </c>
     </row>
     <row r="814" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A814" s="48" t="s">
+      <c r="A814" s="52" t="s">
         <v>343</v>
       </c>
       <c r="B814" s="3" t="s">
@@ -15638,7 +15638,7 @@
       </c>
     </row>
     <row r="815" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A815" s="47" t="s">
+      <c r="A815" s="51" t="s">
         <v>344</v>
       </c>
       <c r="B815" s="3" t="s">
@@ -15655,7 +15655,7 @@
       </c>
     </row>
     <row r="816" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A816" s="48" t="s">
+      <c r="A816" s="52" t="s">
         <v>344</v>
       </c>
       <c r="B816" s="3" t="s">
@@ -15672,7 +15672,7 @@
       </c>
     </row>
     <row r="817" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A817" s="47" t="s">
+      <c r="A817" s="51" t="s">
         <v>345</v>
       </c>
       <c r="B817" s="3" t="s">
@@ -15689,7 +15689,7 @@
       </c>
     </row>
     <row r="818" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A818" s="48" t="s">
+      <c r="A818" s="52" t="s">
         <v>345</v>
       </c>
       <c r="B818" s="3" t="s">
@@ -15706,7 +15706,7 @@
       </c>
     </row>
     <row r="819" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A819" s="47" t="s">
+      <c r="A819" s="51" t="s">
         <v>346</v>
       </c>
       <c r="B819" s="3" t="s">
@@ -15723,7 +15723,7 @@
       </c>
     </row>
     <row r="820" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A820" s="48" t="s">
+      <c r="A820" s="52" t="s">
         <v>346</v>
       </c>
       <c r="B820" s="3" t="s">
@@ -15740,7 +15740,7 @@
       </c>
     </row>
     <row r="821" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A821" s="47" t="s">
+      <c r="A821" s="51" t="s">
         <v>347</v>
       </c>
       <c r="B821" s="3" t="s">
@@ -15757,7 +15757,7 @@
       </c>
     </row>
     <row r="822" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A822" s="48" t="s">
+      <c r="A822" s="52" t="s">
         <v>347</v>
       </c>
       <c r="B822" s="3" t="s">
@@ -15774,7 +15774,7 @@
       </c>
     </row>
     <row r="823" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A823" s="47" t="s">
+      <c r="A823" s="51" t="s">
         <v>348</v>
       </c>
       <c r="B823" s="3" t="s">
@@ -15791,7 +15791,7 @@
       </c>
     </row>
     <row r="824" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A824" s="48" t="s">
+      <c r="A824" s="52" t="s">
         <v>348</v>
       </c>
       <c r="B824" s="3" t="s">
@@ -15808,7 +15808,7 @@
       </c>
     </row>
     <row r="825" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A825" s="47" t="s">
+      <c r="A825" s="51" t="s">
         <v>349</v>
       </c>
       <c r="B825" s="3" t="s">
@@ -15825,7 +15825,7 @@
       </c>
     </row>
     <row r="826" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A826" s="48" t="s">
+      <c r="A826" s="52" t="s">
         <v>349</v>
       </c>
       <c r="B826" s="3" t="s">
@@ -15842,7 +15842,7 @@
       </c>
     </row>
     <row r="827" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A827" s="47" t="s">
+      <c r="A827" s="51" t="s">
         <v>350</v>
       </c>
       <c r="B827" s="3" t="s">
@@ -15859,7 +15859,7 @@
       </c>
     </row>
     <row r="828" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A828" s="48" t="s">
+      <c r="A828" s="52" t="s">
         <v>350</v>
       </c>
       <c r="B828" s="3" t="s">
@@ -15876,7 +15876,7 @@
       </c>
     </row>
     <row r="829" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A829" s="47" t="s">
+      <c r="A829" s="51" t="s">
         <v>351</v>
       </c>
       <c r="B829" s="3" t="s">
@@ -15893,7 +15893,7 @@
       </c>
     </row>
     <row r="830" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A830" s="48" t="s">
+      <c r="A830" s="52" t="s">
         <v>351</v>
       </c>
       <c r="B830" s="3" t="s">
@@ -15910,7 +15910,7 @@
       </c>
     </row>
     <row r="831" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A831" s="48" t="s">
+      <c r="A831" s="52" t="s">
         <v>351</v>
       </c>
       <c r="B831" s="3" t="s">
@@ -15927,7 +15927,7 @@
       </c>
     </row>
     <row r="832" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A832" s="49" t="s">
+      <c r="A832" s="55" t="s">
         <v>351</v>
       </c>
       <c r="B832" s="3" t="s">
@@ -15944,7 +15944,7 @@
       </c>
     </row>
     <row r="833" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A833" s="47" t="s">
+      <c r="A833" s="51" t="s">
         <v>355</v>
       </c>
       <c r="B833" s="3" t="s">
@@ -15961,7 +15961,7 @@
       </c>
     </row>
     <row r="834" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A834" s="48" t="s">
+      <c r="A834" s="52" t="s">
         <v>355</v>
       </c>
       <c r="B834" s="3" t="s">
@@ -15978,7 +15978,7 @@
       </c>
     </row>
     <row r="835" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A835" s="48" t="s">
+      <c r="A835" s="52" t="s">
         <v>355</v>
       </c>
       <c r="B835" s="3" t="s">
@@ -15995,7 +15995,7 @@
       </c>
     </row>
     <row r="836" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A836" s="49" t="s">
+      <c r="A836" s="55" t="s">
         <v>355</v>
       </c>
       <c r="B836" s="3" t="s">
@@ -16012,7 +16012,7 @@
       </c>
     </row>
     <row r="837" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A837" s="47" t="s">
+      <c r="A837" s="51" t="s">
         <v>356</v>
       </c>
       <c r="B837" s="3" t="s">
@@ -16029,7 +16029,7 @@
       </c>
     </row>
     <row r="838" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A838" s="48" t="s">
+      <c r="A838" s="52" t="s">
         <v>356</v>
       </c>
       <c r="B838" s="3" t="s">
@@ -16046,7 +16046,7 @@
       </c>
     </row>
     <row r="839" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A839" s="48" t="s">
+      <c r="A839" s="52" t="s">
         <v>356</v>
       </c>
       <c r="B839" s="3" t="s">
@@ -16063,7 +16063,7 @@
       </c>
     </row>
     <row r="840" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A840" s="49" t="s">
+      <c r="A840" s="55" t="s">
         <v>356</v>
       </c>
       <c r="B840" s="3" t="s">
@@ -16080,7 +16080,7 @@
       </c>
     </row>
     <row r="841" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A841" s="47" t="s">
+      <c r="A841" s="51" t="s">
         <v>357</v>
       </c>
       <c r="B841" s="3" t="s">
@@ -16097,7 +16097,7 @@
       </c>
     </row>
     <row r="842" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A842" s="48" t="s">
+      <c r="A842" s="52" t="s">
         <v>357</v>
       </c>
       <c r="B842" s="3" t="s">
@@ -16114,7 +16114,7 @@
       </c>
     </row>
     <row r="843" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A843" s="48" t="s">
+      <c r="A843" s="52" t="s">
         <v>357</v>
       </c>
       <c r="B843" s="3" t="s">
@@ -16131,7 +16131,7 @@
       </c>
     </row>
     <row r="844" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A844" s="49" t="s">
+      <c r="A844" s="55" t="s">
         <v>357</v>
       </c>
       <c r="B844" s="3" t="s">
@@ -16148,7 +16148,7 @@
       </c>
     </row>
     <row r="845" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A845" s="47" t="s">
+      <c r="A845" s="51" t="s">
         <v>358</v>
       </c>
       <c r="B845" s="3" t="s">
@@ -16165,7 +16165,7 @@
       </c>
     </row>
     <row r="846" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A846" s="48" t="s">
+      <c r="A846" s="52" t="s">
         <v>358</v>
       </c>
       <c r="B846" s="3" t="s">
@@ -16182,7 +16182,7 @@
       </c>
     </row>
     <row r="847" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A847" s="48" t="s">
+      <c r="A847" s="52" t="s">
         <v>358</v>
       </c>
       <c r="B847" s="3" t="s">
@@ -16199,7 +16199,7 @@
       </c>
     </row>
     <row r="848" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A848" s="49" t="s">
+      <c r="A848" s="55" t="s">
         <v>358</v>
       </c>
       <c r="B848" s="3" t="s">
@@ -16216,7 +16216,7 @@
       </c>
     </row>
     <row r="849" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A849" s="47" t="s">
+      <c r="A849" s="51" t="s">
         <v>359</v>
       </c>
       <c r="B849" s="3" t="s">
@@ -16233,7 +16233,7 @@
       </c>
     </row>
     <row r="850" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A850" s="48" t="s">
+      <c r="A850" s="52" t="s">
         <v>359</v>
       </c>
       <c r="B850" s="3" t="s">
@@ -16250,7 +16250,7 @@
       </c>
     </row>
     <row r="851" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A851" s="48" t="s">
+      <c r="A851" s="52" t="s">
         <v>359</v>
       </c>
       <c r="B851" s="3" t="s">
@@ -16267,7 +16267,7 @@
       </c>
     </row>
     <row r="852" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A852" s="49" t="s">
+      <c r="A852" s="55" t="s">
         <v>359</v>
       </c>
       <c r="B852" s="3" t="s">
@@ -16284,7 +16284,7 @@
       </c>
     </row>
     <row r="853" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A853" s="47" t="s">
+      <c r="A853" s="51" t="s">
         <v>360</v>
       </c>
       <c r="B853" s="3" t="s">
@@ -16301,7 +16301,7 @@
       </c>
     </row>
     <row r="854" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A854" s="48" t="s">
+      <c r="A854" s="52" t="s">
         <v>360</v>
       </c>
       <c r="B854" s="3" t="s">
@@ -16318,7 +16318,7 @@
       </c>
     </row>
     <row r="855" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A855" s="48" t="s">
+      <c r="A855" s="52" t="s">
         <v>360</v>
       </c>
       <c r="B855" s="3" t="s">
@@ -16335,7 +16335,7 @@
       </c>
     </row>
     <row r="856" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A856" s="49" t="s">
+      <c r="A856" s="55" t="s">
         <v>360</v>
       </c>
       <c r="B856" s="3" t="s">
@@ -16352,7 +16352,7 @@
       </c>
     </row>
     <row r="857" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A857" s="47" t="s">
+      <c r="A857" s="51" t="s">
         <v>361</v>
       </c>
       <c r="B857" s="3" t="s">
@@ -16369,7 +16369,7 @@
       </c>
     </row>
     <row r="858" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A858" s="48" t="s">
+      <c r="A858" s="52" t="s">
         <v>361</v>
       </c>
       <c r="B858" s="3" t="s">
@@ -16386,7 +16386,7 @@
       </c>
     </row>
     <row r="859" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A859" s="48" t="s">
+      <c r="A859" s="52" t="s">
         <v>361</v>
       </c>
       <c r="B859" s="3" t="s">
@@ -16403,7 +16403,7 @@
       </c>
     </row>
     <row r="860" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A860" s="49" t="s">
+      <c r="A860" s="55" t="s">
         <v>361</v>
       </c>
       <c r="B860" s="3" t="s">
@@ -16420,7 +16420,7 @@
       </c>
     </row>
     <row r="861" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A861" s="47" t="s">
+      <c r="A861" s="51" t="s">
         <v>362</v>
       </c>
       <c r="B861" s="3" t="s">
@@ -16437,7 +16437,7 @@
       </c>
     </row>
     <row r="862" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A862" s="48" t="s">
+      <c r="A862" s="52" t="s">
         <v>362</v>
       </c>
       <c r="B862" s="3" t="s">
@@ -16454,7 +16454,7 @@
       </c>
     </row>
     <row r="863" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A863" s="48" t="s">
+      <c r="A863" s="52" t="s">
         <v>362</v>
       </c>
       <c r="B863" s="3" t="s">
@@ -16471,7 +16471,7 @@
       </c>
     </row>
     <row r="864" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A864" s="49" t="s">
+      <c r="A864" s="55" t="s">
         <v>362</v>
       </c>
       <c r="B864" s="3" t="s">
@@ -16488,7 +16488,7 @@
       </c>
     </row>
     <row r="865" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A865" s="47" t="s">
+      <c r="A865" s="51" t="s">
         <v>363</v>
       </c>
       <c r="B865" s="3" t="s">
@@ -16505,7 +16505,7 @@
       </c>
     </row>
     <row r="866" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A866" s="48" t="s">
+      <c r="A866" s="52" t="s">
         <v>363</v>
       </c>
       <c r="B866" s="3" t="s">
@@ -16522,7 +16522,7 @@
       </c>
     </row>
     <row r="867" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A867" s="48" t="s">
+      <c r="A867" s="52" t="s">
         <v>363</v>
       </c>
       <c r="B867" s="3" t="s">
@@ -16539,7 +16539,7 @@
       </c>
     </row>
     <row r="868" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A868" s="49" t="s">
+      <c r="A868" s="55" t="s">
         <v>363</v>
       </c>
       <c r="B868" s="3" t="s">
@@ -16556,7 +16556,7 @@
       </c>
     </row>
     <row r="869" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A869" s="47" t="s">
+      <c r="A869" s="51" t="s">
         <v>364</v>
       </c>
       <c r="B869" s="3" t="s">
@@ -16573,7 +16573,7 @@
       </c>
     </row>
     <row r="870" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A870" s="48" t="s">
+      <c r="A870" s="52" t="s">
         <v>364</v>
       </c>
       <c r="B870" s="3" t="s">
@@ -16590,7 +16590,7 @@
       </c>
     </row>
     <row r="871" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A871" s="48" t="s">
+      <c r="A871" s="52" t="s">
         <v>364</v>
       </c>
       <c r="B871" s="3" t="s">
@@ -16607,7 +16607,7 @@
       </c>
     </row>
     <row r="872" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A872" s="49" t="s">
+      <c r="A872" s="55" t="s">
         <v>364</v>
       </c>
       <c r="B872" s="3" t="s">
@@ -16624,7 +16624,7 @@
       </c>
     </row>
     <row r="873" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A873" s="47" t="s">
+      <c r="A873" s="51" t="s">
         <v>365</v>
       </c>
       <c r="B873" s="3" t="s">
@@ -16641,7 +16641,7 @@
       </c>
     </row>
     <row r="874" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A874" s="48" t="s">
+      <c r="A874" s="52" t="s">
         <v>365</v>
       </c>
       <c r="B874" s="3" t="s">
@@ -16658,7 +16658,7 @@
       </c>
     </row>
     <row r="875" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A875" s="48" t="s">
+      <c r="A875" s="52" t="s">
         <v>365</v>
       </c>
       <c r="B875" s="3" t="s">
@@ -16675,7 +16675,7 @@
       </c>
     </row>
     <row r="876" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A876" s="49" t="s">
+      <c r="A876" s="55" t="s">
         <v>365</v>
       </c>
       <c r="B876" s="3" t="s">
@@ -16692,7 +16692,7 @@
       </c>
     </row>
     <row r="877" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A877" s="47" t="s">
+      <c r="A877" s="51" t="s">
         <v>366</v>
       </c>
       <c r="B877" s="3" t="s">
@@ -16709,7 +16709,7 @@
       </c>
     </row>
     <row r="878" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A878" s="48" t="s">
+      <c r="A878" s="52" t="s">
         <v>366</v>
       </c>
       <c r="B878" s="3" t="s">
@@ -16726,7 +16726,7 @@
       </c>
     </row>
     <row r="879" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A879" s="48" t="s">
+      <c r="A879" s="52" t="s">
         <v>366</v>
       </c>
       <c r="B879" s="3" t="s">
@@ -16743,7 +16743,7 @@
       </c>
     </row>
     <row r="880" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A880" s="49" t="s">
+      <c r="A880" s="55" t="s">
         <v>366</v>
       </c>
       <c r="B880" s="3" t="s">
@@ -16760,7 +16760,7 @@
       </c>
     </row>
     <row r="881" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A881" s="47" t="s">
+      <c r="A881" s="51" t="s">
         <v>367</v>
       </c>
       <c r="B881" s="3" t="s">
@@ -16777,7 +16777,7 @@
       </c>
     </row>
     <row r="882" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A882" s="48" t="s">
+      <c r="A882" s="52" t="s">
         <v>367</v>
       </c>
       <c r="B882" s="3" t="s">
@@ -16794,7 +16794,7 @@
       </c>
     </row>
     <row r="883" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A883" s="48" t="s">
+      <c r="A883" s="52" t="s">
         <v>367</v>
       </c>
       <c r="B883" s="3" t="s">
@@ -16811,7 +16811,7 @@
       </c>
     </row>
     <row r="884" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A884" s="49" t="s">
+      <c r="A884" s="55" t="s">
         <v>367</v>
       </c>
       <c r="B884" s="3" t="s">
@@ -16828,7 +16828,7 @@
       </c>
     </row>
     <row r="885" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A885" s="47" t="s">
+      <c r="A885" s="51" t="s">
         <v>18</v>
       </c>
       <c r="B885" s="3" t="s">
@@ -16845,7 +16845,7 @@
       </c>
     </row>
     <row r="886" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A886" s="48"/>
+      <c r="A886" s="52"/>
       <c r="B886" s="3" t="s">
         <v>14</v>
       </c>
@@ -16860,7 +16860,7 @@
       </c>
     </row>
     <row r="887" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A887" s="49"/>
+      <c r="A887" s="55"/>
       <c r="B887" s="3" t="s">
         <v>14</v>
       </c>
@@ -16875,7 +16875,7 @@
       </c>
     </row>
     <row r="888" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A888" s="47" t="s">
+      <c r="A888" s="51" t="s">
         <v>69</v>
       </c>
       <c r="B888" s="3" t="s">
@@ -16892,7 +16892,7 @@
       </c>
     </row>
     <row r="889" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A889" s="48"/>
+      <c r="A889" s="52"/>
       <c r="B889" s="3" t="s">
         <v>14</v>
       </c>
@@ -16907,7 +16907,7 @@
       </c>
     </row>
     <row r="890" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A890" s="49"/>
+      <c r="A890" s="55"/>
       <c r="B890" s="3" t="s">
         <v>14</v>
       </c>
@@ -16922,7 +16922,7 @@
       </c>
     </row>
     <row r="891" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A891" s="47" t="s">
+      <c r="A891" s="51" t="s">
         <v>70</v>
       </c>
       <c r="B891" s="3" t="s">
@@ -16939,7 +16939,7 @@
       </c>
     </row>
     <row r="892" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A892" s="48"/>
+      <c r="A892" s="52"/>
       <c r="B892" s="3" t="s">
         <v>14</v>
       </c>
@@ -16954,7 +16954,7 @@
       </c>
     </row>
     <row r="893" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A893" s="49"/>
+      <c r="A893" s="55"/>
       <c r="B893" s="3" t="s">
         <v>14</v>
       </c>
@@ -16969,7 +16969,7 @@
       </c>
     </row>
     <row r="894" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A894" s="47" t="s">
+      <c r="A894" s="51" t="s">
         <v>71</v>
       </c>
       <c r="B894" s="3" t="s">
@@ -16986,7 +16986,7 @@
       </c>
     </row>
     <row r="895" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A895" s="48"/>
+      <c r="A895" s="52"/>
       <c r="B895" s="3" t="s">
         <v>14</v>
       </c>
@@ -17001,7 +17001,7 @@
       </c>
     </row>
     <row r="896" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A896" s="49"/>
+      <c r="A896" s="55"/>
       <c r="B896" s="3" t="s">
         <v>14</v>
       </c>
@@ -17016,7 +17016,7 @@
       </c>
     </row>
     <row r="897" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A897" s="47" t="s">
+      <c r="A897" s="51" t="s">
         <v>72</v>
       </c>
       <c r="B897" s="3" t="s">
@@ -17033,7 +17033,7 @@
       </c>
     </row>
     <row r="898" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A898" s="48"/>
+      <c r="A898" s="52"/>
       <c r="B898" s="3" t="s">
         <v>14</v>
       </c>
@@ -17048,7 +17048,7 @@
       </c>
     </row>
     <row r="899" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A899" s="49"/>
+      <c r="A899" s="55"/>
       <c r="B899" s="3" t="s">
         <v>14</v>
       </c>
@@ -17063,7 +17063,7 @@
       </c>
     </row>
     <row r="900" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A900" s="47" t="s">
+      <c r="A900" s="51" t="s">
         <v>73</v>
       </c>
       <c r="B900" s="3" t="s">
@@ -17080,7 +17080,7 @@
       </c>
     </row>
     <row r="901" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A901" s="48"/>
+      <c r="A901" s="52"/>
       <c r="B901" s="3" t="s">
         <v>14</v>
       </c>
@@ -17095,7 +17095,7 @@
       </c>
     </row>
     <row r="902" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A902" s="49"/>
+      <c r="A902" s="55"/>
       <c r="B902" s="3" t="s">
         <v>14</v>
       </c>
@@ -17110,7 +17110,7 @@
       </c>
     </row>
     <row r="903" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A903" s="47" t="s">
+      <c r="A903" s="51" t="s">
         <v>74</v>
       </c>
       <c r="B903" s="3" t="s">
@@ -17127,7 +17127,7 @@
       </c>
     </row>
     <row r="904" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A904" s="48"/>
+      <c r="A904" s="52"/>
       <c r="B904" s="3" t="s">
         <v>14</v>
       </c>
@@ -17142,7 +17142,7 @@
       </c>
     </row>
     <row r="905" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A905" s="49"/>
+      <c r="A905" s="55"/>
       <c r="B905" s="3" t="s">
         <v>14</v>
       </c>
@@ -17157,7 +17157,7 @@
       </c>
     </row>
     <row r="906" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A906" s="47" t="s">
+      <c r="A906" s="51" t="s">
         <v>75</v>
       </c>
       <c r="B906" s="3" t="s">
@@ -17174,7 +17174,7 @@
       </c>
     </row>
     <row r="907" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A907" s="48"/>
+      <c r="A907" s="52"/>
       <c r="B907" s="3" t="s">
         <v>14</v>
       </c>
@@ -17189,7 +17189,7 @@
       </c>
     </row>
     <row r="908" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A908" s="49"/>
+      <c r="A908" s="55"/>
       <c r="B908" s="3" t="s">
         <v>14</v>
       </c>
@@ -17204,7 +17204,7 @@
       </c>
     </row>
     <row r="909" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A909" s="47" t="s">
+      <c r="A909" s="51" t="s">
         <v>76</v>
       </c>
       <c r="B909" s="3" t="s">
@@ -17221,7 +17221,7 @@
       </c>
     </row>
     <row r="910" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A910" s="48"/>
+      <c r="A910" s="52"/>
       <c r="B910" s="3" t="s">
         <v>14</v>
       </c>
@@ -17236,7 +17236,7 @@
       </c>
     </row>
     <row r="911" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A911" s="49"/>
+      <c r="A911" s="55"/>
       <c r="B911" s="3" t="s">
         <v>14</v>
       </c>
@@ -17251,7 +17251,7 @@
       </c>
     </row>
     <row r="912" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A912" s="47" t="s">
+      <c r="A912" s="51" t="s">
         <v>77</v>
       </c>
       <c r="B912" s="3" t="s">
@@ -17268,7 +17268,7 @@
       </c>
     </row>
     <row r="913" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A913" s="48"/>
+      <c r="A913" s="52"/>
       <c r="B913" s="3" t="s">
         <v>14</v>
       </c>
@@ -17283,7 +17283,7 @@
       </c>
     </row>
     <row r="914" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A914" s="49"/>
+      <c r="A914" s="55"/>
       <c r="B914" s="3" t="s">
         <v>14</v>
       </c>
@@ -17298,7 +17298,7 @@
       </c>
     </row>
     <row r="915" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A915" s="47" t="s">
+      <c r="A915" s="51" t="s">
         <v>78</v>
       </c>
       <c r="B915" s="3" t="s">
@@ -17315,7 +17315,7 @@
       </c>
     </row>
     <row r="916" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A916" s="48"/>
+      <c r="A916" s="52"/>
       <c r="B916" s="3" t="s">
         <v>14</v>
       </c>
@@ -17330,7 +17330,7 @@
       </c>
     </row>
     <row r="917" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A917" s="49"/>
+      <c r="A917" s="55"/>
       <c r="B917" s="3" t="s">
         <v>14</v>
       </c>
@@ -17345,7 +17345,7 @@
       </c>
     </row>
     <row r="918" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A918" s="47" t="s">
+      <c r="A918" s="51" t="s">
         <v>79</v>
       </c>
       <c r="B918" s="3" t="s">
@@ -17362,7 +17362,7 @@
       </c>
     </row>
     <row r="919" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A919" s="48"/>
+      <c r="A919" s="52"/>
       <c r="B919" s="3" t="s">
         <v>14</v>
       </c>
@@ -17377,7 +17377,7 @@
       </c>
     </row>
     <row r="920" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A920" s="49"/>
+      <c r="A920" s="55"/>
       <c r="B920" s="3" t="s">
         <v>14</v>
       </c>
@@ -17392,7 +17392,7 @@
       </c>
     </row>
     <row r="921" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A921" s="47" t="s">
+      <c r="A921" s="51" t="s">
         <v>80</v>
       </c>
       <c r="B921" s="3" t="s">
@@ -17409,7 +17409,7 @@
       </c>
     </row>
     <row r="922" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A922" s="48"/>
+      <c r="A922" s="52"/>
       <c r="B922" s="3" t="s">
         <v>14</v>
       </c>
@@ -17424,7 +17424,7 @@
       </c>
     </row>
     <row r="923" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A923" s="49"/>
+      <c r="A923" s="55"/>
       <c r="B923" s="3" t="s">
         <v>14</v>
       </c>
@@ -17439,7 +17439,7 @@
       </c>
     </row>
     <row r="924" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A924" s="47" t="s">
+      <c r="A924" s="51" t="s">
         <v>81</v>
       </c>
       <c r="B924" s="3" t="s">
@@ -17456,7 +17456,7 @@
       </c>
     </row>
     <row r="925" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A925" s="48"/>
+      <c r="A925" s="52"/>
       <c r="B925" s="3" t="s">
         <v>14</v>
       </c>
@@ -17471,7 +17471,7 @@
       </c>
     </row>
     <row r="926" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A926" s="49"/>
+      <c r="A926" s="55"/>
       <c r="B926" s="3" t="s">
         <v>14</v>
       </c>
@@ -17486,7 +17486,7 @@
       </c>
     </row>
     <row r="927" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A927" s="53" t="s">
+      <c r="A927" s="56" t="s">
         <v>9</v>
       </c>
       <c r="B927" s="3" t="s">
@@ -17503,7 +17503,7 @@
       </c>
     </row>
     <row r="928" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A928" s="48"/>
+      <c r="A928" s="52"/>
       <c r="B928" s="3" t="s">
         <v>11</v>
       </c>
@@ -17518,7 +17518,7 @@
       </c>
     </row>
     <row r="929" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A929" s="48"/>
+      <c r="A929" s="52"/>
       <c r="B929" s="3" t="s">
         <v>11</v>
       </c>
@@ -17533,7 +17533,7 @@
       </c>
     </row>
     <row r="930" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A930" s="49"/>
+      <c r="A930" s="55"/>
       <c r="B930" s="40" t="s">
         <v>11</v>
       </c>
@@ -17548,7 +17548,7 @@
       </c>
     </row>
     <row r="931" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A931" s="47" t="s">
+      <c r="A931" s="51" t="s">
         <v>10</v>
       </c>
       <c r="B931" s="3" t="s">
@@ -17565,7 +17565,7 @@
       </c>
     </row>
     <row r="932" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A932" s="48"/>
+      <c r="A932" s="52"/>
       <c r="B932" s="3" t="s">
         <v>12</v>
       </c>
@@ -17580,7 +17580,7 @@
       </c>
     </row>
     <row r="933" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A933" s="48"/>
+      <c r="A933" s="52"/>
       <c r="B933" s="3" t="s">
         <v>12</v>
       </c>
@@ -17595,7 +17595,7 @@
       </c>
     </row>
     <row r="934" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A934" s="48"/>
+      <c r="A934" s="52"/>
       <c r="B934" s="40" t="s">
         <v>12</v>
       </c>
@@ -17610,7 +17610,7 @@
       </c>
     </row>
     <row r="935" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A935" s="47" t="s">
+      <c r="A935" s="51" t="s">
         <v>370</v>
       </c>
       <c r="B935" s="3" t="s">
@@ -17627,7 +17627,7 @@
       </c>
     </row>
     <row r="936" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A936" s="48" t="s">
+      <c r="A936" s="52" t="s">
         <v>369</v>
       </c>
       <c r="B936" s="3" t="s">
@@ -17644,7 +17644,7 @@
       </c>
     </row>
     <row r="937" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A937" s="48" t="s">
+      <c r="A937" s="52" t="s">
         <v>369</v>
       </c>
       <c r="B937" s="3" t="s">
@@ -17661,7 +17661,7 @@
       </c>
     </row>
     <row r="938" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A938" s="48" t="s">
+      <c r="A938" s="52" t="s">
         <v>369</v>
       </c>
       <c r="B938" s="3" t="s">
@@ -17678,7 +17678,7 @@
       </c>
     </row>
     <row r="939" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A939" s="47" t="s">
+      <c r="A939" s="51" t="s">
         <v>372</v>
       </c>
       <c r="B939" s="3" t="s">
@@ -17695,7 +17695,7 @@
       </c>
     </row>
     <row r="940" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A940" s="48" t="s">
+      <c r="A940" s="52" t="s">
         <v>345</v>
       </c>
       <c r="B940" s="3" t="s">
@@ -17712,7 +17712,7 @@
       </c>
     </row>
     <row r="941" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A941" s="47" t="s">
+      <c r="A941" s="51" t="s">
         <v>374</v>
       </c>
       <c r="B941" s="3" t="s">
@@ -17729,7 +17729,7 @@
       </c>
     </row>
     <row r="942" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A942" s="48" t="s">
+      <c r="A942" s="52" t="s">
         <v>345</v>
       </c>
       <c r="B942" s="3" t="s">
@@ -17746,7 +17746,7 @@
       </c>
     </row>
     <row r="943" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A943" s="47" t="s">
+      <c r="A943" s="51" t="s">
         <v>377</v>
       </c>
       <c r="B943" s="3" t="s">
@@ -17763,7 +17763,7 @@
       </c>
     </row>
     <row r="944" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A944" s="48" t="s">
+      <c r="A944" s="52" t="s">
         <v>369</v>
       </c>
       <c r="B944" s="3" t="s">
@@ -17780,7 +17780,7 @@
       </c>
     </row>
     <row r="945" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A945" s="48" t="s">
+      <c r="A945" s="52" t="s">
         <v>369</v>
       </c>
       <c r="B945" s="3" t="s">
@@ -17797,7 +17797,7 @@
       </c>
     </row>
     <row r="946" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A946" s="48" t="s">
+      <c r="A946" s="52" t="s">
         <v>369</v>
       </c>
       <c r="B946" s="3" t="s">
@@ -17831,7 +17831,7 @@
       </c>
     </row>
     <row r="948" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A948" s="50" t="s">
+      <c r="A948" s="53" t="s">
         <v>381</v>
       </c>
       <c r="B948" s="3" t="s">
@@ -17848,7 +17848,7 @@
       </c>
     </row>
     <row r="949" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A949" s="51"/>
+      <c r="A949" s="54"/>
       <c r="B949" s="3" t="s">
         <v>382</v>
       </c>
@@ -17862,164 +17862,151 @@
         <v>385</v>
       </c>
     </row>
-    <row r="950" spans="1:6" s="57" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A950" s="54" t="s">
+    <row r="950" spans="1:6" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A950" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B950" s="55" t="s">
+      <c r="B950" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C950" s="55" t="s">
+      <c r="C950" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D950" s="55" t="s">
+      <c r="D950" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E950" s="55" t="s">
+      <c r="E950" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F950" s="56"/>
+      <c r="F950" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="287">
-    <mergeCell ref="A941:A942"/>
-    <mergeCell ref="A943:A946"/>
-    <mergeCell ref="A948:A949"/>
-    <mergeCell ref="A857:A860"/>
-    <mergeCell ref="A861:A864"/>
-    <mergeCell ref="A865:A868"/>
-    <mergeCell ref="A869:A872"/>
-    <mergeCell ref="A873:A876"/>
-    <mergeCell ref="A877:A880"/>
-    <mergeCell ref="A881:A884"/>
-    <mergeCell ref="A935:A938"/>
-    <mergeCell ref="A939:A940"/>
-    <mergeCell ref="A918:A920"/>
-    <mergeCell ref="A921:A923"/>
-    <mergeCell ref="A924:A926"/>
-    <mergeCell ref="A927:A930"/>
-    <mergeCell ref="A931:A934"/>
-    <mergeCell ref="A915:A917"/>
-    <mergeCell ref="A909:A911"/>
-    <mergeCell ref="A912:A914"/>
-    <mergeCell ref="A825:A826"/>
-    <mergeCell ref="A827:A828"/>
-    <mergeCell ref="A829:A832"/>
-    <mergeCell ref="A833:A836"/>
-    <mergeCell ref="A837:A840"/>
-    <mergeCell ref="A841:A844"/>
-    <mergeCell ref="A845:A848"/>
-    <mergeCell ref="A849:A852"/>
-    <mergeCell ref="A853:A856"/>
-    <mergeCell ref="A807:A808"/>
-    <mergeCell ref="A809:A810"/>
-    <mergeCell ref="A811:A812"/>
-    <mergeCell ref="A813:A814"/>
-    <mergeCell ref="A815:A816"/>
-    <mergeCell ref="A817:A818"/>
-    <mergeCell ref="A819:A820"/>
-    <mergeCell ref="A821:A822"/>
-    <mergeCell ref="A823:A824"/>
-    <mergeCell ref="A777:A780"/>
-    <mergeCell ref="A781:A784"/>
-    <mergeCell ref="A785:A788"/>
-    <mergeCell ref="A789:A792"/>
-    <mergeCell ref="A793:A796"/>
-    <mergeCell ref="A797:A800"/>
-    <mergeCell ref="A801:A802"/>
-    <mergeCell ref="A803:A804"/>
-    <mergeCell ref="A805:A806"/>
-    <mergeCell ref="A749:A752"/>
-    <mergeCell ref="A753:A756"/>
-    <mergeCell ref="A757:A760"/>
-    <mergeCell ref="A703:A705"/>
-    <mergeCell ref="A706:A708"/>
-    <mergeCell ref="A709:A711"/>
-    <mergeCell ref="A712:A714"/>
-    <mergeCell ref="A715:A717"/>
-    <mergeCell ref="A718:A720"/>
-    <mergeCell ref="A721:A723"/>
-    <mergeCell ref="A724:A726"/>
-    <mergeCell ref="A727:A729"/>
-    <mergeCell ref="A685:A686"/>
-    <mergeCell ref="A687:A688"/>
-    <mergeCell ref="A689:A690"/>
-    <mergeCell ref="A730:A732"/>
-    <mergeCell ref="A733:A735"/>
-    <mergeCell ref="A736:A738"/>
-    <mergeCell ref="A739:A741"/>
-    <mergeCell ref="A742:A744"/>
-    <mergeCell ref="A745:A748"/>
-    <mergeCell ref="A323:A326"/>
-    <mergeCell ref="A327:A330"/>
-    <mergeCell ref="A331:A334"/>
-    <mergeCell ref="A335:A338"/>
-    <mergeCell ref="A303:A306"/>
-    <mergeCell ref="A307:A310"/>
-    <mergeCell ref="A311:A314"/>
-    <mergeCell ref="A315:A318"/>
-    <mergeCell ref="A319:A322"/>
-    <mergeCell ref="A283:A286"/>
-    <mergeCell ref="A287:A290"/>
-    <mergeCell ref="A291:A294"/>
-    <mergeCell ref="A295:A298"/>
-    <mergeCell ref="A299:A302"/>
-    <mergeCell ref="A227:A230"/>
-    <mergeCell ref="A231:A234"/>
-    <mergeCell ref="A235:A238"/>
-    <mergeCell ref="A239:A242"/>
-    <mergeCell ref="A243:A246"/>
-    <mergeCell ref="A247:A250"/>
-    <mergeCell ref="A251:A254"/>
-    <mergeCell ref="A255:A258"/>
-    <mergeCell ref="A259:A262"/>
-    <mergeCell ref="A263:A266"/>
-    <mergeCell ref="A267:A270"/>
-    <mergeCell ref="A271:A274"/>
-    <mergeCell ref="A275:A278"/>
-    <mergeCell ref="A279:A282"/>
-    <mergeCell ref="A221:A222"/>
-    <mergeCell ref="A223:A224"/>
-    <mergeCell ref="A225:A226"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="A215:A216"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="A219:A220"/>
-    <mergeCell ref="A201:A202"/>
-    <mergeCell ref="A203:A204"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="A209:A210"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="A190:A192"/>
-    <mergeCell ref="A193:A195"/>
-    <mergeCell ref="A196:A198"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="A172:A174"/>
-    <mergeCell ref="A175:A177"/>
-    <mergeCell ref="A178:A180"/>
-    <mergeCell ref="A181:A183"/>
-    <mergeCell ref="A184:A186"/>
-    <mergeCell ref="A166:A168"/>
-    <mergeCell ref="A169:A171"/>
-    <mergeCell ref="A148:A150"/>
-    <mergeCell ref="A151:A153"/>
-    <mergeCell ref="A154:A156"/>
-    <mergeCell ref="A133:A135"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="A139:A141"/>
-    <mergeCell ref="A142:A144"/>
-    <mergeCell ref="A145:A147"/>
-    <mergeCell ref="A130:A132"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="A115:A117"/>
-    <mergeCell ref="A157:A159"/>
-    <mergeCell ref="A160:A162"/>
-    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="A608:A612"/>
+    <mergeCell ref="A613:A617"/>
+    <mergeCell ref="A618:A622"/>
+    <mergeCell ref="A623:A627"/>
+    <mergeCell ref="A628:A632"/>
+    <mergeCell ref="A521:A526"/>
+    <mergeCell ref="A527:A532"/>
+    <mergeCell ref="A533:A538"/>
+    <mergeCell ref="A539:A544"/>
+    <mergeCell ref="A545:A550"/>
+    <mergeCell ref="A551:A556"/>
+    <mergeCell ref="A557:A562"/>
+    <mergeCell ref="A563:A567"/>
+    <mergeCell ref="A568:A572"/>
+    <mergeCell ref="A573:A577"/>
+    <mergeCell ref="A578:A582"/>
+    <mergeCell ref="A583:A587"/>
+    <mergeCell ref="A588:A592"/>
+    <mergeCell ref="A593:A597"/>
+    <mergeCell ref="A598:A602"/>
+    <mergeCell ref="A603:A607"/>
+    <mergeCell ref="A477:A478"/>
+    <mergeCell ref="A479:A484"/>
+    <mergeCell ref="A485:A490"/>
+    <mergeCell ref="A491:A496"/>
+    <mergeCell ref="A497:A502"/>
+    <mergeCell ref="A503:A508"/>
+    <mergeCell ref="A509:A514"/>
+    <mergeCell ref="A515:A520"/>
+    <mergeCell ref="A459:A460"/>
+    <mergeCell ref="A461:A462"/>
+    <mergeCell ref="A463:A464"/>
+    <mergeCell ref="A465:A466"/>
+    <mergeCell ref="A467:A468"/>
+    <mergeCell ref="A469:A470"/>
+    <mergeCell ref="A471:A472"/>
+    <mergeCell ref="A473:A474"/>
+    <mergeCell ref="A475:A476"/>
+    <mergeCell ref="A436:A438"/>
+    <mergeCell ref="A439:A441"/>
+    <mergeCell ref="A442:A444"/>
+    <mergeCell ref="A445:A447"/>
+    <mergeCell ref="A448:A450"/>
+    <mergeCell ref="A451:A452"/>
+    <mergeCell ref="A453:A454"/>
+    <mergeCell ref="A455:A456"/>
+    <mergeCell ref="A457:A458"/>
+    <mergeCell ref="A409:A411"/>
+    <mergeCell ref="A412:A414"/>
+    <mergeCell ref="A415:A417"/>
+    <mergeCell ref="A418:A420"/>
+    <mergeCell ref="A421:A423"/>
+    <mergeCell ref="A424:A426"/>
+    <mergeCell ref="A427:A429"/>
+    <mergeCell ref="A430:A432"/>
+    <mergeCell ref="A433:A435"/>
+    <mergeCell ref="A339:A343"/>
+    <mergeCell ref="A344:A348"/>
+    <mergeCell ref="A349:A353"/>
+    <mergeCell ref="A354:A358"/>
+    <mergeCell ref="A359:A363"/>
+    <mergeCell ref="A364:A368"/>
+    <mergeCell ref="A369:A373"/>
+    <mergeCell ref="A374:A378"/>
+    <mergeCell ref="A379:A383"/>
+    <mergeCell ref="A384:A388"/>
+    <mergeCell ref="A389:A393"/>
+    <mergeCell ref="A394:A398"/>
+    <mergeCell ref="A399:A403"/>
+    <mergeCell ref="A404:A408"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A633:A635"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A669:A671"/>
+    <mergeCell ref="A636:A638"/>
+    <mergeCell ref="A639:A641"/>
+    <mergeCell ref="A642:A644"/>
+    <mergeCell ref="A645:A647"/>
+    <mergeCell ref="A648:A650"/>
+    <mergeCell ref="A651:A653"/>
+    <mergeCell ref="A654:A656"/>
+    <mergeCell ref="A657:A659"/>
+    <mergeCell ref="A660:A662"/>
+    <mergeCell ref="A663:A665"/>
+    <mergeCell ref="A666:A668"/>
     <mergeCell ref="A672:A674"/>
     <mergeCell ref="A885:A887"/>
     <mergeCell ref="A888:A890"/>
@@ -18044,131 +18031,144 @@
     <mergeCell ref="A679:A680"/>
     <mergeCell ref="A681:A682"/>
     <mergeCell ref="A683:A684"/>
-    <mergeCell ref="A669:A671"/>
-    <mergeCell ref="A636:A638"/>
-    <mergeCell ref="A639:A641"/>
-    <mergeCell ref="A642:A644"/>
-    <mergeCell ref="A645:A647"/>
-    <mergeCell ref="A648:A650"/>
-    <mergeCell ref="A651:A653"/>
-    <mergeCell ref="A654:A656"/>
-    <mergeCell ref="A657:A659"/>
-    <mergeCell ref="A660:A662"/>
-    <mergeCell ref="A663:A665"/>
-    <mergeCell ref="A666:A668"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A633:A635"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A384:A388"/>
-    <mergeCell ref="A389:A393"/>
-    <mergeCell ref="A394:A398"/>
-    <mergeCell ref="A399:A403"/>
-    <mergeCell ref="A404:A408"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="A127:A129"/>
-    <mergeCell ref="A339:A343"/>
-    <mergeCell ref="A344:A348"/>
-    <mergeCell ref="A349:A353"/>
-    <mergeCell ref="A354:A358"/>
-    <mergeCell ref="A359:A363"/>
-    <mergeCell ref="A364:A368"/>
-    <mergeCell ref="A369:A373"/>
-    <mergeCell ref="A374:A378"/>
-    <mergeCell ref="A379:A383"/>
-    <mergeCell ref="A409:A411"/>
-    <mergeCell ref="A412:A414"/>
-    <mergeCell ref="A415:A417"/>
-    <mergeCell ref="A418:A420"/>
-    <mergeCell ref="A421:A423"/>
-    <mergeCell ref="A424:A426"/>
-    <mergeCell ref="A427:A429"/>
-    <mergeCell ref="A430:A432"/>
-    <mergeCell ref="A433:A435"/>
-    <mergeCell ref="A436:A438"/>
-    <mergeCell ref="A439:A441"/>
-    <mergeCell ref="A442:A444"/>
-    <mergeCell ref="A445:A447"/>
-    <mergeCell ref="A448:A450"/>
-    <mergeCell ref="A451:A452"/>
-    <mergeCell ref="A453:A454"/>
-    <mergeCell ref="A455:A456"/>
-    <mergeCell ref="A457:A458"/>
-    <mergeCell ref="A477:A478"/>
-    <mergeCell ref="A479:A484"/>
-    <mergeCell ref="A485:A490"/>
-    <mergeCell ref="A491:A496"/>
-    <mergeCell ref="A497:A502"/>
-    <mergeCell ref="A503:A508"/>
-    <mergeCell ref="A509:A514"/>
-    <mergeCell ref="A515:A520"/>
-    <mergeCell ref="A459:A460"/>
-    <mergeCell ref="A461:A462"/>
-    <mergeCell ref="A463:A464"/>
-    <mergeCell ref="A465:A466"/>
-    <mergeCell ref="A467:A468"/>
-    <mergeCell ref="A469:A470"/>
-    <mergeCell ref="A471:A472"/>
-    <mergeCell ref="A473:A474"/>
-    <mergeCell ref="A475:A476"/>
-    <mergeCell ref="A608:A612"/>
-    <mergeCell ref="A613:A617"/>
-    <mergeCell ref="A618:A622"/>
-    <mergeCell ref="A623:A627"/>
-    <mergeCell ref="A628:A632"/>
-    <mergeCell ref="A521:A526"/>
-    <mergeCell ref="A527:A532"/>
-    <mergeCell ref="A533:A538"/>
-    <mergeCell ref="A539:A544"/>
-    <mergeCell ref="A545:A550"/>
-    <mergeCell ref="A551:A556"/>
-    <mergeCell ref="A557:A562"/>
-    <mergeCell ref="A563:A567"/>
-    <mergeCell ref="A568:A572"/>
-    <mergeCell ref="A573:A577"/>
-    <mergeCell ref="A578:A582"/>
-    <mergeCell ref="A583:A587"/>
-    <mergeCell ref="A588:A592"/>
-    <mergeCell ref="A593:A597"/>
-    <mergeCell ref="A598:A602"/>
-    <mergeCell ref="A603:A607"/>
+    <mergeCell ref="A130:A132"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="A157:A159"/>
+    <mergeCell ref="A160:A162"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="A166:A168"/>
+    <mergeCell ref="A169:A171"/>
+    <mergeCell ref="A148:A150"/>
+    <mergeCell ref="A151:A153"/>
+    <mergeCell ref="A154:A156"/>
+    <mergeCell ref="A133:A135"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="A139:A141"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="A145:A147"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="A190:A192"/>
+    <mergeCell ref="A193:A195"/>
+    <mergeCell ref="A196:A198"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="A172:A174"/>
+    <mergeCell ref="A175:A177"/>
+    <mergeCell ref="A178:A180"/>
+    <mergeCell ref="A181:A183"/>
+    <mergeCell ref="A184:A186"/>
+    <mergeCell ref="A221:A222"/>
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="A225:A226"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="A203:A204"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="A283:A286"/>
+    <mergeCell ref="A287:A290"/>
+    <mergeCell ref="A291:A294"/>
+    <mergeCell ref="A295:A298"/>
+    <mergeCell ref="A299:A302"/>
+    <mergeCell ref="A227:A230"/>
+    <mergeCell ref="A231:A234"/>
+    <mergeCell ref="A235:A238"/>
+    <mergeCell ref="A239:A242"/>
+    <mergeCell ref="A243:A246"/>
+    <mergeCell ref="A247:A250"/>
+    <mergeCell ref="A251:A254"/>
+    <mergeCell ref="A255:A258"/>
+    <mergeCell ref="A259:A262"/>
+    <mergeCell ref="A263:A266"/>
+    <mergeCell ref="A267:A270"/>
+    <mergeCell ref="A271:A274"/>
+    <mergeCell ref="A275:A278"/>
+    <mergeCell ref="A279:A282"/>
+    <mergeCell ref="A323:A326"/>
+    <mergeCell ref="A327:A330"/>
+    <mergeCell ref="A331:A334"/>
+    <mergeCell ref="A335:A338"/>
+    <mergeCell ref="A303:A306"/>
+    <mergeCell ref="A307:A310"/>
+    <mergeCell ref="A311:A314"/>
+    <mergeCell ref="A315:A318"/>
+    <mergeCell ref="A319:A322"/>
+    <mergeCell ref="A685:A686"/>
+    <mergeCell ref="A687:A688"/>
+    <mergeCell ref="A689:A690"/>
+    <mergeCell ref="A730:A732"/>
+    <mergeCell ref="A733:A735"/>
+    <mergeCell ref="A736:A738"/>
+    <mergeCell ref="A739:A741"/>
+    <mergeCell ref="A742:A744"/>
+    <mergeCell ref="A745:A748"/>
+    <mergeCell ref="A749:A752"/>
+    <mergeCell ref="A753:A756"/>
+    <mergeCell ref="A757:A760"/>
+    <mergeCell ref="A703:A705"/>
+    <mergeCell ref="A706:A708"/>
+    <mergeCell ref="A709:A711"/>
+    <mergeCell ref="A712:A714"/>
+    <mergeCell ref="A715:A717"/>
+    <mergeCell ref="A718:A720"/>
+    <mergeCell ref="A721:A723"/>
+    <mergeCell ref="A724:A726"/>
+    <mergeCell ref="A727:A729"/>
+    <mergeCell ref="A777:A780"/>
+    <mergeCell ref="A781:A784"/>
+    <mergeCell ref="A785:A788"/>
+    <mergeCell ref="A789:A792"/>
+    <mergeCell ref="A793:A796"/>
+    <mergeCell ref="A797:A800"/>
+    <mergeCell ref="A801:A802"/>
+    <mergeCell ref="A803:A804"/>
+    <mergeCell ref="A805:A806"/>
+    <mergeCell ref="A807:A808"/>
+    <mergeCell ref="A809:A810"/>
+    <mergeCell ref="A811:A812"/>
+    <mergeCell ref="A813:A814"/>
+    <mergeCell ref="A815:A816"/>
+    <mergeCell ref="A817:A818"/>
+    <mergeCell ref="A819:A820"/>
+    <mergeCell ref="A821:A822"/>
+    <mergeCell ref="A823:A824"/>
+    <mergeCell ref="A825:A826"/>
+    <mergeCell ref="A827:A828"/>
+    <mergeCell ref="A829:A832"/>
+    <mergeCell ref="A833:A836"/>
+    <mergeCell ref="A837:A840"/>
+    <mergeCell ref="A841:A844"/>
+    <mergeCell ref="A845:A848"/>
+    <mergeCell ref="A849:A852"/>
+    <mergeCell ref="A853:A856"/>
+    <mergeCell ref="A941:A942"/>
+    <mergeCell ref="A943:A946"/>
+    <mergeCell ref="A948:A949"/>
+    <mergeCell ref="A857:A860"/>
+    <mergeCell ref="A861:A864"/>
+    <mergeCell ref="A865:A868"/>
+    <mergeCell ref="A869:A872"/>
+    <mergeCell ref="A873:A876"/>
+    <mergeCell ref="A877:A880"/>
+    <mergeCell ref="A881:A884"/>
+    <mergeCell ref="A935:A938"/>
+    <mergeCell ref="A939:A940"/>
+    <mergeCell ref="A918:A920"/>
+    <mergeCell ref="A921:A923"/>
+    <mergeCell ref="A924:A926"/>
+    <mergeCell ref="A927:A930"/>
+    <mergeCell ref="A931:A934"/>
+    <mergeCell ref="A915:A917"/>
+    <mergeCell ref="A909:A911"/>
+    <mergeCell ref="A912:A914"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
